--- a/entry_lists/Sonoma Provisional Entry List.xlsx
+++ b/entry_lists/Sonoma Provisional Entry List.xlsx
@@ -7504,10 +7504,8 @@
           <t>GT America</t>
         </is>
       </c>
-      <c r="B7" s="398" t="inlineStr">
-        <is>
-          <t>333</t>
-        </is>
+      <c r="B7" s="398" t="n">
+        <v>333</v>
       </c>
       <c r="C7" s="399" t="inlineStr">
         <is>
@@ -7553,10 +7551,8 @@
           <t>GT America</t>
         </is>
       </c>
-      <c r="B8" s="403" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
+      <c r="B8" s="403" t="n">
+        <v>222</v>
       </c>
       <c r="C8" s="404" t="inlineStr">
         <is>
@@ -7598,10 +7594,8 @@
           <t>GT America</t>
         </is>
       </c>
-      <c r="B9" s="406" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="B9" s="406" t="n">
+        <v>2</v>
       </c>
       <c r="C9" s="407" t="inlineStr">
         <is>
@@ -8390,10 +8384,8 @@
           <t>TC America</t>
         </is>
       </c>
-      <c r="B7" s="478" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
+      <c r="B7" s="478" t="n">
+        <v>80</v>
       </c>
       <c r="C7" s="479" t="inlineStr">
         <is>
@@ -8439,10 +8431,8 @@
           <t>TC America</t>
         </is>
       </c>
-      <c r="B8" s="482" t="inlineStr">
-        <is>
-          <t>789</t>
-        </is>
+      <c r="B8" s="482" t="n">
+        <v>789</v>
       </c>
       <c r="C8" s="482" t="inlineStr">
         <is>
@@ -8541,10 +8531,8 @@
           <t>TC America</t>
         </is>
       </c>
-      <c r="B9" s="484" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 50</t>
-        </is>
+      <c r="B9" s="484" t="n">
+        <v>50</v>
       </c>
       <c r="C9" s="485" t="inlineStr">
         <is>
@@ -8639,19 +8627,17 @@
           <t>TC America</t>
         </is>
       </c>
-      <c r="B10" s="484" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="B10" s="484" t="n">
+        <v>56</v>
       </c>
       <c r="C10" s="485" t="inlineStr">
         <is>
-          <t>Lone Star Racing</t>
+          <t>Blue Jays Racing</t>
         </is>
       </c>
       <c r="D10" s="486" t="inlineStr">
         <is>
-          <t>Juan Pablo Martinez</t>
+          <t>Roy Halladay</t>
         </is>
       </c>
       <c r="E10" s="486" t="inlineStr">
@@ -8659,19 +8645,15 @@
           <t>USA</t>
         </is>
       </c>
-      <c r="F10" s="488" t="inlineStr">
-        <is>
-          <t>sponsor - test, Im still testing this janky backend</t>
-        </is>
-      </c>
+      <c r="F10" s="488" t="inlineStr"/>
       <c r="G10" s="488" t="inlineStr">
         <is>
-          <t>subaruBrz</t>
+          <t>Honda Civic Type-R TC</t>
         </is>
       </c>
       <c r="H10" s="487" t="inlineStr">
         <is>
-          <t>TCA</t>
+          <t>TC</t>
         </is>
       </c>
       <c r="I10" s="25" t="n"/>
@@ -8741,19 +8723,17 @@
           <t>TC America</t>
         </is>
       </c>
-      <c r="B11" s="489" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
+      <c r="B11" s="489" t="n">
+        <v>9</v>
       </c>
       <c r="C11" s="485" t="inlineStr">
         <is>
-          <t>Skip Barber Racing</t>
+          <t>Lone Star Racing</t>
         </is>
       </c>
       <c r="D11" s="486" t="inlineStr">
         <is>
-          <t>Matt Chapman</t>
+          <t>Juan Pablo Martinez</t>
         </is>
       </c>
       <c r="E11" s="485" t="inlineStr">
@@ -8763,12 +8743,12 @@
       </c>
       <c r="F11" s="485" t="inlineStr">
         <is>
-          <t>Mustaches, BioSteel</t>
+          <t>sponsor - test, Im still testing this janky backend</t>
         </is>
       </c>
       <c r="G11" s="488" t="inlineStr">
         <is>
-          <t>Honda Civic Si</t>
+          <t>subaruBrz</t>
         </is>
       </c>
       <c r="H11" s="487" t="inlineStr">
@@ -8838,14 +8818,44 @@
       <c r="BP11" s="26" t="n"/>
     </row>
     <row r="12" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A12" s="516" t="n"/>
-      <c r="B12" s="490" t="n"/>
-      <c r="C12" s="490" t="n"/>
-      <c r="D12" s="490" t="n"/>
-      <c r="E12" s="490" t="n"/>
-      <c r="F12" s="490" t="n"/>
-      <c r="G12" s="490" t="n"/>
-      <c r="H12" s="491" t="n"/>
+      <c r="A12" s="516" t="inlineStr">
+        <is>
+          <t>TC America</t>
+        </is>
+      </c>
+      <c r="B12" s="490" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" s="490" t="inlineStr">
+        <is>
+          <t>Skip Barber Racing</t>
+        </is>
+      </c>
+      <c r="D12" s="490" t="inlineStr">
+        <is>
+          <t>Matt Chapman</t>
+        </is>
+      </c>
+      <c r="E12" s="490" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F12" s="490" t="inlineStr">
+        <is>
+          <t>Mustaches, BioSteel</t>
+        </is>
+      </c>
+      <c r="G12" s="490" t="inlineStr">
+        <is>
+          <t>Honda Civic Si</t>
+        </is>
+      </c>
+      <c r="H12" s="491" t="inlineStr">
+        <is>
+          <t>TCA</t>
+        </is>
+      </c>
       <c r="I12" s="25" t="n"/>
       <c r="J12" s="25" t="n"/>
       <c r="K12" s="25" t="n"/>

--- a/entry_lists/Sonoma Provisional Entry List.xlsx
+++ b/entry_lists/Sonoma Provisional Entry List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GTWCA" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="66">
+  <fonts count="67">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -454,6 +454,12 @@
       <sz val="16"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="22"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1660,7 +1666,7 @@
     <xf numFmtId="0" fontId="23" fillId="5" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="527">
+  <cellXfs count="532">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2172,9 +2178,6 @@
     <xf numFmtId="49" fontId="39" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2192,9 +2195,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2322,9 +2322,6 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2338,12 +2335,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,12 +2367,6 @@
     </xf>
     <xf numFmtId="49" fontId="50" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="51" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2417,12 +2402,6 @@
     <xf numFmtId="0" fontId="53" fillId="0" borderId="57" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2441,12 +2420,6 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="58" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="14" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,9 +2452,6 @@
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="61" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2496,9 +2466,6 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="62" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="63" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2542,20 +2509,11 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="63" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2692,332 +2650,536 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="51" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="45" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="51" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="56" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="37" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="42" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="77" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="76" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="46" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="78" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="45" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="79" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="80" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="81" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="82" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="83" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="84" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="85" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="87" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="88" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="0" borderId="89" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="59" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="32" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="60" fillId="0" borderId="59" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -3025,148 +3187,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="86" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="68" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="90" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="91" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="40" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="61" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -3179,41 +3200,6 @@
     <cellStyle name="Bad 2" xfId="4"/>
   </cellStyles>
   <dxfs count="66">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="16"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thin">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <font>
         <name val="Calibri"/>
@@ -3442,6 +3428,41 @@
         </top>
         <bottom style="thin">
           <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="16"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
         </bottom>
       </border>
     </dxf>
@@ -3516,522 +3537,6 @@
         <outline val="0"/>
         <shadow val="0"/>
         <color theme="1"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.249977111117893"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color auto="1"/>
-        <extend val="0"/>
-        <sz val="12"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thick">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color rgb="FF000000"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thick">
-          <color rgb="FF000000"/>
-        </left>
-        <right style="thick">
-          <color rgb="FF000000"/>
-        </right>
-        <top style="thick">
-          <color rgb="FF000000"/>
-        </top>
-        <bottom style="thick">
-          <color rgb="FF000000"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thick">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <b val="1"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <sz val="14"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <color theme="1"/>
         <sz val="14"/>
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
@@ -4293,7 +3798,7 @@
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
@@ -4301,7 +3806,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center"/>
-      <border outline="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4423,6 +3928,522 @@
     <dxf>
       <font>
         <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color theme="1"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color theme="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <condense val="0"/>
+        <color auto="1"/>
+        <extend val="0"/>
+        <sz val="12"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thick">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thick">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thick">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thick">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thick">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thick">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <b val="1"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <sz val="14"/>
+        <vertAlign val="baseline"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -4810,9 +4831,9 @@
         <vertAlign val="baseline"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <alignment horizontal="center" vertical="center"/>
+      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -4847,8 +4868,8 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center"/>
-      <border>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <border outline="0">
         <left style="thick">
           <color indexed="64"/>
         </left>
@@ -5034,7 +5055,7 @@
     </from>
     <to>
       <col>2</col>
-      <colOff>1044222</colOff>
+      <colOff>933097</colOff>
       <row>3</row>
       <rowOff>416906</rowOff>
     </to>
@@ -5279,47 +5300,47 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2267" displayName="Table2267" ref="A6:N38" headerRowCount="1" totalsRowShown="0" headerRowDxfId="30" headerRowBorderDxfId="29" tableBorderDxfId="28" totalsRowBorderDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2267" displayName="Table2267" ref="A6:N38" headerRowCount="1" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="44" tableBorderDxfId="43" totalsRowBorderDxfId="42">
   <sortState ref="A7:N39">
     <sortCondition ref="B9:B39"/>
   </sortState>
   <tableColumns count="14">
-    <tableColumn id="2" name="Series" dataDxfId="26" dataCellStyle="Neutral"/>
-    <tableColumn id="10" name="Car #" dataDxfId="25"/>
-    <tableColumn id="3" name="Team " dataDxfId="24" dataCellStyle="Neutral"/>
-    <tableColumn id="4" name="Driver 1" dataDxfId="23" dataCellStyle="Neutral"/>
-    <tableColumn id="5" name="NAT" dataDxfId="22" dataCellStyle="Neutral"/>
-    <tableColumn id="13" name="LIC " dataDxfId="21"/>
-    <tableColumn id="6" name="CAT" dataDxfId="20"/>
-    <tableColumn id="12" name="Driver 2" dataDxfId="19"/>
-    <tableColumn id="11" name="  NAT " dataDxfId="18"/>
-    <tableColumn id="14" name=" LIC " dataDxfId="17"/>
-    <tableColumn id="1" name="CAT " dataDxfId="16"/>
-    <tableColumn id="8" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
-    <tableColumn id="7" name="Car Make/Model" dataDxfId="14"/>
-    <tableColumn id="9" name="Championship" dataDxfId="13"/>
+    <tableColumn id="2" name="Series" dataDxfId="41" dataCellStyle="Neutral"/>
+    <tableColumn id="10" name="Car #" dataDxfId="40"/>
+    <tableColumn id="3" name="Team " dataDxfId="39" dataCellStyle="Neutral"/>
+    <tableColumn id="4" name="Driver 1" dataDxfId="38" dataCellStyle="Neutral"/>
+    <tableColumn id="5" name="NAT" dataDxfId="37" dataCellStyle="Neutral"/>
+    <tableColumn id="13" name="LIC " dataDxfId="36"/>
+    <tableColumn id="6" name="CAT" dataDxfId="35"/>
+    <tableColumn id="12" name="Driver 2" dataDxfId="34"/>
+    <tableColumn id="11" name="  NAT " dataDxfId="33"/>
+    <tableColumn id="14" name=" LIC " dataDxfId="32"/>
+    <tableColumn id="1" name="CAT " dataDxfId="31"/>
+    <tableColumn id="8" name="Car Sponsors" dataDxfId="30" dataCellStyle="Neutral"/>
+    <tableColumn id="7" name="Car Make/Model" dataDxfId="29"/>
+    <tableColumn id="9" name="Championship" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table226" displayName="Table226" ref="A6:J37" headerRowCount="1" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42" totalsRowBorderDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table226" displayName="Table226" ref="A6:J37" headerRowCount="1" totalsRowShown="0" headerRowDxfId="27" dataDxfId="25" headerRowBorderDxfId="26" tableBorderDxfId="24" totalsRowBorderDxfId="23">
   <sortState ref="A7:J40">
     <sortCondition descending="1" ref="J8:J40"/>
     <sortCondition ref="B8:B40"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="2" name="Series" dataDxfId="40" dataCellStyle="Neutral"/>
-    <tableColumn id="10" name="Car #" dataDxfId="39"/>
-    <tableColumn id="3" name="Team " dataDxfId="38" dataCellStyle="Neutral"/>
-    <tableColumn id="4" name="Driver 1" dataDxfId="37" dataCellStyle="Neutral"/>
-    <tableColumn id="5" name="NAT" dataDxfId="36" dataCellStyle="Neutral"/>
-    <tableColumn id="13" name="LIC " dataDxfId="35"/>
-    <tableColumn id="6" name="CAT" dataDxfId="34"/>
-    <tableColumn id="8" name="Car Sponsors" dataDxfId="33" dataCellStyle="Neutral"/>
-    <tableColumn id="7" name="Car Make/Model" dataDxfId="32"/>
-    <tableColumn id="9" name="Class" dataDxfId="31"/>
+    <tableColumn id="2" name="Series" dataDxfId="22" dataCellStyle="Neutral"/>
+    <tableColumn id="10" name="Car #" dataDxfId="21"/>
+    <tableColumn id="3" name="Team " dataDxfId="20" dataCellStyle="Neutral"/>
+    <tableColumn id="4" name="Driver 1" dataDxfId="19" dataCellStyle="Neutral"/>
+    <tableColumn id="5" name="NAT" dataDxfId="18" dataCellStyle="Neutral"/>
+    <tableColumn id="13" name="LIC " dataDxfId="17"/>
+    <tableColumn id="6" name="CAT" dataDxfId="16"/>
+    <tableColumn id="8" name="Car Sponsors" dataDxfId="15" dataCellStyle="Neutral"/>
+    <tableColumn id="7" name="Car Make/Model" dataDxfId="14"/>
+    <tableColumn id="9" name="Class" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5331,14 +5352,14 @@
     <sortCondition descending="1" ref="H12:H35"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" name="Series" dataDxfId="0" dataCellStyle="Neutral"/>
-    <tableColumn id="10" name="Car #" dataDxfId="7"/>
-    <tableColumn id="3" name="Team " dataDxfId="6" dataCellStyle="Neutral"/>
-    <tableColumn id="4" name="Driver" dataDxfId="5" dataCellStyle="Neutral"/>
-    <tableColumn id="5" name="NAT" dataDxfId="4" dataCellStyle="Neutral"/>
-    <tableColumn id="8" name="Car Sponsors" dataDxfId="3" dataCellStyle="Neutral"/>
-    <tableColumn id="7" name="Car Make/Model" dataDxfId="2"/>
-    <tableColumn id="9" name="Class" dataDxfId="1"/>
+    <tableColumn id="2" name="Series" dataDxfId="7" dataCellStyle="Neutral"/>
+    <tableColumn id="10" name="Car #" dataDxfId="6"/>
+    <tableColumn id="3" name="Team " dataDxfId="5" dataCellStyle="Neutral"/>
+    <tableColumn id="4" name="Driver" dataDxfId="4" dataCellStyle="Neutral"/>
+    <tableColumn id="5" name="NAT" dataDxfId="3" dataCellStyle="Neutral"/>
+    <tableColumn id="8" name="Car Sponsors" dataDxfId="2" dataCellStyle="Neutral"/>
+    <tableColumn id="7" name="Car Make/Model" dataDxfId="1"/>
+    <tableColumn id="9" name="Class" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -5648,732 +5669,857 @@
   <dimension ref="A2:X34"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
   <cols>
-    <col width="10.6640625" customWidth="1" style="224" min="1" max="1"/>
-    <col width="8.6640625" customWidth="1" style="225" min="2" max="2"/>
-    <col width="27.1640625" customWidth="1" style="224" min="3" max="3"/>
-    <col width="30.6640625" customWidth="1" style="224" min="4" max="4"/>
-    <col width="8.6640625" customWidth="1" style="224" min="5" max="7"/>
-    <col width="30.6640625" customWidth="1" style="224" min="8" max="8"/>
-    <col width="8.6640625" customWidth="1" style="224" min="9" max="11"/>
-    <col width="35.6640625" customWidth="1" style="224" min="12" max="13"/>
-    <col width="14.33203125" customWidth="1" style="224" min="14" max="14"/>
-    <col width="4.5" customWidth="1" style="224" min="15" max="17"/>
-    <col width="8.6640625" customWidth="1" style="224" min="18" max="19"/>
-    <col width="10.6640625" customWidth="1" style="224" min="20" max="20"/>
-    <col width="8.6640625" customWidth="1" style="224" min="21" max="24"/>
-    <col width="4.5" customWidth="1" style="224" min="25" max="16384"/>
+    <col width="12.1640625" customWidth="1" style="222" min="1" max="1"/>
+    <col width="8.6640625" customWidth="1" style="223" min="2" max="2"/>
+    <col width="27.1640625" customWidth="1" style="222" min="3" max="3"/>
+    <col width="30.6640625" customWidth="1" style="222" min="4" max="4"/>
+    <col width="8.6640625" customWidth="1" style="222" min="5" max="7"/>
+    <col width="30.6640625" customWidth="1" style="222" min="8" max="8"/>
+    <col width="8.6640625" customWidth="1" style="222" min="9" max="11"/>
+    <col width="35.6640625" customWidth="1" style="222" min="12" max="13"/>
+    <col width="14.33203125" customWidth="1" style="222" min="14" max="14"/>
+    <col width="4.5" customWidth="1" style="222" min="15" max="17"/>
+    <col width="8.6640625" customWidth="1" style="222" min="18" max="19"/>
+    <col width="10.6640625" customWidth="1" style="222" min="20" max="20"/>
+    <col width="8.6640625" customWidth="1" style="222" min="21" max="24"/>
+    <col width="4.5" customWidth="1" style="222" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="471" t="n"/>
-      <c r="F2" s="184" t="n"/>
-      <c r="G2" s="184" t="n"/>
-      <c r="H2" s="473" t="n"/>
-      <c r="I2" s="184" t="n"/>
-      <c r="J2" s="184" t="n"/>
-      <c r="M2" s="471" t="n"/>
+      <c r="A2" s="523" t="n"/>
+      <c r="D2" s="530" t="inlineStr">
+        <is>
+          <t>Sonoma Raceway</t>
+        </is>
+      </c>
+      <c r="M2" s="523" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="F3" s="184" t="n"/>
-      <c r="G3" s="184" t="n"/>
-      <c r="H3" s="473" t="inlineStr">
+      <c r="D3" s="524" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
-      <c r="I3" s="184" t="n"/>
-      <c r="J3" s="184" t="n"/>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="F4" s="184" t="n"/>
-      <c r="G4" s="184" t="n"/>
-      <c r="H4" s="473" t="n"/>
-      <c r="I4" s="184" t="n"/>
-      <c r="J4" s="184" t="n"/>
+      <c r="D4" s="530" t="inlineStr">
+        <is>
+          <t>April 5 - 7</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="R5" s="471" t="inlineStr">
+      <c r="R5" s="523" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
       </c>
     </row>
     <row r="6" ht="32.25" customHeight="1" thickTop="1">
-      <c r="A6" s="226" t="inlineStr">
+      <c r="A6" s="224" t="inlineStr">
         <is>
           <t>Series</t>
         </is>
       </c>
-      <c r="B6" s="226" t="inlineStr">
+      <c r="B6" s="224" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C6" s="226" t="inlineStr">
+      <c r="C6" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="D6" s="226" t="inlineStr">
+      <c r="D6" s="224" t="inlineStr">
         <is>
           <t>Driver 1</t>
         </is>
       </c>
-      <c r="E6" s="226" t="inlineStr">
+      <c r="E6" s="224" t="inlineStr">
         <is>
           <t>NAT</t>
         </is>
       </c>
-      <c r="F6" s="226" t="inlineStr">
+      <c r="F6" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">LIC </t>
         </is>
       </c>
-      <c r="G6" s="226" t="inlineStr">
+      <c r="G6" s="224" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="H6" s="226" t="inlineStr">
+      <c r="H6" s="224" t="inlineStr">
         <is>
           <t>Driver 2</t>
         </is>
       </c>
-      <c r="I6" s="226" t="inlineStr">
+      <c r="I6" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">  NAT </t>
         </is>
       </c>
-      <c r="J6" s="226" t="inlineStr">
+      <c r="J6" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve"> LIC </t>
         </is>
       </c>
-      <c r="K6" s="226" t="inlineStr">
+      <c r="K6" s="224" t="inlineStr">
         <is>
           <t xml:space="preserve">CAT </t>
         </is>
       </c>
-      <c r="L6" s="227" t="inlineStr">
+      <c r="L6" s="225" t="inlineStr">
         <is>
           <t>Car Sponsors</t>
         </is>
       </c>
-      <c r="M6" s="226" t="inlineStr">
+      <c r="M6" s="224" t="inlineStr">
         <is>
           <t>Car Make/Model</t>
         </is>
       </c>
-      <c r="N6" s="228" t="inlineStr">
+      <c r="N6" s="226" t="inlineStr">
         <is>
           <t>Championship</t>
         </is>
       </c>
-      <c r="Q6" s="224" t="inlineStr">
+      <c r="Q6" s="222" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="R6" s="229" t="inlineStr">
+      <c r="R6" s="227" t="inlineStr">
         <is>
           <t>Admin Chk</t>
         </is>
       </c>
-      <c r="S6" s="230" t="inlineStr">
+      <c r="S6" s="228" t="inlineStr">
         <is>
           <t>Driver Chk</t>
         </is>
       </c>
-      <c r="T6" s="231" t="inlineStr">
+      <c r="T6" s="229" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="U6" s="231" t="inlineStr">
+      <c r="U6" s="229" t="inlineStr">
         <is>
           <t>Dr 1 Gear</t>
         </is>
       </c>
-      <c r="V6" s="231" t="inlineStr">
+      <c r="V6" s="229" t="inlineStr">
         <is>
           <t>Dr1 Weight</t>
         </is>
       </c>
-      <c r="W6" s="231" t="inlineStr">
+      <c r="W6" s="229" t="inlineStr">
         <is>
           <t>Dr 2 Gear</t>
         </is>
       </c>
-      <c r="X6" s="231" t="inlineStr">
+      <c r="X6" s="229" t="inlineStr">
         <is>
           <t>Dr 2 Weight</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A7" s="232" t="n"/>
-      <c r="B7" s="233" t="n"/>
-      <c r="C7" s="232" t="n"/>
-      <c r="D7" s="232" t="n"/>
-      <c r="E7" s="232" t="n"/>
-      <c r="F7" s="232" t="n"/>
-      <c r="G7" s="232" t="n"/>
-      <c r="H7" s="232" t="n"/>
-      <c r="I7" s="232" t="n"/>
-      <c r="J7" s="232" t="n"/>
-      <c r="K7" s="232" t="n"/>
-      <c r="L7" s="232" t="n"/>
-      <c r="M7" s="232" t="n"/>
-      <c r="N7" s="234" t="n"/>
-      <c r="O7" s="235" t="n"/>
-      <c r="P7" s="235" t="n"/>
-      <c r="Q7" s="235" t="n"/>
-      <c r="R7" s="236" t="n"/>
-      <c r="S7" s="232" t="n"/>
-      <c r="T7" s="232" t="n"/>
-      <c r="U7" s="232" t="n"/>
-      <c r="V7" s="232" t="n"/>
-      <c r="W7" s="232" t="n"/>
-      <c r="X7" s="237" t="n"/>
-    </row>
-    <row r="8" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A8" s="239" t="n"/>
-      <c r="B8" s="240" t="n"/>
-      <c r="C8" s="241" t="n"/>
-      <c r="D8" s="241" t="n"/>
-      <c r="E8" s="241" t="n"/>
-      <c r="F8" s="242" t="n"/>
-      <c r="G8" s="242" t="n"/>
-      <c r="H8" s="242" t="n"/>
-      <c r="I8" s="242" t="n"/>
-      <c r="J8" s="243" t="n"/>
-      <c r="K8" s="242" t="n"/>
-      <c r="L8" s="244" t="n"/>
-      <c r="M8" s="245" t="n"/>
-      <c r="N8" s="246" t="n"/>
-      <c r="O8" s="235" t="n"/>
-      <c r="P8" s="235" t="n"/>
-      <c r="Q8" s="235" t="n"/>
-      <c r="R8" s="247" t="n"/>
-      <c r="S8" s="248" t="n"/>
-      <c r="T8" s="248" t="n"/>
-      <c r="U8" s="248" t="n"/>
-      <c r="V8" s="248" t="n"/>
-      <c r="W8" s="248" t="n"/>
-      <c r="X8" s="249" t="n"/>
-    </row>
-    <row r="9" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A9" s="239" t="n"/>
-      <c r="B9" s="240" t="n"/>
-      <c r="C9" s="242" t="n"/>
-      <c r="D9" s="242" t="n"/>
-      <c r="E9" s="242" t="n"/>
-      <c r="F9" s="242" t="n"/>
-      <c r="G9" s="242" t="n"/>
-      <c r="H9" s="242" t="n"/>
-      <c r="I9" s="242" t="n"/>
-      <c r="J9" s="242" t="n"/>
-      <c r="K9" s="250" t="n"/>
-      <c r="L9" s="251" t="n"/>
-      <c r="M9" s="245" t="n"/>
-      <c r="N9" s="246" t="n"/>
-      <c r="O9" s="235" t="n"/>
-      <c r="P9" s="235" t="n"/>
-      <c r="Q9" s="235" t="n"/>
-      <c r="R9" s="247" t="n"/>
-      <c r="S9" s="248" t="n"/>
-      <c r="T9" s="248" t="n"/>
-      <c r="U9" s="248" t="n"/>
-      <c r="V9" s="248" t="n"/>
-      <c r="W9" s="248" t="n"/>
-      <c r="X9" s="249" t="n"/>
-    </row>
-    <row r="10" ht="32.25" customFormat="1" customHeight="1" s="262">
-      <c r="A10" s="252" t="n"/>
-      <c r="B10" s="253" t="n"/>
-      <c r="C10" s="254" t="n"/>
-      <c r="D10" s="255" t="n"/>
-      <c r="E10" s="255" t="n"/>
-      <c r="F10" s="256" t="n"/>
-      <c r="G10" s="257" t="n"/>
-      <c r="H10" s="257" t="n"/>
-      <c r="I10" s="257" t="n"/>
-      <c r="J10" s="256" t="n"/>
-      <c r="K10" s="258" t="n"/>
-      <c r="L10" s="259" t="n"/>
-      <c r="M10" s="260" t="n"/>
-      <c r="N10" s="261" t="n"/>
-      <c r="R10" s="263" t="n"/>
-      <c r="S10" s="264" t="n"/>
-      <c r="T10" s="264" t="n"/>
-      <c r="U10" s="264" t="n"/>
-      <c r="V10" s="264" t="n"/>
-      <c r="W10" s="264" t="n"/>
-      <c r="X10" s="265" t="n"/>
-    </row>
-    <row r="11" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A11" s="266" t="n"/>
-      <c r="B11" s="267" t="n"/>
+    <row r="7" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A7" s="488" t="inlineStr">
+        <is>
+          <t>GT World Challenge America</t>
+        </is>
+      </c>
+      <c r="B7" s="489" t="n">
+        <v>123</v>
+      </c>
+      <c r="C7" s="230" t="inlineStr">
+        <is>
+          <t>ACI Motorsports</t>
+        </is>
+      </c>
+      <c r="D7" s="230" t="inlineStr">
+        <is>
+          <t>Aaron Kaplan</t>
+        </is>
+      </c>
+      <c r="E7" s="230" t="inlineStr">
+        <is>
+          <t>IRL</t>
+        </is>
+      </c>
+      <c r="F7" s="230" t="n"/>
+      <c r="G7" s="230" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="H7" s="230" t="inlineStr">
+        <is>
+          <t>Aaron Povoledo</t>
+        </is>
+      </c>
+      <c r="I7" s="230" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J7" s="230" t="n"/>
+      <c r="K7" s="230" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="L7" s="230" t="inlineStr"/>
+      <c r="M7" s="230" t="inlineStr">
+        <is>
+          <t>acuraNsxGt3Evo22</t>
+        </is>
+      </c>
+      <c r="N7" s="231" t="inlineStr">
+        <is>
+          <t>Pro</t>
+        </is>
+      </c>
+      <c r="O7" s="232" t="n"/>
+      <c r="P7" s="232" t="n"/>
+      <c r="Q7" s="232" t="n"/>
+      <c r="R7" s="233" t="n"/>
+      <c r="S7" s="230" t="n"/>
+      <c r="T7" s="230" t="n"/>
+      <c r="U7" s="230" t="n"/>
+      <c r="V7" s="230" t="n"/>
+      <c r="W7" s="230" t="n"/>
+      <c r="X7" s="234" t="n"/>
+    </row>
+    <row r="8" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A8" s="512" t="inlineStr">
+        <is>
+          <t>GT World Challenge America</t>
+        </is>
+      </c>
+      <c r="B8" s="490" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" s="236" t="inlineStr">
+        <is>
+          <t>K-Pax Racing</t>
+        </is>
+      </c>
+      <c r="D8" s="236" t="inlineStr">
+        <is>
+          <t>Kevin Kiermier</t>
+        </is>
+      </c>
+      <c r="E8" s="236" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F8" s="237" t="n"/>
+      <c r="G8" s="237" t="inlineStr">
+        <is>
+          <t>Platinum</t>
+        </is>
+      </c>
+      <c r="H8" s="237" t="inlineStr">
+        <is>
+          <t>George Springer</t>
+        </is>
+      </c>
+      <c r="I8" s="237" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J8" s="238" t="n"/>
+      <c r="K8" s="237" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="L8" s="239" t="inlineStr"/>
+      <c r="M8" s="240" t="inlineStr">
+        <is>
+          <t>Lamborghini Huarcan GT3 EVO</t>
+        </is>
+      </c>
+      <c r="N8" s="241" t="inlineStr">
+        <is>
+          <t>Pro-Am</t>
+        </is>
+      </c>
+      <c r="O8" s="232" t="n"/>
+      <c r="P8" s="232" t="n"/>
+      <c r="Q8" s="232" t="n"/>
+      <c r="R8" s="242" t="n"/>
+      <c r="S8" s="243" t="n"/>
+      <c r="T8" s="243" t="n"/>
+      <c r="U8" s="243" t="n"/>
+      <c r="V8" s="243" t="n"/>
+      <c r="W8" s="243" t="n"/>
+      <c r="X8" s="244" t="n"/>
+    </row>
+    <row r="9" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A9" s="512" t="inlineStr">
+        <is>
+          <t>GT World Challenge America</t>
+        </is>
+      </c>
+      <c r="B9" s="490" t="n">
+        <v>55</v>
+      </c>
+      <c r="C9" s="237" t="inlineStr">
+        <is>
+          <t>Turner Motorsports</t>
+        </is>
+      </c>
+      <c r="D9" s="237" t="inlineStr">
+        <is>
+          <t>Jose Bautista</t>
+        </is>
+      </c>
+      <c r="E9" s="237" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F9" s="237" t="n"/>
+      <c r="G9" s="237" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="H9" s="237" t="inlineStr">
+        <is>
+          <t>Russell Martin</t>
+        </is>
+      </c>
+      <c r="I9" s="237" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J9" s="237" t="n"/>
+      <c r="K9" s="245" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="L9" s="246" t="inlineStr"/>
+      <c r="M9" s="240" t="inlineStr">
+        <is>
+          <t>Porsche 992 GT3 R</t>
+        </is>
+      </c>
+      <c r="N9" s="241" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
+      <c r="O9" s="232" t="n"/>
+      <c r="P9" s="232" t="n"/>
+      <c r="Q9" s="232" t="n"/>
+      <c r="R9" s="242" t="n"/>
+      <c r="S9" s="243" t="n"/>
+      <c r="T9" s="243" t="n"/>
+      <c r="U9" s="243" t="n"/>
+      <c r="V9" s="243" t="n"/>
+      <c r="W9" s="243" t="n"/>
+      <c r="X9" s="244" t="n"/>
+    </row>
+    <row r="10" ht="32.25" customFormat="1" customHeight="1" s="255">
+      <c r="A10" s="513" t="n"/>
+      <c r="B10" s="491" t="n"/>
+      <c r="C10" s="247" t="n"/>
+      <c r="D10" s="248" t="n"/>
+      <c r="E10" s="248" t="n"/>
+      <c r="F10" s="249" t="n"/>
+      <c r="G10" s="250" t="n"/>
+      <c r="H10" s="250" t="n"/>
+      <c r="I10" s="250" t="n"/>
+      <c r="J10" s="249" t="n"/>
+      <c r="K10" s="251" t="n"/>
+      <c r="L10" s="252" t="n"/>
+      <c r="M10" s="253" t="n"/>
+      <c r="N10" s="254" t="n"/>
+      <c r="R10" s="256" t="n"/>
+      <c r="S10" s="257" t="n"/>
+      <c r="T10" s="257" t="n"/>
+      <c r="U10" s="257" t="n"/>
+      <c r="V10" s="257" t="n"/>
+      <c r="W10" s="257" t="n"/>
+      <c r="X10" s="258" t="n"/>
+    </row>
+    <row r="11" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A11" s="514" t="n"/>
+      <c r="B11" s="492" t="n"/>
       <c r="C11" s="30" t="n"/>
       <c r="D11" s="30" t="n"/>
       <c r="E11" s="30" t="n"/>
-      <c r="F11" s="268" t="n"/>
-      <c r="G11" s="268" t="n"/>
-      <c r="H11" s="268" t="n"/>
-      <c r="I11" s="268" t="n"/>
-      <c r="J11" s="268" t="n"/>
-      <c r="K11" s="268" t="n"/>
+      <c r="F11" s="259" t="n"/>
+      <c r="G11" s="259" t="n"/>
+      <c r="H11" s="259" t="n"/>
+      <c r="I11" s="259" t="n"/>
+      <c r="J11" s="259" t="n"/>
+      <c r="K11" s="259" t="n"/>
       <c r="L11" s="31" t="n"/>
-      <c r="M11" s="269" t="n"/>
-      <c r="N11" s="270" t="n"/>
-      <c r="R11" s="271" t="n"/>
-      <c r="S11" s="272" t="n"/>
-      <c r="T11" s="272" t="n"/>
-      <c r="U11" s="272" t="n"/>
-      <c r="V11" s="272" t="n"/>
-      <c r="W11" s="272" t="n"/>
-      <c r="X11" s="273" t="n"/>
-    </row>
-    <row r="12" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A12" s="232" t="n"/>
-      <c r="B12" s="232" t="n"/>
-      <c r="C12" s="232" t="n"/>
-      <c r="D12" s="232" t="n"/>
-      <c r="E12" s="232" t="n"/>
-      <c r="F12" s="232" t="n"/>
-      <c r="G12" s="232" t="n"/>
-      <c r="H12" s="232" t="n"/>
-      <c r="I12" s="232" t="n"/>
-      <c r="J12" s="232" t="n"/>
-      <c r="K12" s="232" t="n"/>
-      <c r="L12" s="232" t="n"/>
-      <c r="M12" s="232" t="n"/>
-      <c r="N12" s="232" t="n"/>
-      <c r="R12" s="271" t="n"/>
-      <c r="S12" s="272" t="n"/>
-      <c r="T12" s="272" t="n"/>
-      <c r="U12" s="272" t="n"/>
-      <c r="V12" s="272" t="n"/>
-      <c r="W12" s="272" t="n"/>
-      <c r="X12" s="273" t="n"/>
-    </row>
-    <row r="13" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A13" s="274" t="n"/>
-      <c r="B13" s="275" t="n"/>
-      <c r="C13" s="276" t="n"/>
-      <c r="D13" s="276" t="n"/>
-      <c r="E13" s="276" t="n"/>
-      <c r="F13" s="243" t="n"/>
-      <c r="G13" s="243" t="n"/>
-      <c r="H13" s="243" t="n"/>
-      <c r="I13" s="243" t="n"/>
-      <c r="J13" s="243" t="n"/>
-      <c r="K13" s="277" t="n"/>
+      <c r="M11" s="260" t="n"/>
+      <c r="N11" s="261" t="n"/>
+      <c r="R11" s="262" t="n"/>
+      <c r="S11" s="263" t="n"/>
+      <c r="T11" s="263" t="n"/>
+      <c r="U11" s="263" t="n"/>
+      <c r="V11" s="263" t="n"/>
+      <c r="W11" s="263" t="n"/>
+      <c r="X11" s="264" t="n"/>
+    </row>
+    <row r="12" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A12" s="488" t="n"/>
+      <c r="B12" s="493" t="n"/>
+      <c r="C12" s="230" t="n"/>
+      <c r="D12" s="230" t="n"/>
+      <c r="E12" s="230" t="n"/>
+      <c r="F12" s="230" t="n"/>
+      <c r="G12" s="230" t="n"/>
+      <c r="H12" s="230" t="n"/>
+      <c r="I12" s="230" t="n"/>
+      <c r="J12" s="230" t="n"/>
+      <c r="K12" s="230" t="n"/>
+      <c r="L12" s="230" t="n"/>
+      <c r="M12" s="230" t="n"/>
+      <c r="N12" s="230" t="n"/>
+      <c r="R12" s="262" t="n"/>
+      <c r="S12" s="263" t="n"/>
+      <c r="T12" s="263" t="n"/>
+      <c r="U12" s="263" t="n"/>
+      <c r="V12" s="263" t="n"/>
+      <c r="W12" s="263" t="n"/>
+      <c r="X12" s="264" t="n"/>
+    </row>
+    <row r="13" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A13" s="515" t="n"/>
+      <c r="B13" s="494" t="n"/>
+      <c r="C13" s="265" t="n"/>
+      <c r="D13" s="265" t="n"/>
+      <c r="E13" s="265" t="n"/>
+      <c r="F13" s="238" t="n"/>
+      <c r="G13" s="238" t="n"/>
+      <c r="H13" s="238" t="n"/>
+      <c r="I13" s="238" t="n"/>
+      <c r="J13" s="238" t="n"/>
+      <c r="K13" s="266" t="n"/>
       <c r="L13" s="14" t="n"/>
-      <c r="M13" s="278" t="n"/>
-      <c r="N13" s="279" t="n"/>
-      <c r="R13" s="280" t="n"/>
-      <c r="S13" s="281" t="n"/>
-      <c r="T13" s="281" t="n"/>
-      <c r="U13" s="281" t="n"/>
-      <c r="V13" s="281" t="n"/>
-      <c r="W13" s="281" t="n"/>
-      <c r="X13" s="282" t="n"/>
-    </row>
-    <row r="14" ht="32.25" customFormat="1" customHeight="1" s="238">
-      <c r="A14" s="232" t="n"/>
-      <c r="B14" s="232" t="n"/>
-      <c r="C14" s="232" t="n"/>
-      <c r="D14" s="232" t="n"/>
-      <c r="E14" s="232" t="n"/>
-      <c r="F14" s="232" t="n"/>
-      <c r="G14" s="232" t="n"/>
-      <c r="H14" s="232" t="n"/>
-      <c r="I14" s="232" t="n"/>
-      <c r="J14" s="232" t="n"/>
-      <c r="K14" s="232" t="n"/>
-      <c r="L14" s="232" t="n"/>
-      <c r="M14" s="232" t="n"/>
-      <c r="N14" s="232" t="n"/>
-      <c r="R14" s="280" t="n"/>
-      <c r="S14" s="281" t="n"/>
-      <c r="T14" s="281" t="n"/>
-      <c r="U14" s="281" t="n"/>
-      <c r="V14" s="281" t="n"/>
-      <c r="W14" s="281" t="n"/>
-      <c r="X14" s="282" t="n"/>
-    </row>
-    <row r="15" ht="32.25" customFormat="1" customHeight="1" s="262">
-      <c r="A15" s="239" t="n"/>
-      <c r="B15" s="116" t="n"/>
+      <c r="M13" s="267" t="n"/>
+      <c r="N13" s="268" t="n"/>
+      <c r="R13" s="269" t="n"/>
+      <c r="S13" s="270" t="n"/>
+      <c r="T13" s="270" t="n"/>
+      <c r="U13" s="270" t="n"/>
+      <c r="V13" s="270" t="n"/>
+      <c r="W13" s="270" t="n"/>
+      <c r="X13" s="271" t="n"/>
+    </row>
+    <row r="14" ht="32.25" customFormat="1" customHeight="1" s="235">
+      <c r="A14" s="488" t="n"/>
+      <c r="B14" s="493" t="n"/>
+      <c r="C14" s="230" t="n"/>
+      <c r="D14" s="230" t="n"/>
+      <c r="E14" s="230" t="n"/>
+      <c r="F14" s="230" t="n"/>
+      <c r="G14" s="230" t="n"/>
+      <c r="H14" s="230" t="n"/>
+      <c r="I14" s="230" t="n"/>
+      <c r="J14" s="230" t="n"/>
+      <c r="K14" s="230" t="n"/>
+      <c r="L14" s="230" t="n"/>
+      <c r="M14" s="230" t="n"/>
+      <c r="N14" s="230" t="n"/>
+      <c r="R14" s="269" t="n"/>
+      <c r="S14" s="270" t="n"/>
+      <c r="T14" s="270" t="n"/>
+      <c r="U14" s="270" t="n"/>
+      <c r="V14" s="270" t="n"/>
+      <c r="W14" s="270" t="n"/>
+      <c r="X14" s="271" t="n"/>
+    </row>
+    <row r="15" ht="32.25" customFormat="1" customHeight="1" s="255">
+      <c r="A15" s="512" t="n"/>
+      <c r="B15" s="495" t="n"/>
       <c r="C15" s="30" t="n"/>
       <c r="D15" s="30" t="n"/>
       <c r="E15" s="30" t="n"/>
-      <c r="F15" s="268" t="n"/>
-      <c r="G15" s="243" t="n"/>
+      <c r="F15" s="259" t="n"/>
+      <c r="G15" s="238" t="n"/>
       <c r="H15" s="116" t="n"/>
-      <c r="I15" s="268" t="n"/>
-      <c r="J15" s="268" t="n"/>
-      <c r="K15" s="268" t="n"/>
-      <c r="L15" s="476" t="n"/>
+      <c r="I15" s="259" t="n"/>
+      <c r="J15" s="259" t="n"/>
+      <c r="K15" s="259" t="n"/>
+      <c r="L15" s="528" t="n"/>
       <c r="M15" s="116" t="n"/>
-      <c r="N15" s="283" t="n"/>
-      <c r="R15" s="284" t="n"/>
-      <c r="S15" s="285" t="n"/>
-      <c r="T15" s="285" t="n"/>
-      <c r="U15" s="285" t="n"/>
-      <c r="V15" s="285" t="n"/>
-      <c r="W15" s="285" t="n"/>
-      <c r="X15" s="286" t="n"/>
-    </row>
-    <row r="16" ht="32.25" customFormat="1" customHeight="1" s="291">
-      <c r="A16" s="287" t="n"/>
-      <c r="B16" s="275" t="n"/>
-      <c r="C16" s="276" t="n"/>
-      <c r="D16" s="288" t="n"/>
-      <c r="E16" s="243" t="n"/>
-      <c r="F16" s="243" t="n"/>
-      <c r="G16" s="289" t="n"/>
-      <c r="H16" s="288" t="n"/>
-      <c r="I16" s="276" t="n"/>
-      <c r="J16" s="243" t="n"/>
-      <c r="K16" s="277" t="n"/>
+      <c r="N15" s="272" t="n"/>
+      <c r="R15" s="273" t="n"/>
+      <c r="S15" s="274" t="n"/>
+      <c r="T15" s="274" t="n"/>
+      <c r="U15" s="274" t="n"/>
+      <c r="V15" s="274" t="n"/>
+      <c r="W15" s="274" t="n"/>
+      <c r="X15" s="275" t="n"/>
+    </row>
+    <row r="16" ht="32.25" customFormat="1" customHeight="1" s="279">
+      <c r="A16" s="516" t="n"/>
+      <c r="B16" s="494" t="n"/>
+      <c r="C16" s="265" t="n"/>
+      <c r="D16" s="276" t="n"/>
+      <c r="E16" s="238" t="n"/>
+      <c r="F16" s="238" t="n"/>
+      <c r="G16" s="277" t="n"/>
+      <c r="H16" s="276" t="n"/>
+      <c r="I16" s="265" t="n"/>
+      <c r="J16" s="238" t="n"/>
+      <c r="K16" s="266" t="n"/>
       <c r="L16" s="14" t="n"/>
-      <c r="M16" s="290" t="n"/>
-      <c r="N16" s="261" t="n"/>
-      <c r="R16" s="292" t="n"/>
-      <c r="S16" s="293" t="n"/>
-      <c r="T16" s="293" t="n"/>
-      <c r="U16" s="293" t="n"/>
-      <c r="V16" s="293" t="n"/>
-      <c r="W16" s="293" t="n"/>
-      <c r="X16" s="294" t="n"/>
+      <c r="M16" s="278" t="n"/>
+      <c r="N16" s="254" t="n"/>
+      <c r="R16" s="280" t="n"/>
+      <c r="S16" s="281" t="n"/>
+      <c r="T16" s="281" t="n"/>
+      <c r="U16" s="281" t="n"/>
+      <c r="V16" s="281" t="n"/>
+      <c r="W16" s="281" t="n"/>
+      <c r="X16" s="282" t="n"/>
     </row>
     <row r="17" ht="32.25" customHeight="1">
-      <c r="A17" s="295" t="n"/>
-      <c r="B17" s="232" t="n"/>
-      <c r="C17" s="232" t="n"/>
-      <c r="D17" s="232" t="n"/>
-      <c r="E17" s="232" t="n"/>
-      <c r="F17" s="232" t="n"/>
-      <c r="G17" s="232" t="n"/>
-      <c r="H17" s="232" t="n"/>
-      <c r="I17" s="232" t="n"/>
-      <c r="J17" s="232" t="n"/>
-      <c r="K17" s="232" t="n"/>
-      <c r="L17" s="232" t="n"/>
-      <c r="M17" s="232" t="n"/>
-      <c r="N17" s="232" t="n"/>
-      <c r="R17" s="296" t="n"/>
-      <c r="S17" s="297" t="n"/>
-      <c r="T17" s="297" t="n"/>
-      <c r="U17" s="297" t="n"/>
-      <c r="V17" s="297" t="n"/>
-      <c r="W17" s="297" t="n"/>
-      <c r="X17" s="298" t="n"/>
-    </row>
-    <row r="18" ht="32.25" customFormat="1" customHeight="1" s="305">
-      <c r="A18" s="274" t="n"/>
-      <c r="B18" s="275" t="n"/>
-      <c r="C18" s="299" t="n"/>
-      <c r="D18" s="300" t="n"/>
-      <c r="E18" s="276" t="n"/>
-      <c r="F18" s="243" t="n"/>
-      <c r="G18" s="243" t="n"/>
-      <c r="H18" s="301" t="n"/>
-      <c r="I18" s="243" t="n"/>
-      <c r="J18" s="243" t="n"/>
-      <c r="K18" s="243" t="n"/>
-      <c r="L18" s="302" t="n"/>
-      <c r="M18" s="303" t="n"/>
-      <c r="N18" s="304" t="n"/>
-      <c r="R18" s="306" t="n"/>
-      <c r="S18" s="307" t="n"/>
-      <c r="T18" s="307" t="n"/>
-      <c r="U18" s="307" t="n"/>
-      <c r="V18" s="307" t="n"/>
-      <c r="W18" s="307" t="n"/>
-      <c r="X18" s="308" t="n"/>
+      <c r="A17" s="517" t="n"/>
+      <c r="B17" s="493" t="n"/>
+      <c r="C17" s="230" t="n"/>
+      <c r="D17" s="230" t="n"/>
+      <c r="E17" s="230" t="n"/>
+      <c r="F17" s="230" t="n"/>
+      <c r="G17" s="230" t="n"/>
+      <c r="H17" s="230" t="n"/>
+      <c r="I17" s="230" t="n"/>
+      <c r="J17" s="230" t="n"/>
+      <c r="K17" s="230" t="n"/>
+      <c r="L17" s="230" t="n"/>
+      <c r="M17" s="230" t="n"/>
+      <c r="N17" s="230" t="n"/>
+      <c r="R17" s="283" t="n"/>
+      <c r="S17" s="284" t="n"/>
+      <c r="T17" s="284" t="n"/>
+      <c r="U17" s="284" t="n"/>
+      <c r="V17" s="284" t="n"/>
+      <c r="W17" s="284" t="n"/>
+      <c r="X17" s="285" t="n"/>
+    </row>
+    <row r="18" ht="32.25" customFormat="1" customHeight="1" s="292">
+      <c r="A18" s="515" t="n"/>
+      <c r="B18" s="494" t="n"/>
+      <c r="C18" s="286" t="n"/>
+      <c r="D18" s="287" t="n"/>
+      <c r="E18" s="265" t="n"/>
+      <c r="F18" s="238" t="n"/>
+      <c r="G18" s="238" t="n"/>
+      <c r="H18" s="288" t="n"/>
+      <c r="I18" s="238" t="n"/>
+      <c r="J18" s="238" t="n"/>
+      <c r="K18" s="238" t="n"/>
+      <c r="L18" s="289" t="n"/>
+      <c r="M18" s="290" t="n"/>
+      <c r="N18" s="291" t="n"/>
+      <c r="R18" s="293" t="n"/>
+      <c r="S18" s="294" t="n"/>
+      <c r="T18" s="294" t="n"/>
+      <c r="U18" s="294" t="n"/>
+      <c r="V18" s="294" t="n"/>
+      <c r="W18" s="294" t="n"/>
+      <c r="X18" s="295" t="n"/>
     </row>
     <row r="19" ht="32.25" customHeight="1">
-      <c r="A19" s="239" t="n"/>
-      <c r="B19" s="240" t="n"/>
-      <c r="C19" s="309" t="n"/>
-      <c r="D19" s="241" t="n"/>
-      <c r="E19" s="241" t="n"/>
-      <c r="F19" s="242" t="n"/>
-      <c r="G19" s="310" t="n"/>
-      <c r="H19" s="242" t="n"/>
-      <c r="I19" s="242" t="n"/>
-      <c r="J19" s="242" t="n"/>
-      <c r="K19" s="250" t="n"/>
-      <c r="L19" s="244" t="n"/>
-      <c r="M19" s="311" t="n"/>
-      <c r="N19" s="312" t="n"/>
-      <c r="R19" s="296" t="n"/>
-      <c r="S19" s="297" t="n"/>
-      <c r="T19" s="297" t="n"/>
-      <c r="U19" s="297" t="n"/>
-      <c r="V19" s="297" t="n"/>
-      <c r="W19" s="297" t="n"/>
-      <c r="X19" s="298" t="n"/>
+      <c r="A19" s="512" t="n"/>
+      <c r="B19" s="490" t="n"/>
+      <c r="C19" s="296" t="n"/>
+      <c r="D19" s="236" t="n"/>
+      <c r="E19" s="236" t="n"/>
+      <c r="F19" s="237" t="n"/>
+      <c r="G19" s="297" t="n"/>
+      <c r="H19" s="237" t="n"/>
+      <c r="I19" s="237" t="n"/>
+      <c r="J19" s="237" t="n"/>
+      <c r="K19" s="245" t="n"/>
+      <c r="L19" s="239" t="n"/>
+      <c r="M19" s="298" t="n"/>
+      <c r="N19" s="299" t="n"/>
+      <c r="R19" s="283" t="n"/>
+      <c r="S19" s="284" t="n"/>
+      <c r="T19" s="284" t="n"/>
+      <c r="U19" s="284" t="n"/>
+      <c r="V19" s="284" t="n"/>
+      <c r="W19" s="284" t="n"/>
+      <c r="X19" s="285" t="n"/>
     </row>
     <row r="20" ht="32.25" customFormat="1" customHeight="1" s="105">
-      <c r="A20" s="266" t="n"/>
-      <c r="B20" s="268" t="n"/>
+      <c r="A20" s="514" t="n"/>
+      <c r="B20" s="496" t="n"/>
       <c r="C20" s="30" t="n"/>
       <c r="D20" s="30" t="n"/>
       <c r="E20" s="30" t="n"/>
-      <c r="F20" s="268" t="n"/>
-      <c r="G20" s="268" t="n"/>
-      <c r="H20" s="268" t="n"/>
-      <c r="I20" s="268" t="n"/>
-      <c r="J20" s="268" t="n"/>
-      <c r="K20" s="268" t="n"/>
+      <c r="F20" s="259" t="n"/>
+      <c r="G20" s="259" t="n"/>
+      <c r="H20" s="259" t="n"/>
+      <c r="I20" s="259" t="n"/>
+      <c r="J20" s="259" t="n"/>
+      <c r="K20" s="259" t="n"/>
       <c r="L20" s="31" t="n"/>
-      <c r="M20" s="268" t="n"/>
-      <c r="N20" s="270" t="n"/>
-      <c r="R20" s="313" t="n"/>
+      <c r="M20" s="259" t="n"/>
+      <c r="N20" s="261" t="n"/>
+      <c r="R20" s="300" t="n"/>
       <c r="S20" s="91" t="n"/>
       <c r="T20" s="91" t="n"/>
       <c r="U20" s="91" t="n"/>
       <c r="V20" s="91" t="n"/>
       <c r="W20" s="91" t="n"/>
-      <c r="X20" s="314" t="n"/>
+      <c r="X20" s="301" t="n"/>
     </row>
     <row r="21" ht="32.25" customHeight="1">
-      <c r="A21" s="315" t="n"/>
-      <c r="B21" s="269" t="n"/>
-      <c r="C21" s="269" t="n"/>
-      <c r="D21" s="269" t="n"/>
-      <c r="E21" s="269" t="n"/>
-      <c r="F21" s="269" t="n"/>
-      <c r="G21" s="269" t="n"/>
-      <c r="H21" s="269" t="n"/>
-      <c r="I21" s="269" t="n"/>
-      <c r="J21" s="269" t="n"/>
-      <c r="K21" s="269" t="n"/>
-      <c r="L21" s="316" t="n"/>
-      <c r="M21" s="269" t="n"/>
-      <c r="N21" s="269" t="n"/>
-      <c r="R21" s="296" t="n"/>
-      <c r="S21" s="297" t="n"/>
-      <c r="T21" s="297" t="n"/>
-      <c r="U21" s="297" t="n"/>
-      <c r="V21" s="297" t="n"/>
-      <c r="W21" s="297" t="n"/>
-      <c r="X21" s="298" t="n"/>
+      <c r="A21" s="518" t="n"/>
+      <c r="B21" s="496" t="n"/>
+      <c r="C21" s="260" t="n"/>
+      <c r="D21" s="260" t="n"/>
+      <c r="E21" s="260" t="n"/>
+      <c r="F21" s="260" t="n"/>
+      <c r="G21" s="260" t="n"/>
+      <c r="H21" s="260" t="n"/>
+      <c r="I21" s="260" t="n"/>
+      <c r="J21" s="260" t="n"/>
+      <c r="K21" s="260" t="n"/>
+      <c r="L21" s="302" t="n"/>
+      <c r="M21" s="260" t="n"/>
+      <c r="N21" s="260" t="n"/>
+      <c r="R21" s="283" t="n"/>
+      <c r="S21" s="284" t="n"/>
+      <c r="T21" s="284" t="n"/>
+      <c r="U21" s="284" t="n"/>
+      <c r="V21" s="284" t="n"/>
+      <c r="W21" s="284" t="n"/>
+      <c r="X21" s="285" t="n"/>
     </row>
     <row r="22" ht="32.25" customHeight="1">
-      <c r="A22" s="315" t="n"/>
-      <c r="B22" s="317" t="n"/>
-      <c r="C22" s="318" t="n"/>
-      <c r="D22" s="318" t="n"/>
-      <c r="E22" s="318" t="n"/>
-      <c r="F22" s="318" t="n"/>
-      <c r="G22" s="318" t="n"/>
-      <c r="H22" s="318" t="n"/>
-      <c r="I22" s="318" t="n"/>
-      <c r="J22" s="318" t="n"/>
-      <c r="K22" s="269" t="n"/>
-      <c r="L22" s="316" t="n"/>
-      <c r="M22" s="269" t="n"/>
-      <c r="N22" s="318" t="n"/>
-      <c r="R22" s="296" t="n"/>
-      <c r="S22" s="297" t="n"/>
-      <c r="T22" s="297" t="n"/>
-      <c r="U22" s="297" t="n"/>
-      <c r="V22" s="297" t="n"/>
-      <c r="W22" s="297" t="n"/>
-      <c r="X22" s="298" t="n"/>
+      <c r="A22" s="518" t="n"/>
+      <c r="B22" s="497" t="n"/>
+      <c r="C22" s="303" t="n"/>
+      <c r="D22" s="303" t="n"/>
+      <c r="E22" s="303" t="n"/>
+      <c r="F22" s="303" t="n"/>
+      <c r="G22" s="303" t="n"/>
+      <c r="H22" s="303" t="n"/>
+      <c r="I22" s="303" t="n"/>
+      <c r="J22" s="303" t="n"/>
+      <c r="K22" s="260" t="n"/>
+      <c r="L22" s="302" t="n"/>
+      <c r="M22" s="260" t="n"/>
+      <c r="N22" s="303" t="n"/>
+      <c r="R22" s="283" t="n"/>
+      <c r="S22" s="284" t="n"/>
+      <c r="T22" s="284" t="n"/>
+      <c r="U22" s="284" t="n"/>
+      <c r="V22" s="284" t="n"/>
+      <c r="W22" s="284" t="n"/>
+      <c r="X22" s="285" t="n"/>
     </row>
     <row r="23" ht="32.25" customHeight="1">
-      <c r="A23" s="315" t="n"/>
-      <c r="B23" s="317" t="n"/>
-      <c r="C23" s="318" t="n"/>
-      <c r="D23" s="318" t="n"/>
-      <c r="E23" s="318" t="n"/>
-      <c r="F23" s="318" t="n"/>
-      <c r="G23" s="318" t="n"/>
-      <c r="H23" s="318" t="n"/>
-      <c r="I23" s="318" t="n"/>
-      <c r="J23" s="318" t="n"/>
-      <c r="K23" s="269" t="n"/>
-      <c r="L23" s="316" t="n"/>
-      <c r="M23" s="269" t="n"/>
-      <c r="N23" s="318" t="n"/>
-      <c r="R23" s="296" t="n"/>
-      <c r="S23" s="297" t="n"/>
-      <c r="T23" s="297" t="n"/>
-      <c r="U23" s="297" t="n"/>
-      <c r="V23" s="297" t="n"/>
-      <c r="W23" s="297" t="n"/>
-      <c r="X23" s="298" t="n"/>
+      <c r="A23" s="518" t="n"/>
+      <c r="B23" s="497" t="n"/>
+      <c r="C23" s="303" t="n"/>
+      <c r="D23" s="303" t="n"/>
+      <c r="E23" s="303" t="n"/>
+      <c r="F23" s="303" t="n"/>
+      <c r="G23" s="303" t="n"/>
+      <c r="H23" s="303" t="n"/>
+      <c r="I23" s="303" t="n"/>
+      <c r="J23" s="303" t="n"/>
+      <c r="K23" s="260" t="n"/>
+      <c r="L23" s="302" t="n"/>
+      <c r="M23" s="260" t="n"/>
+      <c r="N23" s="303" t="n"/>
+      <c r="R23" s="283" t="n"/>
+      <c r="S23" s="284" t="n"/>
+      <c r="T23" s="284" t="n"/>
+      <c r="U23" s="284" t="n"/>
+      <c r="V23" s="284" t="n"/>
+      <c r="W23" s="284" t="n"/>
+      <c r="X23" s="285" t="n"/>
     </row>
     <row r="24" ht="32.25" customHeight="1">
-      <c r="A24" s="315" t="n"/>
-      <c r="B24" s="317" t="n"/>
-      <c r="C24" s="318" t="n"/>
-      <c r="D24" s="318" t="n"/>
-      <c r="E24" s="318" t="n"/>
-      <c r="F24" s="318" t="n"/>
-      <c r="G24" s="318" t="n"/>
-      <c r="H24" s="318" t="n"/>
-      <c r="I24" s="318" t="n"/>
-      <c r="J24" s="318" t="n"/>
-      <c r="K24" s="269" t="n"/>
-      <c r="L24" s="316" t="n"/>
-      <c r="M24" s="269" t="n"/>
-      <c r="N24" s="318" t="n"/>
-      <c r="R24" s="296" t="n"/>
-      <c r="S24" s="297" t="n"/>
-      <c r="T24" s="297" t="n"/>
-      <c r="U24" s="297" t="n"/>
-      <c r="V24" s="297" t="n"/>
-      <c r="W24" s="297" t="n"/>
-      <c r="X24" s="298" t="n"/>
+      <c r="A24" s="518" t="n"/>
+      <c r="B24" s="497" t="n"/>
+      <c r="C24" s="303" t="n"/>
+      <c r="D24" s="303" t="n"/>
+      <c r="E24" s="303" t="n"/>
+      <c r="F24" s="303" t="n"/>
+      <c r="G24" s="303" t="n"/>
+      <c r="H24" s="303" t="n"/>
+      <c r="I24" s="303" t="n"/>
+      <c r="J24" s="303" t="n"/>
+      <c r="K24" s="260" t="n"/>
+      <c r="L24" s="302" t="n"/>
+      <c r="M24" s="260" t="n"/>
+      <c r="N24" s="303" t="n"/>
+      <c r="R24" s="283" t="n"/>
+      <c r="S24" s="284" t="n"/>
+      <c r="T24" s="284" t="n"/>
+      <c r="U24" s="284" t="n"/>
+      <c r="V24" s="284" t="n"/>
+      <c r="W24" s="284" t="n"/>
+      <c r="X24" s="285" t="n"/>
     </row>
     <row r="25" ht="32.25" customHeight="1">
-      <c r="A25" s="315" t="n"/>
-      <c r="B25" s="317" t="n"/>
-      <c r="C25" s="318" t="n"/>
-      <c r="D25" s="318" t="n"/>
-      <c r="E25" s="318" t="n"/>
-      <c r="F25" s="318" t="n"/>
-      <c r="G25" s="318" t="n"/>
-      <c r="H25" s="318" t="n"/>
-      <c r="I25" s="318" t="n"/>
-      <c r="J25" s="318" t="n"/>
-      <c r="K25" s="269" t="n"/>
-      <c r="L25" s="316" t="n"/>
-      <c r="M25" s="269" t="n"/>
-      <c r="N25" s="318" t="n"/>
-      <c r="R25" s="296" t="n"/>
-      <c r="S25" s="297" t="n"/>
-      <c r="T25" s="297" t="n"/>
-      <c r="U25" s="297" t="n"/>
-      <c r="V25" s="297" t="n"/>
-      <c r="W25" s="297" t="n"/>
-      <c r="X25" s="298" t="n"/>
+      <c r="A25" s="518" t="n"/>
+      <c r="B25" s="497" t="n"/>
+      <c r="C25" s="303" t="n"/>
+      <c r="D25" s="303" t="n"/>
+      <c r="E25" s="303" t="n"/>
+      <c r="F25" s="303" t="n"/>
+      <c r="G25" s="303" t="n"/>
+      <c r="H25" s="303" t="n"/>
+      <c r="I25" s="303" t="n"/>
+      <c r="J25" s="303" t="n"/>
+      <c r="K25" s="260" t="n"/>
+      <c r="L25" s="302" t="n"/>
+      <c r="M25" s="260" t="n"/>
+      <c r="N25" s="303" t="n"/>
+      <c r="R25" s="283" t="n"/>
+      <c r="S25" s="284" t="n"/>
+      <c r="T25" s="284" t="n"/>
+      <c r="U25" s="284" t="n"/>
+      <c r="V25" s="284" t="n"/>
+      <c r="W25" s="284" t="n"/>
+      <c r="X25" s="285" t="n"/>
     </row>
     <row r="26" ht="32.25" customHeight="1">
-      <c r="A26" s="315" t="n"/>
-      <c r="B26" s="319" t="n"/>
-      <c r="C26" s="320" t="n"/>
-      <c r="D26" s="320" t="n"/>
-      <c r="E26" s="320" t="n"/>
-      <c r="F26" s="320" t="n"/>
-      <c r="G26" s="320" t="n"/>
-      <c r="H26" s="320" t="n"/>
-      <c r="I26" s="320" t="n"/>
-      <c r="J26" s="320" t="n"/>
-      <c r="K26" s="321" t="n"/>
-      <c r="L26" s="321" t="n"/>
-      <c r="M26" s="269" t="n"/>
-      <c r="N26" s="320" t="n"/>
-      <c r="R26" s="296" t="n"/>
-      <c r="S26" s="297" t="n"/>
-      <c r="T26" s="297" t="n"/>
-      <c r="U26" s="297" t="n"/>
-      <c r="V26" s="297" t="n"/>
-      <c r="W26" s="297" t="n"/>
-      <c r="X26" s="298" t="n"/>
+      <c r="A26" s="518" t="n"/>
+      <c r="B26" s="498" t="n"/>
+      <c r="C26" s="304" t="n"/>
+      <c r="D26" s="304" t="n"/>
+      <c r="E26" s="304" t="n"/>
+      <c r="F26" s="304" t="n"/>
+      <c r="G26" s="304" t="n"/>
+      <c r="H26" s="304" t="n"/>
+      <c r="I26" s="304" t="n"/>
+      <c r="J26" s="304" t="n"/>
+      <c r="K26" s="305" t="n"/>
+      <c r="L26" s="305" t="n"/>
+      <c r="M26" s="260" t="n"/>
+      <c r="N26" s="304" t="n"/>
+      <c r="R26" s="283" t="n"/>
+      <c r="S26" s="284" t="n"/>
+      <c r="T26" s="284" t="n"/>
+      <c r="U26" s="284" t="n"/>
+      <c r="V26" s="284" t="n"/>
+      <c r="W26" s="284" t="n"/>
+      <c r="X26" s="285" t="n"/>
     </row>
     <row r="27" ht="32.25" customHeight="1" thickBot="1">
-      <c r="A27" s="315" t="n"/>
-      <c r="B27" s="269" t="n"/>
-      <c r="C27" s="269" t="n"/>
-      <c r="D27" s="269" t="n"/>
-      <c r="E27" s="269" t="n"/>
-      <c r="F27" s="269" t="n"/>
-      <c r="G27" s="269" t="n"/>
-      <c r="H27" s="269" t="n"/>
-      <c r="I27" s="269" t="n"/>
-      <c r="J27" s="269" t="n"/>
-      <c r="K27" s="269" t="n"/>
-      <c r="L27" s="269" t="n"/>
-      <c r="M27" s="269" t="n"/>
-      <c r="N27" s="269" t="n"/>
-      <c r="R27" s="322" t="n"/>
-      <c r="S27" s="323" t="n"/>
-      <c r="T27" s="323" t="n"/>
-      <c r="U27" s="323" t="n"/>
-      <c r="V27" s="323" t="n"/>
-      <c r="W27" s="323" t="n"/>
-      <c r="X27" s="324" t="n"/>
+      <c r="A27" s="518" t="n"/>
+      <c r="B27" s="496" t="n"/>
+      <c r="C27" s="260" t="n"/>
+      <c r="D27" s="260" t="n"/>
+      <c r="E27" s="260" t="n"/>
+      <c r="F27" s="260" t="n"/>
+      <c r="G27" s="260" t="n"/>
+      <c r="H27" s="260" t="n"/>
+      <c r="I27" s="260" t="n"/>
+      <c r="J27" s="260" t="n"/>
+      <c r="K27" s="260" t="n"/>
+      <c r="L27" s="260" t="n"/>
+      <c r="M27" s="260" t="n"/>
+      <c r="N27" s="260" t="n"/>
+      <c r="R27" s="306" t="n"/>
+      <c r="S27" s="307" t="n"/>
+      <c r="T27" s="307" t="n"/>
+      <c r="U27" s="307" t="n"/>
+      <c r="V27" s="307" t="n"/>
+      <c r="W27" s="307" t="n"/>
+      <c r="X27" s="308" t="n"/>
     </row>
     <row r="28" ht="17" customHeight="1" thickTop="1">
-      <c r="A28" s="325" t="n"/>
-      <c r="B28" s="326" t="n"/>
-      <c r="C28" s="325" t="n"/>
-      <c r="D28" s="325" t="n"/>
-      <c r="E28" s="325" t="n"/>
-      <c r="F28" s="325" t="n"/>
-      <c r="G28" s="327" t="n"/>
-      <c r="H28" s="327" t="n"/>
-      <c r="I28" s="327" t="n"/>
-      <c r="J28" s="327" t="n"/>
-      <c r="K28" s="327" t="n"/>
-      <c r="L28" s="328" t="n"/>
-      <c r="M28" s="329" t="n"/>
-      <c r="N28" s="327" t="n"/>
+      <c r="A28" s="309" t="n"/>
+      <c r="B28" s="310" t="n"/>
+      <c r="C28" s="309" t="n"/>
+      <c r="D28" s="309" t="n"/>
+      <c r="E28" s="309" t="n"/>
+      <c r="F28" s="309" t="n"/>
+      <c r="G28" s="311" t="n"/>
+      <c r="H28" s="311" t="n"/>
+      <c r="I28" s="311" t="n"/>
+      <c r="J28" s="311" t="n"/>
+      <c r="K28" s="311" t="n"/>
+      <c r="L28" s="312" t="n"/>
+      <c r="M28" s="313" t="n"/>
+      <c r="N28" s="311" t="n"/>
     </row>
     <row r="29" ht="17" customHeight="1" thickBot="1">
-      <c r="A29" s="330" t="inlineStr">
+      <c r="A29" s="314" t="inlineStr">
         <is>
           <t>Car Count:</t>
         </is>
       </c>
-      <c r="B29" s="192">
+      <c r="B29" s="190">
         <f>COUNTA(B7:B27)</f>
         <v/>
       </c>
-      <c r="C29" s="309" t="n"/>
-      <c r="D29" s="309" t="n"/>
-      <c r="E29" s="309" t="n"/>
-      <c r="F29" s="331" t="n"/>
-      <c r="G29" s="309" t="n"/>
-      <c r="H29" s="332" t="n"/>
-      <c r="I29" s="331" t="n"/>
-      <c r="J29" s="331" t="n"/>
-      <c r="K29" s="333" t="n"/>
-      <c r="L29" s="334" t="n"/>
-      <c r="M29" s="331" t="n"/>
-      <c r="N29" s="331" t="n"/>
+      <c r="C29" s="296" t="n"/>
+      <c r="D29" s="296" t="n"/>
+      <c r="E29" s="296" t="n"/>
+      <c r="F29" s="315" t="n"/>
+      <c r="G29" s="296" t="n"/>
+      <c r="H29" s="316" t="n"/>
+      <c r="I29" s="315" t="n"/>
+      <c r="J29" s="315" t="n"/>
+      <c r="K29" s="317" t="n"/>
+      <c r="L29" s="318" t="n"/>
+      <c r="M29" s="315" t="n"/>
+      <c r="N29" s="315" t="n"/>
     </row>
     <row r="30" ht="16" customHeight="1">
-      <c r="A30" s="335" t="n"/>
-      <c r="B30" s="331" t="n"/>
-      <c r="C30" s="335" t="n"/>
-      <c r="D30" s="336" t="n"/>
-      <c r="E30" s="335" t="n"/>
-      <c r="F30" s="335" t="n"/>
-      <c r="G30" s="337" t="n"/>
-      <c r="H30" s="336" t="n"/>
-      <c r="I30" s="335" t="n"/>
-      <c r="J30" s="335" t="n"/>
-      <c r="K30" s="337" t="n"/>
-      <c r="L30" s="338" t="n"/>
+      <c r="A30" s="319" t="n"/>
+      <c r="B30" s="315" t="n"/>
+      <c r="C30" s="319" t="n"/>
+      <c r="D30" s="320" t="n"/>
+      <c r="E30" s="319" t="n"/>
+      <c r="F30" s="319" t="n"/>
+      <c r="G30" s="321" t="n"/>
+      <c r="H30" s="320" t="n"/>
+      <c r="I30" s="319" t="n"/>
+      <c r="J30" s="319" t="n"/>
+      <c r="K30" s="321" t="n"/>
+      <c r="L30" s="322" t="n"/>
       <c r="M30" s="17" t="n"/>
-      <c r="N30" s="335" t="n"/>
+      <c r="N30" s="319" t="n"/>
     </row>
     <row r="34">
-      <c r="H34" s="224" t="inlineStr">
+      <c r="H34" s="222" t="inlineStr">
         <is>
           <t xml:space="preserve"> </t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:N4"/>
     <mergeCell ref="R5:X5"/>
+    <mergeCell ref="D4:L4"/>
     <mergeCell ref="A2:C4"/>
+    <mergeCell ref="D3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
@@ -6401,8 +6547,8 @@
   </sheetPr>
   <dimension ref="A2:Y40"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -6423,100 +6569,108 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="472" t="n"/>
-      <c r="D2" s="472" t="n"/>
-      <c r="M2" s="472" t="n"/>
+      <c r="A2" s="525" t="n"/>
+      <c r="D2" s="530" t="inlineStr">
+        <is>
+          <t>Sonoma Raceway</t>
+        </is>
+      </c>
+      <c r="M2" s="525" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="475" t="inlineStr">
+      <c r="D3" s="524" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="472" t="n"/>
+      <c r="D4" s="530" t="inlineStr">
+        <is>
+          <t>April 5 - 7</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="R5" s="474" t="inlineStr">
+      <c r="R5" s="526" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
       </c>
-      <c r="S5" s="526" t="n"/>
-      <c r="T5" s="526" t="n"/>
-      <c r="U5" s="526" t="n"/>
-      <c r="V5" s="526" t="n"/>
-      <c r="W5" s="526" t="n"/>
-      <c r="X5" s="526" t="n"/>
+      <c r="S5" s="531" t="n"/>
+      <c r="T5" s="531" t="n"/>
+      <c r="U5" s="531" t="n"/>
+      <c r="V5" s="531" t="n"/>
+      <c r="W5" s="531" t="n"/>
+      <c r="X5" s="531" t="n"/>
     </row>
     <row r="6" ht="32.25" customFormat="1" customHeight="1" s="2" thickBot="1" thickTop="1">
-      <c r="A6" s="221" t="inlineStr">
+      <c r="A6" s="219" t="inlineStr">
         <is>
           <t>Series</t>
         </is>
       </c>
-      <c r="B6" s="221" t="inlineStr">
+      <c r="B6" s="219" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C6" s="221" t="inlineStr">
+      <c r="C6" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="D6" s="221" t="inlineStr">
+      <c r="D6" s="219" t="inlineStr">
         <is>
           <t>Driver 1</t>
         </is>
       </c>
-      <c r="E6" s="221" t="inlineStr">
+      <c r="E6" s="219" t="inlineStr">
         <is>
           <t>NAT</t>
         </is>
       </c>
-      <c r="F6" s="221" t="inlineStr">
+      <c r="F6" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">LIC </t>
         </is>
       </c>
-      <c r="G6" s="221" t="inlineStr">
+      <c r="G6" s="219" t="inlineStr">
         <is>
           <t>CAT</t>
         </is>
       </c>
-      <c r="H6" s="221" t="inlineStr">
+      <c r="H6" s="219" t="inlineStr">
         <is>
           <t>Driver 2</t>
         </is>
       </c>
-      <c r="I6" s="221" t="inlineStr">
+      <c r="I6" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">  NAT </t>
         </is>
       </c>
-      <c r="J6" s="221" t="inlineStr">
+      <c r="J6" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve"> LIC </t>
         </is>
       </c>
-      <c r="K6" s="221" t="inlineStr">
+      <c r="K6" s="219" t="inlineStr">
         <is>
           <t xml:space="preserve">CAT </t>
         </is>
       </c>
-      <c r="L6" s="222" t="inlineStr">
+      <c r="L6" s="220" t="inlineStr">
         <is>
           <t>Car Sponsors</t>
         </is>
       </c>
-      <c r="M6" s="221" t="inlineStr">
+      <c r="M6" s="219" t="inlineStr">
         <is>
           <t>Car Make/Model</t>
         </is>
       </c>
-      <c r="N6" s="223" t="inlineStr">
+      <c r="N6" s="221" t="inlineStr">
         <is>
           <t>Championship</t>
         </is>
@@ -6563,20 +6717,62 @@
       </c>
     </row>
     <row r="7" ht="32.25" customFormat="1" customHeight="1" s="160" thickTop="1">
-      <c r="A7" s="218" t="n"/>
-      <c r="B7" s="219" t="n"/>
-      <c r="C7" s="220" t="n"/>
-      <c r="D7" s="220" t="n"/>
-      <c r="E7" s="220" t="n"/>
-      <c r="F7" s="219" t="n"/>
-      <c r="G7" s="219" t="n"/>
-      <c r="H7" s="219" t="n"/>
-      <c r="I7" s="219" t="n"/>
-      <c r="J7" s="219" t="n"/>
-      <c r="K7" s="219" t="n"/>
-      <c r="L7" s="218" t="n"/>
-      <c r="M7" s="219" t="n"/>
-      <c r="N7" s="219" t="n"/>
+      <c r="A7" s="216" t="inlineStr">
+        <is>
+          <t>GT4 America</t>
+        </is>
+      </c>
+      <c r="B7" s="217" t="n">
+        <v>23</v>
+      </c>
+      <c r="C7" s="218" t="inlineStr">
+        <is>
+          <t>TechSport Racing</t>
+        </is>
+      </c>
+      <c r="D7" s="218" t="inlineStr">
+        <is>
+          <t>Jonathan Neudorf</t>
+        </is>
+      </c>
+      <c r="E7" s="218" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
+      <c r="F7" s="217" t="n"/>
+      <c r="G7" s="217" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="H7" s="217" t="inlineStr">
+        <is>
+          <t>Michai Stephens</t>
+        </is>
+      </c>
+      <c r="I7" s="217" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="J7" s="217" t="n"/>
+      <c r="K7" s="217" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="L7" s="216" t="inlineStr"/>
+      <c r="M7" s="217" t="inlineStr">
+        <is>
+          <t>nissanZGt4</t>
+        </is>
+      </c>
+      <c r="N7" s="217" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
       <c r="R7" s="29" t="n"/>
       <c r="S7" s="167" t="n"/>
       <c r="T7" s="29" t="n"/>
@@ -6586,20 +6782,66 @@
       <c r="X7" s="29" t="n"/>
     </row>
     <row r="8" ht="32.25" customFormat="1" customHeight="1" s="2">
-      <c r="A8" s="149" t="n"/>
-      <c r="B8" s="92" t="n"/>
-      <c r="C8" s="6" t="n"/>
-      <c r="D8" s="150" t="n"/>
-      <c r="E8" s="148" t="n"/>
+      <c r="A8" s="149" t="inlineStr">
+        <is>
+          <t>GT4 America</t>
+        </is>
+      </c>
+      <c r="B8" s="92" t="n">
+        <v>28</v>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>G Speed</t>
+        </is>
+      </c>
+      <c r="D8" s="150" t="inlineStr">
+        <is>
+          <t>Kevin Gausman</t>
+        </is>
+      </c>
+      <c r="E8" s="148" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="F8" s="151" t="n"/>
-      <c r="G8" s="152" t="n"/>
-      <c r="H8" s="92" t="n"/>
-      <c r="I8" s="92" t="n"/>
+      <c r="G8" s="152" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="H8" s="92" t="inlineStr">
+        <is>
+          <t>Chris Bassatt</t>
+        </is>
+      </c>
+      <c r="I8" s="92" t="inlineStr">
+        <is>
+          <t>CAN</t>
+        </is>
+      </c>
       <c r="J8" s="39" t="n"/>
-      <c r="K8" s="92" t="n"/>
-      <c r="L8" s="153" t="n"/>
-      <c r="M8" s="39" t="n"/>
-      <c r="N8" s="39" t="n"/>
+      <c r="K8" s="92" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="L8" s="153" t="inlineStr">
+        <is>
+          <t>Cy Young</t>
+        </is>
+      </c>
+      <c r="M8" s="39" t="inlineStr">
+        <is>
+          <t>Porsche 718 Cayman CS</t>
+        </is>
+      </c>
+      <c r="N8" s="39" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
       <c r="R8" s="87" t="n"/>
       <c r="S8" s="167" t="n"/>
       <c r="T8" s="87" t="n"/>
@@ -6609,20 +6851,66 @@
       <c r="X8" s="87" t="n"/>
     </row>
     <row r="9" ht="30" customFormat="1" customHeight="1" s="62">
-      <c r="A9" s="54" t="n"/>
-      <c r="B9" s="56" t="n"/>
-      <c r="C9" s="56" t="n"/>
-      <c r="D9" s="56" t="n"/>
-      <c r="E9" s="58" t="n"/>
+      <c r="A9" s="54" t="inlineStr">
+        <is>
+          <t>GT4 America</t>
+        </is>
+      </c>
+      <c r="B9" s="56" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" s="56" t="inlineStr">
+        <is>
+          <t>Bat Flip Motorsports</t>
+        </is>
+      </c>
+      <c r="D9" s="56" t="inlineStr">
+        <is>
+          <t>Jose Bautista</t>
+        </is>
+      </c>
+      <c r="E9" s="58" t="inlineStr">
+        <is>
+          <t>DMR</t>
+        </is>
+      </c>
       <c r="F9" s="56" t="n"/>
-      <c r="G9" s="56" t="n"/>
-      <c r="H9" s="56" t="n"/>
-      <c r="I9" s="56" t="n"/>
+      <c r="G9" s="56" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="H9" s="56" t="inlineStr">
+        <is>
+          <t>Edwin Encarnacion</t>
+        </is>
+      </c>
+      <c r="I9" s="56" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
       <c r="J9" s="56" t="n"/>
-      <c r="K9" s="56" t="n"/>
-      <c r="L9" s="56" t="n"/>
-      <c r="M9" s="56" t="n"/>
-      <c r="N9" s="56" t="n"/>
+      <c r="K9" s="56" t="inlineStr">
+        <is>
+          <t>Silver</t>
+        </is>
+      </c>
+      <c r="L9" s="56" t="inlineStr">
+        <is>
+          <t>Silver Slugger</t>
+        </is>
+      </c>
+      <c r="M9" s="56" t="inlineStr">
+        <is>
+          <t>Ford Mustang GT4</t>
+        </is>
+      </c>
+      <c r="N9" s="56" t="inlineStr">
+        <is>
+          <t>Pro-Am</t>
+        </is>
+      </c>
       <c r="R9" s="164" t="n"/>
       <c r="S9" s="167" t="n"/>
       <c r="T9" s="55" t="n"/>
@@ -6632,20 +6920,66 @@
       <c r="X9" s="55" t="n"/>
     </row>
     <row r="10" ht="30" customFormat="1" customHeight="1" s="86">
-      <c r="A10" s="88" t="n"/>
-      <c r="B10" s="113" t="n"/>
-      <c r="C10" s="112" t="n"/>
-      <c r="D10" s="112" t="n"/>
-      <c r="E10" s="114" t="n"/>
+      <c r="A10" s="88" t="inlineStr">
+        <is>
+          <t>GT4 America</t>
+        </is>
+      </c>
+      <c r="B10" s="113" t="n">
+        <v>888</v>
+      </c>
+      <c r="C10" s="112" t="inlineStr">
+        <is>
+          <t>Audi Sport Team Asia</t>
+        </is>
+      </c>
+      <c r="D10" s="112" t="inlineStr">
+        <is>
+          <t>Yusei Kikuchi</t>
+        </is>
+      </c>
+      <c r="E10" s="114" t="inlineStr">
+        <is>
+          <t>JAP</t>
+        </is>
+      </c>
       <c r="F10" s="60" t="n"/>
-      <c r="G10" s="60" t="n"/>
-      <c r="H10" s="60" t="n"/>
-      <c r="I10" s="60" t="n"/>
+      <c r="G10" s="60" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="H10" s="60" t="inlineStr">
+        <is>
+          <t>Hyun Jin Ryu</t>
+        </is>
+      </c>
+      <c r="I10" s="60" t="inlineStr">
+        <is>
+          <t>KOR</t>
+        </is>
+      </c>
       <c r="J10" s="49" t="n"/>
-      <c r="K10" s="60" t="n"/>
-      <c r="L10" s="112" t="n"/>
-      <c r="M10" s="49" t="n"/>
-      <c r="N10" s="49" t="n"/>
+      <c r="K10" s="60" t="inlineStr">
+        <is>
+          <t>Bronze</t>
+        </is>
+      </c>
+      <c r="L10" s="112" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="M10" s="49" t="inlineStr">
+        <is>
+          <t>Audi R8 LMS GT4</t>
+        </is>
+      </c>
+      <c r="N10" s="49" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
       <c r="R10" s="115" t="n"/>
       <c r="S10" s="167" t="n"/>
       <c r="T10" s="55" t="n"/>
@@ -7276,7 +7610,7 @@
       <c r="X37" s="55" t="n"/>
     </row>
     <row r="38" ht="30" customFormat="1" customHeight="1" s="43" thickBot="1">
-      <c r="A38" s="178" t="n"/>
+      <c r="A38" s="177" t="n"/>
       <c r="B38" s="61" t="n"/>
       <c r="C38" s="61" t="n"/>
       <c r="D38" s="61" t="n"/>
@@ -7284,7 +7618,7 @@
       <c r="F38" s="61" t="n"/>
       <c r="G38" s="61" t="n"/>
       <c r="H38" s="61" t="n"/>
-      <c r="I38" s="179" t="n"/>
+      <c r="I38" s="178" t="n"/>
       <c r="J38" s="61" t="n"/>
       <c r="K38" s="61" t="n"/>
       <c r="L38" s="61" t="n"/>
@@ -7300,23 +7634,23 @@
       <c r="Y38" s="100" t="n"/>
     </row>
     <row r="39" ht="17" customHeight="1" thickTop="1">
-      <c r="A39" s="180" t="n"/>
-      <c r="B39" s="181" t="n"/>
-      <c r="C39" s="180" t="n"/>
-      <c r="D39" s="182" t="n"/>
-      <c r="E39" s="182" t="n"/>
-      <c r="F39" s="182" t="n"/>
-      <c r="G39" s="182" t="n"/>
-      <c r="H39" s="183" t="n"/>
-      <c r="I39" s="183" t="n"/>
-      <c r="J39" s="183" t="n"/>
-      <c r="K39" s="183" t="n"/>
-      <c r="L39" s="180" t="n"/>
-      <c r="M39" s="183" t="n"/>
-      <c r="N39" s="183" t="n"/>
+      <c r="A39" s="179" t="n"/>
+      <c r="B39" s="180" t="n"/>
+      <c r="C39" s="179" t="n"/>
+      <c r="D39" s="181" t="n"/>
+      <c r="E39" s="181" t="n"/>
+      <c r="F39" s="181" t="n"/>
+      <c r="G39" s="181" t="n"/>
+      <c r="H39" s="182" t="n"/>
+      <c r="I39" s="182" t="n"/>
+      <c r="J39" s="182" t="n"/>
+      <c r="K39" s="182" t="n"/>
+      <c r="L39" s="179" t="n"/>
+      <c r="M39" s="182" t="n"/>
+      <c r="N39" s="182" t="n"/>
     </row>
     <row r="40" ht="20" customHeight="1" thickBot="1">
-      <c r="A40" s="185" t="inlineStr">
+      <c r="A40" s="183" t="inlineStr">
         <is>
           <t>Car Count:</t>
         </is>
@@ -7342,7 +7676,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.8"/>
-  <pageSetup orientation="landscape" scale="44"/>
+  <pageSetup orientation="landscape" scale="34"/>
   <headerFooter>
     <oddHeader/>
     <oddFooter>&amp;C&amp;G</oddFooter>
@@ -7366,8 +7700,8 @@
   </sheetPr>
   <dimension ref="A2:R41"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A4" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -7387,30 +7721,30 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="472" t="n"/>
-      <c r="D2" s="473" t="inlineStr">
+      <c r="A2" s="525" t="n"/>
+      <c r="D2" s="527" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="I2" s="472" t="n"/>
+      <c r="I2" s="525" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="473" t="inlineStr">
+      <c r="D3" s="527" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="473" t="inlineStr">
+      <c r="D4" s="527" t="inlineStr">
         <is>
           <t>April 5 - 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="N5" s="472" t="inlineStr">
+      <c r="N5" s="525" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
@@ -7472,7 +7806,7 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="N6" s="194" t="inlineStr">
+      <c r="N6" s="192" t="inlineStr">
         <is>
           <t>Admin Chk</t>
         </is>
@@ -7499,650 +7833,650 @@
       </c>
     </row>
     <row r="7" ht="54" customHeight="1" thickTop="1">
-      <c r="A7" s="391" t="inlineStr">
+      <c r="A7" s="371" t="inlineStr">
         <is>
           <t>GT America</t>
         </is>
       </c>
-      <c r="B7" s="398" t="n">
+      <c r="B7" s="499" t="n">
         <v>333</v>
       </c>
-      <c r="C7" s="399" t="inlineStr">
+      <c r="C7" s="378" t="inlineStr">
         <is>
           <t>Schnieder Racing</t>
         </is>
       </c>
-      <c r="D7" s="400" t="inlineStr">
+      <c r="D7" s="379" t="inlineStr">
         <is>
           <t>John Schnieder</t>
         </is>
       </c>
-      <c r="E7" s="399" t="inlineStr">
+      <c r="E7" s="378" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F7" s="399" t="n"/>
-      <c r="G7" s="400" t="n"/>
-      <c r="H7" s="401" t="inlineStr">
+      <c r="F7" s="378" t="n"/>
+      <c r="G7" s="379" t="n"/>
+      <c r="H7" s="380" t="inlineStr">
         <is>
           <t>Schneider Hot Dogs</t>
         </is>
       </c>
-      <c r="I7" s="402" t="inlineStr">
+      <c r="I7" s="381" t="inlineStr">
         <is>
           <t>Audi R8 LMS GT3 Evo 2</t>
         </is>
       </c>
-      <c r="J7" s="399" t="inlineStr">
+      <c r="J7" s="378" t="inlineStr">
         <is>
           <t>SRO3</t>
         </is>
       </c>
-      <c r="N7" s="195" t="n"/>
+      <c r="N7" s="193" t="n"/>
       <c r="O7" s="46" t="n"/>
       <c r="P7" s="48" t="n"/>
       <c r="Q7" s="48" t="n"/>
-      <c r="R7" s="196" t="n"/>
+      <c r="R7" s="194" t="n"/>
     </row>
     <row r="8" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A8" s="391" t="inlineStr">
+      <c r="A8" s="371" t="inlineStr">
         <is>
           <t>GT America</t>
         </is>
       </c>
-      <c r="B8" s="403" t="n">
+      <c r="B8" s="500" t="n">
         <v>222</v>
       </c>
-      <c r="C8" s="404" t="inlineStr">
+      <c r="C8" s="382" t="inlineStr">
         <is>
           <t>Varsho Autosport</t>
         </is>
       </c>
-      <c r="D8" s="404" t="inlineStr">
+      <c r="D8" s="382" t="inlineStr">
         <is>
           <t>Dalton Varsho</t>
         </is>
       </c>
-      <c r="E8" s="404" t="inlineStr">
+      <c r="E8" s="382" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F8" s="405" t="n"/>
-      <c r="G8" s="404" t="n"/>
-      <c r="H8" s="404" t="inlineStr"/>
-      <c r="I8" s="404" t="inlineStr">
+      <c r="F8" s="383" t="n"/>
+      <c r="G8" s="382" t="n"/>
+      <c r="H8" s="382" t="inlineStr"/>
+      <c r="I8" s="382" t="inlineStr">
         <is>
           <t>KTM X-Bow GT2</t>
         </is>
       </c>
-      <c r="J8" s="404" t="inlineStr">
+      <c r="J8" s="382" t="inlineStr">
         <is>
           <t>GT2</t>
         </is>
       </c>
-      <c r="N8" s="195" t="n"/>
+      <c r="N8" s="193" t="n"/>
       <c r="O8" s="46" t="n"/>
       <c r="P8" s="47" t="n"/>
       <c r="Q8" s="47" t="n"/>
-      <c r="R8" s="197" t="n"/>
+      <c r="R8" s="195" t="n"/>
     </row>
     <row r="9" ht="54" customFormat="1" customHeight="1" s="32">
-      <c r="A9" s="392" t="inlineStr">
+      <c r="A9" s="372" t="inlineStr">
         <is>
           <t>GT America</t>
         </is>
       </c>
-      <c r="B9" s="406" t="n">
+      <c r="B9" s="501" t="n">
         <v>2</v>
       </c>
-      <c r="C9" s="407" t="inlineStr">
+      <c r="C9" s="384" t="inlineStr">
         <is>
           <t>Big Motorsports</t>
         </is>
       </c>
-      <c r="D9" s="408" t="inlineStr">
+      <c r="D9" s="385" t="inlineStr">
         <is>
           <t>Cavan Biggio</t>
         </is>
       </c>
-      <c r="E9" s="408" t="inlineStr">
+      <c r="E9" s="385" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F9" s="408" t="n"/>
-      <c r="G9" s="408" t="n"/>
-      <c r="H9" s="409" t="inlineStr">
+      <c r="F9" s="385" t="n"/>
+      <c r="G9" s="385" t="n"/>
+      <c r="H9" s="386" t="inlineStr">
         <is>
           <t>Craig Biggio</t>
         </is>
       </c>
-      <c r="I9" s="410" t="inlineStr">
+      <c r="I9" s="387" t="inlineStr">
         <is>
           <t>Mercedes-AMG GT4</t>
         </is>
       </c>
-      <c r="J9" s="408" t="inlineStr">
+      <c r="J9" s="385" t="inlineStr">
         <is>
           <t>GT4</t>
         </is>
       </c>
-      <c r="N9" s="198" t="n"/>
+      <c r="N9" s="196" t="n"/>
       <c r="O9" s="46" t="n"/>
       <c r="P9" s="33" t="n"/>
       <c r="Q9" s="33" t="n"/>
-      <c r="R9" s="199" t="n"/>
+      <c r="R9" s="197" t="n"/>
     </row>
     <row r="10" ht="54" customFormat="1" customHeight="1" s="32">
-      <c r="A10" s="393" t="n"/>
-      <c r="B10" s="411" t="n"/>
-      <c r="C10" s="412" t="n"/>
-      <c r="D10" s="412" t="n"/>
-      <c r="E10" s="413" t="n"/>
-      <c r="F10" s="414" t="n"/>
-      <c r="G10" s="415" t="n"/>
-      <c r="H10" s="416" t="n"/>
-      <c r="I10" s="415" t="n"/>
-      <c r="J10" s="417" t="n"/>
-      <c r="N10" s="198" t="n"/>
+      <c r="A10" s="373" t="n"/>
+      <c r="B10" s="502" t="n"/>
+      <c r="C10" s="388" t="n"/>
+      <c r="D10" s="388" t="n"/>
+      <c r="E10" s="389" t="n"/>
+      <c r="F10" s="390" t="n"/>
+      <c r="G10" s="391" t="n"/>
+      <c r="H10" s="392" t="n"/>
+      <c r="I10" s="391" t="n"/>
+      <c r="J10" s="393" t="n"/>
+      <c r="N10" s="196" t="n"/>
       <c r="O10" s="46" t="n"/>
       <c r="P10" s="33" t="n"/>
       <c r="Q10" s="33" t="n"/>
-      <c r="R10" s="199" t="n"/>
+      <c r="R10" s="197" t="n"/>
     </row>
     <row r="11" ht="54" customFormat="1" customHeight="1" s="43">
-      <c r="A11" s="394" t="n"/>
-      <c r="B11" s="418" t="n"/>
-      <c r="C11" s="419" t="n"/>
-      <c r="D11" s="420" t="n"/>
-      <c r="E11" s="420" t="n"/>
-      <c r="F11" s="419" t="n"/>
-      <c r="G11" s="419" t="n"/>
-      <c r="H11" s="421" t="n"/>
-      <c r="I11" s="422" t="n"/>
-      <c r="J11" s="419" t="n"/>
-      <c r="N11" s="198" t="n"/>
+      <c r="A11" s="374" t="n"/>
+      <c r="B11" s="503" t="n"/>
+      <c r="C11" s="394" t="n"/>
+      <c r="D11" s="395" t="n"/>
+      <c r="E11" s="395" t="n"/>
+      <c r="F11" s="394" t="n"/>
+      <c r="G11" s="394" t="n"/>
+      <c r="H11" s="396" t="n"/>
+      <c r="I11" s="397" t="n"/>
+      <c r="J11" s="394" t="n"/>
+      <c r="N11" s="196" t="n"/>
       <c r="O11" s="46" t="n"/>
       <c r="P11" s="44" t="n"/>
       <c r="Q11" s="44" t="n"/>
-      <c r="R11" s="200" t="n"/>
+      <c r="R11" s="198" t="n"/>
     </row>
     <row r="12" ht="54" customFormat="1" customHeight="1" s="43">
-      <c r="A12" s="394" t="n"/>
-      <c r="B12" s="423" t="n"/>
-      <c r="C12" s="412" t="n"/>
-      <c r="D12" s="412" t="n"/>
-      <c r="E12" s="413" t="n"/>
-      <c r="F12" s="414" t="n"/>
-      <c r="G12" s="424" t="n"/>
-      <c r="H12" s="425" t="n"/>
-      <c r="I12" s="424" t="n"/>
-      <c r="J12" s="417" t="n"/>
-      <c r="N12" s="198" t="n"/>
+      <c r="A12" s="374" t="n"/>
+      <c r="B12" s="504" t="n"/>
+      <c r="C12" s="388" t="n"/>
+      <c r="D12" s="388" t="n"/>
+      <c r="E12" s="389" t="n"/>
+      <c r="F12" s="390" t="n"/>
+      <c r="G12" s="398" t="n"/>
+      <c r="H12" s="399" t="n"/>
+      <c r="I12" s="398" t="n"/>
+      <c r="J12" s="393" t="n"/>
+      <c r="N12" s="196" t="n"/>
       <c r="O12" s="46" t="n"/>
       <c r="P12" s="44" t="n"/>
       <c r="Q12" s="44" t="n"/>
-      <c r="R12" s="200" t="n"/>
+      <c r="R12" s="198" t="n"/>
     </row>
     <row r="13" ht="54" customHeight="1">
-      <c r="A13" s="391" t="n"/>
-      <c r="B13" s="403" t="n"/>
-      <c r="C13" s="404" t="n"/>
-      <c r="D13" s="404" t="n"/>
-      <c r="E13" s="404" t="n"/>
-      <c r="F13" s="405" t="n"/>
-      <c r="G13" s="404" t="n"/>
-      <c r="H13" s="404" t="n"/>
-      <c r="I13" s="404" t="n"/>
-      <c r="J13" s="404" t="n"/>
-      <c r="N13" s="201" t="n"/>
+      <c r="A13" s="371" t="n"/>
+      <c r="B13" s="500" t="n"/>
+      <c r="C13" s="382" t="n"/>
+      <c r="D13" s="382" t="n"/>
+      <c r="E13" s="382" t="n"/>
+      <c r="F13" s="383" t="n"/>
+      <c r="G13" s="382" t="n"/>
+      <c r="H13" s="382" t="n"/>
+      <c r="I13" s="382" t="n"/>
+      <c r="J13" s="382" t="n"/>
+      <c r="N13" s="199" t="n"/>
       <c r="O13" s="46" t="n"/>
       <c r="P13" s="103" t="n"/>
       <c r="Q13" s="104" t="n"/>
-      <c r="R13" s="202" t="n"/>
+      <c r="R13" s="200" t="n"/>
     </row>
     <row r="14" ht="54" customFormat="1" customHeight="1" s="105">
-      <c r="A14" s="392" t="n"/>
-      <c r="B14" s="407" t="n"/>
-      <c r="C14" s="407" t="n"/>
-      <c r="D14" s="407" t="n"/>
-      <c r="E14" s="407" t="n"/>
-      <c r="F14" s="407" t="n"/>
-      <c r="G14" s="426" t="n"/>
-      <c r="H14" s="427" t="n"/>
-      <c r="I14" s="407" t="n"/>
-      <c r="J14" s="428" t="n"/>
-      <c r="N14" s="203" t="n"/>
+      <c r="A14" s="372" t="n"/>
+      <c r="B14" s="505" t="n"/>
+      <c r="C14" s="384" t="n"/>
+      <c r="D14" s="384" t="n"/>
+      <c r="E14" s="384" t="n"/>
+      <c r="F14" s="384" t="n"/>
+      <c r="G14" s="400" t="n"/>
+      <c r="H14" s="401" t="n"/>
+      <c r="I14" s="384" t="n"/>
+      <c r="J14" s="402" t="n"/>
+      <c r="N14" s="201" t="n"/>
       <c r="O14" s="46" t="n"/>
       <c r="P14" s="106" t="n"/>
       <c r="Q14" s="106" t="n"/>
-      <c r="R14" s="204" t="n"/>
+      <c r="R14" s="202" t="n"/>
     </row>
     <row r="15" ht="54" customHeight="1">
-      <c r="A15" s="391" t="n"/>
-      <c r="B15" s="429" t="n"/>
-      <c r="C15" s="430" t="n"/>
-      <c r="D15" s="430" t="n"/>
-      <c r="E15" s="430" t="n"/>
-      <c r="F15" s="431" t="n"/>
-      <c r="G15" s="429" t="n"/>
-      <c r="H15" s="430" t="n"/>
-      <c r="I15" s="430" t="n"/>
-      <c r="J15" s="430" t="n"/>
-      <c r="N15" s="195" t="n"/>
+      <c r="A15" s="371" t="n"/>
+      <c r="B15" s="506" t="n"/>
+      <c r="C15" s="404" t="n"/>
+      <c r="D15" s="404" t="n"/>
+      <c r="E15" s="404" t="n"/>
+      <c r="F15" s="405" t="n"/>
+      <c r="G15" s="403" t="n"/>
+      <c r="H15" s="404" t="n"/>
+      <c r="I15" s="404" t="n"/>
+      <c r="J15" s="404" t="n"/>
+      <c r="N15" s="193" t="n"/>
       <c r="O15" s="46" t="n"/>
       <c r="P15" s="48" t="n"/>
       <c r="Q15" s="48" t="n"/>
-      <c r="R15" s="196" t="n"/>
+      <c r="R15" s="194" t="n"/>
     </row>
     <row r="16" ht="54" customFormat="1" customHeight="1" s="89">
-      <c r="A16" s="391" t="n"/>
-      <c r="B16" s="432" t="n"/>
-      <c r="C16" s="404" t="n"/>
-      <c r="D16" s="404" t="n"/>
-      <c r="E16" s="404" t="n"/>
-      <c r="F16" s="433" t="n"/>
-      <c r="G16" s="404" t="n"/>
-      <c r="H16" s="404" t="n"/>
-      <c r="I16" s="419" t="n"/>
-      <c r="J16" s="404" t="n"/>
-      <c r="N16" s="205" t="n"/>
+      <c r="A16" s="371" t="n"/>
+      <c r="B16" s="507" t="n"/>
+      <c r="C16" s="382" t="n"/>
+      <c r="D16" s="382" t="n"/>
+      <c r="E16" s="382" t="n"/>
+      <c r="F16" s="406" t="n"/>
+      <c r="G16" s="382" t="n"/>
+      <c r="H16" s="382" t="n"/>
+      <c r="I16" s="394" t="n"/>
+      <c r="J16" s="382" t="n"/>
+      <c r="N16" s="203" t="n"/>
       <c r="O16" s="46" t="n"/>
       <c r="P16" s="90" t="n"/>
       <c r="Q16" s="90" t="n"/>
-      <c r="R16" s="206" t="n"/>
+      <c r="R16" s="204" t="n"/>
     </row>
     <row r="17" ht="54" customHeight="1">
-      <c r="A17" s="391" t="n"/>
-      <c r="B17" s="432" t="n"/>
-      <c r="C17" s="404" t="n"/>
-      <c r="D17" s="404" t="n"/>
-      <c r="E17" s="404" t="n"/>
-      <c r="F17" s="405" t="n"/>
-      <c r="G17" s="434" t="n"/>
-      <c r="H17" s="435" t="n"/>
-      <c r="I17" s="435" t="n"/>
-      <c r="J17" s="404" t="n"/>
-      <c r="N17" s="195" t="n"/>
+      <c r="A17" s="371" t="n"/>
+      <c r="B17" s="507" t="n"/>
+      <c r="C17" s="382" t="n"/>
+      <c r="D17" s="382" t="n"/>
+      <c r="E17" s="382" t="n"/>
+      <c r="F17" s="383" t="n"/>
+      <c r="G17" s="407" t="n"/>
+      <c r="H17" s="408" t="n"/>
+      <c r="I17" s="408" t="n"/>
+      <c r="J17" s="382" t="n"/>
+      <c r="N17" s="193" t="n"/>
       <c r="O17" s="46" t="n"/>
       <c r="P17" s="50" t="n"/>
       <c r="Q17" s="50" t="n"/>
-      <c r="R17" s="207" t="n"/>
+      <c r="R17" s="205" t="n"/>
     </row>
     <row r="18" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A18" s="391" t="n"/>
-      <c r="B18" s="424" t="n"/>
-      <c r="C18" s="412" t="n"/>
-      <c r="D18" s="412" t="n"/>
-      <c r="E18" s="413" t="n"/>
-      <c r="F18" s="414" t="n"/>
-      <c r="G18" s="424" t="n"/>
-      <c r="H18" s="425" t="n"/>
-      <c r="I18" s="424" t="n"/>
-      <c r="J18" s="417" t="n"/>
-      <c r="N18" s="195" t="n"/>
+      <c r="A18" s="371" t="n"/>
+      <c r="B18" s="508" t="n"/>
+      <c r="C18" s="388" t="n"/>
+      <c r="D18" s="388" t="n"/>
+      <c r="E18" s="389" t="n"/>
+      <c r="F18" s="390" t="n"/>
+      <c r="G18" s="398" t="n"/>
+      <c r="H18" s="399" t="n"/>
+      <c r="I18" s="398" t="n"/>
+      <c r="J18" s="393" t="n"/>
+      <c r="N18" s="193" t="n"/>
       <c r="O18" s="46" t="n"/>
       <c r="P18" s="47" t="n"/>
       <c r="Q18" s="47" t="n"/>
-      <c r="R18" s="197" t="n"/>
+      <c r="R18" s="195" t="n"/>
     </row>
     <row r="19" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A19" s="395" t="n"/>
-      <c r="B19" s="415" t="n"/>
-      <c r="C19" s="436" t="n"/>
-      <c r="D19" s="436" t="n"/>
-      <c r="E19" s="437" t="n"/>
-      <c r="F19" s="414" t="n"/>
-      <c r="G19" s="424" t="n"/>
-      <c r="H19" s="425" t="n"/>
-      <c r="I19" s="424" t="n"/>
-      <c r="J19" s="417" t="n"/>
-      <c r="N19" s="208" t="n"/>
+      <c r="A19" s="375" t="n"/>
+      <c r="B19" s="509" t="n"/>
+      <c r="C19" s="409" t="n"/>
+      <c r="D19" s="409" t="n"/>
+      <c r="E19" s="410" t="n"/>
+      <c r="F19" s="390" t="n"/>
+      <c r="G19" s="398" t="n"/>
+      <c r="H19" s="399" t="n"/>
+      <c r="I19" s="398" t="n"/>
+      <c r="J19" s="393" t="n"/>
+      <c r="N19" s="206" t="n"/>
       <c r="O19" s="46" t="n"/>
       <c r="P19" s="171" t="n"/>
       <c r="Q19" s="171" t="n"/>
-      <c r="R19" s="209" t="n"/>
+      <c r="R19" s="207" t="n"/>
     </row>
     <row r="20" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A20" s="396" t="n"/>
-      <c r="B20" s="424" t="n"/>
-      <c r="C20" s="438" t="n"/>
-      <c r="D20" s="439" t="n"/>
-      <c r="E20" s="440" t="n"/>
-      <c r="F20" s="414" t="n"/>
-      <c r="G20" s="424" t="n"/>
-      <c r="H20" s="438" t="n"/>
-      <c r="I20" s="424" t="n"/>
-      <c r="J20" s="417" t="n"/>
-      <c r="N20" s="195" t="n"/>
+      <c r="A20" s="376" t="n"/>
+      <c r="B20" s="508" t="n"/>
+      <c r="C20" s="411" t="n"/>
+      <c r="D20" s="412" t="n"/>
+      <c r="E20" s="413" t="n"/>
+      <c r="F20" s="390" t="n"/>
+      <c r="G20" s="398" t="n"/>
+      <c r="H20" s="411" t="n"/>
+      <c r="I20" s="398" t="n"/>
+      <c r="J20" s="393" t="n"/>
+      <c r="N20" s="193" t="n"/>
       <c r="O20" s="46" t="n"/>
       <c r="P20" s="46" t="n"/>
       <c r="Q20" s="46" t="n"/>
-      <c r="R20" s="210" t="n"/>
+      <c r="R20" s="208" t="n"/>
     </row>
     <row r="21" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A21" s="391" t="n"/>
-      <c r="B21" s="429" t="n"/>
-      <c r="C21" s="429" t="n"/>
-      <c r="D21" s="429" t="n"/>
-      <c r="E21" s="429" t="n"/>
-      <c r="F21" s="441" t="n"/>
-      <c r="G21" s="442" t="n"/>
-      <c r="H21" s="443" t="n"/>
-      <c r="I21" s="404" t="n"/>
-      <c r="J21" s="429" t="n"/>
-      <c r="N21" s="201" t="n"/>
+      <c r="A21" s="371" t="n"/>
+      <c r="B21" s="506" t="n"/>
+      <c r="C21" s="403" t="n"/>
+      <c r="D21" s="403" t="n"/>
+      <c r="E21" s="403" t="n"/>
+      <c r="F21" s="414" t="n"/>
+      <c r="G21" s="415" t="n"/>
+      <c r="H21" s="416" t="n"/>
+      <c r="I21" s="382" t="n"/>
+      <c r="J21" s="403" t="n"/>
+      <c r="N21" s="199" t="n"/>
       <c r="O21" s="46" t="n"/>
       <c r="P21" s="172" t="n"/>
       <c r="Q21" s="172" t="n"/>
-      <c r="R21" s="211" t="n"/>
+      <c r="R21" s="209" t="n"/>
     </row>
     <row r="22" ht="54" customFormat="1" customHeight="1" s="34">
-      <c r="A22" s="392" t="n"/>
-      <c r="B22" s="444" t="n"/>
-      <c r="C22" s="445" t="n"/>
-      <c r="D22" s="446" t="n"/>
-      <c r="E22" s="447" t="n"/>
-      <c r="F22" s="447" t="n"/>
-      <c r="G22" s="446" t="n"/>
-      <c r="H22" s="448" t="n"/>
-      <c r="I22" s="449" t="n"/>
-      <c r="J22" s="450" t="n"/>
-      <c r="N22" s="198" t="n"/>
+      <c r="A22" s="372" t="n"/>
+      <c r="B22" s="510" t="n"/>
+      <c r="C22" s="417" t="n"/>
+      <c r="D22" s="418" t="n"/>
+      <c r="E22" s="419" t="n"/>
+      <c r="F22" s="419" t="n"/>
+      <c r="G22" s="418" t="n"/>
+      <c r="H22" s="420" t="n"/>
+      <c r="I22" s="421" t="n"/>
+      <c r="J22" s="422" t="n"/>
+      <c r="N22" s="196" t="n"/>
       <c r="O22" s="46" t="n"/>
       <c r="P22" s="35" t="n"/>
       <c r="Q22" s="35" t="n"/>
-      <c r="R22" s="212" t="n"/>
+      <c r="R22" s="210" t="n"/>
     </row>
     <row r="23" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A23" s="391" t="n"/>
-      <c r="B23" s="451" t="n"/>
-      <c r="C23" s="439" t="n"/>
-      <c r="D23" s="439" t="n"/>
-      <c r="E23" s="440" t="n"/>
-      <c r="F23" s="414" t="n"/>
-      <c r="G23" s="452" t="n"/>
-      <c r="H23" s="453" t="n"/>
-      <c r="I23" s="399" t="n"/>
-      <c r="J23" s="417" t="n"/>
-      <c r="N23" s="195" t="n"/>
+      <c r="A23" s="371" t="n"/>
+      <c r="B23" s="504" t="n"/>
+      <c r="C23" s="412" t="n"/>
+      <c r="D23" s="412" t="n"/>
+      <c r="E23" s="413" t="n"/>
+      <c r="F23" s="390" t="n"/>
+      <c r="G23" s="423" t="n"/>
+      <c r="H23" s="424" t="n"/>
+      <c r="I23" s="378" t="n"/>
+      <c r="J23" s="393" t="n"/>
+      <c r="N23" s="193" t="n"/>
       <c r="O23" s="46" t="n"/>
       <c r="P23" s="99" t="n"/>
       <c r="Q23" s="99" t="n"/>
-      <c r="R23" s="213" t="n"/>
+      <c r="R23" s="211" t="n"/>
     </row>
     <row r="24" ht="54" customFormat="1" customHeight="1" s="34">
-      <c r="A24" s="392" t="n"/>
-      <c r="B24" s="423" t="n"/>
-      <c r="C24" s="412" t="n"/>
-      <c r="D24" s="412" t="n"/>
-      <c r="E24" s="413" t="n"/>
-      <c r="F24" s="414" t="n"/>
-      <c r="G24" s="439" t="n"/>
-      <c r="H24" s="425" t="n"/>
-      <c r="I24" s="424" t="n"/>
-      <c r="J24" s="417" t="n"/>
-      <c r="N24" s="198" t="n"/>
+      <c r="A24" s="372" t="n"/>
+      <c r="B24" s="504" t="n"/>
+      <c r="C24" s="388" t="n"/>
+      <c r="D24" s="388" t="n"/>
+      <c r="E24" s="389" t="n"/>
+      <c r="F24" s="390" t="n"/>
+      <c r="G24" s="412" t="n"/>
+      <c r="H24" s="399" t="n"/>
+      <c r="I24" s="398" t="n"/>
+      <c r="J24" s="393" t="n"/>
+      <c r="N24" s="196" t="n"/>
       <c r="O24" s="46" t="n"/>
       <c r="P24" s="35" t="n"/>
       <c r="Q24" s="35" t="n"/>
-      <c r="R24" s="212" t="n"/>
+      <c r="R24" s="210" t="n"/>
     </row>
     <row r="25" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A25" s="392" t="n"/>
-      <c r="B25" s="454" t="n"/>
-      <c r="C25" s="446" t="n"/>
-      <c r="D25" s="446" t="n"/>
-      <c r="E25" s="455" t="n"/>
-      <c r="F25" s="445" t="n"/>
-      <c r="G25" s="445" t="n"/>
-      <c r="H25" s="456" t="n"/>
-      <c r="I25" s="445" t="n"/>
-      <c r="J25" s="457" t="n"/>
-      <c r="N25" s="195" t="n"/>
+      <c r="A25" s="372" t="n"/>
+      <c r="B25" s="510" t="n"/>
+      <c r="C25" s="418" t="n"/>
+      <c r="D25" s="418" t="n"/>
+      <c r="E25" s="425" t="n"/>
+      <c r="F25" s="417" t="n"/>
+      <c r="G25" s="417" t="n"/>
+      <c r="H25" s="426" t="n"/>
+      <c r="I25" s="417" t="n"/>
+      <c r="J25" s="427" t="n"/>
+      <c r="N25" s="193" t="n"/>
       <c r="O25" s="46" t="n"/>
       <c r="P25" s="99" t="n"/>
       <c r="Q25" s="99" t="n"/>
-      <c r="R25" s="213" t="n"/>
+      <c r="R25" s="211" t="n"/>
     </row>
     <row r="26" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A26" s="392" t="n"/>
-      <c r="B26" s="454" t="n"/>
-      <c r="C26" s="446" t="n"/>
-      <c r="D26" s="446" t="n"/>
-      <c r="E26" s="455" t="n"/>
-      <c r="F26" s="445" t="n"/>
-      <c r="G26" s="445" t="n"/>
-      <c r="H26" s="456" t="n"/>
-      <c r="I26" s="445" t="n"/>
-      <c r="J26" s="470" t="n"/>
-      <c r="N26" s="195" t="n"/>
+      <c r="A26" s="372" t="n"/>
+      <c r="B26" s="510" t="n"/>
+      <c r="C26" s="418" t="n"/>
+      <c r="D26" s="418" t="n"/>
+      <c r="E26" s="425" t="n"/>
+      <c r="F26" s="417" t="n"/>
+      <c r="G26" s="417" t="n"/>
+      <c r="H26" s="426" t="n"/>
+      <c r="I26" s="417" t="n"/>
+      <c r="J26" s="439" t="n"/>
+      <c r="N26" s="193" t="n"/>
       <c r="O26" s="46" t="n"/>
       <c r="P26" s="99" t="n"/>
       <c r="Q26" s="99" t="n"/>
-      <c r="R26" s="213" t="n"/>
+      <c r="R26" s="211" t="n"/>
     </row>
     <row r="27" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A27" s="392" t="n"/>
-      <c r="B27" s="454" t="n"/>
-      <c r="C27" s="446" t="n"/>
-      <c r="D27" s="446" t="n"/>
-      <c r="E27" s="455" t="n"/>
-      <c r="F27" s="445" t="n"/>
-      <c r="G27" s="445" t="n"/>
-      <c r="H27" s="456" t="n"/>
-      <c r="I27" s="445" t="n"/>
-      <c r="J27" s="470" t="n"/>
-      <c r="N27" s="195" t="n"/>
+      <c r="A27" s="372" t="n"/>
+      <c r="B27" s="510" t="n"/>
+      <c r="C27" s="418" t="n"/>
+      <c r="D27" s="418" t="n"/>
+      <c r="E27" s="425" t="n"/>
+      <c r="F27" s="417" t="n"/>
+      <c r="G27" s="417" t="n"/>
+      <c r="H27" s="426" t="n"/>
+      <c r="I27" s="417" t="n"/>
+      <c r="J27" s="439" t="n"/>
+      <c r="N27" s="193" t="n"/>
       <c r="O27" s="46" t="n"/>
       <c r="P27" s="99" t="n"/>
       <c r="Q27" s="99" t="n"/>
-      <c r="R27" s="213" t="n"/>
+      <c r="R27" s="211" t="n"/>
     </row>
     <row r="28" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A28" s="392" t="n"/>
-      <c r="B28" s="454" t="n"/>
-      <c r="C28" s="446" t="n"/>
-      <c r="D28" s="446" t="n"/>
-      <c r="E28" s="455" t="n"/>
-      <c r="F28" s="445" t="n"/>
-      <c r="G28" s="445" t="n"/>
-      <c r="H28" s="456" t="n"/>
-      <c r="I28" s="445" t="n"/>
-      <c r="J28" s="470" t="n"/>
-      <c r="N28" s="195" t="n"/>
+      <c r="A28" s="372" t="n"/>
+      <c r="B28" s="510" t="n"/>
+      <c r="C28" s="418" t="n"/>
+      <c r="D28" s="418" t="n"/>
+      <c r="E28" s="425" t="n"/>
+      <c r="F28" s="417" t="n"/>
+      <c r="G28" s="417" t="n"/>
+      <c r="H28" s="426" t="n"/>
+      <c r="I28" s="417" t="n"/>
+      <c r="J28" s="439" t="n"/>
+      <c r="N28" s="193" t="n"/>
       <c r="O28" s="46" t="n"/>
       <c r="P28" s="99" t="n"/>
       <c r="Q28" s="99" t="n"/>
-      <c r="R28" s="213" t="n"/>
+      <c r="R28" s="211" t="n"/>
     </row>
     <row r="29" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A29" s="392" t="n"/>
-      <c r="B29" s="454" t="n"/>
-      <c r="C29" s="446" t="n"/>
-      <c r="D29" s="446" t="n"/>
-      <c r="E29" s="455" t="n"/>
-      <c r="F29" s="445" t="n"/>
-      <c r="G29" s="445" t="n"/>
-      <c r="H29" s="456" t="n"/>
-      <c r="I29" s="445" t="n"/>
-      <c r="J29" s="470" t="n"/>
-      <c r="N29" s="195" t="n"/>
+      <c r="A29" s="372" t="n"/>
+      <c r="B29" s="510" t="n"/>
+      <c r="C29" s="418" t="n"/>
+      <c r="D29" s="418" t="n"/>
+      <c r="E29" s="425" t="n"/>
+      <c r="F29" s="417" t="n"/>
+      <c r="G29" s="417" t="n"/>
+      <c r="H29" s="426" t="n"/>
+      <c r="I29" s="417" t="n"/>
+      <c r="J29" s="439" t="n"/>
+      <c r="N29" s="193" t="n"/>
       <c r="O29" s="46" t="n"/>
       <c r="P29" s="99" t="n"/>
       <c r="Q29" s="99" t="n"/>
-      <c r="R29" s="213" t="n"/>
+      <c r="R29" s="211" t="n"/>
     </row>
     <row r="30" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A30" s="392" t="n"/>
-      <c r="B30" s="454" t="n"/>
-      <c r="C30" s="446" t="n"/>
-      <c r="D30" s="446" t="n"/>
-      <c r="E30" s="455" t="n"/>
-      <c r="F30" s="445" t="n"/>
-      <c r="G30" s="445" t="n"/>
-      <c r="H30" s="456" t="n"/>
-      <c r="I30" s="445" t="n"/>
-      <c r="J30" s="470" t="n"/>
-      <c r="N30" s="195" t="n"/>
+      <c r="A30" s="372" t="n"/>
+      <c r="B30" s="510" t="n"/>
+      <c r="C30" s="418" t="n"/>
+      <c r="D30" s="418" t="n"/>
+      <c r="E30" s="425" t="n"/>
+      <c r="F30" s="417" t="n"/>
+      <c r="G30" s="417" t="n"/>
+      <c r="H30" s="426" t="n"/>
+      <c r="I30" s="417" t="n"/>
+      <c r="J30" s="439" t="n"/>
+      <c r="N30" s="193" t="n"/>
       <c r="O30" s="46" t="n"/>
       <c r="P30" s="99" t="n"/>
       <c r="Q30" s="99" t="n"/>
-      <c r="R30" s="213" t="n"/>
+      <c r="R30" s="211" t="n"/>
     </row>
     <row r="31" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A31" s="392" t="n"/>
-      <c r="B31" s="454" t="n"/>
-      <c r="C31" s="446" t="n"/>
-      <c r="D31" s="446" t="n"/>
-      <c r="E31" s="455" t="n"/>
-      <c r="F31" s="445" t="n"/>
-      <c r="G31" s="445" t="n"/>
-      <c r="H31" s="456" t="n"/>
-      <c r="I31" s="445" t="n"/>
-      <c r="J31" s="470" t="n"/>
-      <c r="N31" s="195" t="n"/>
+      <c r="A31" s="372" t="n"/>
+      <c r="B31" s="510" t="n"/>
+      <c r="C31" s="418" t="n"/>
+      <c r="D31" s="418" t="n"/>
+      <c r="E31" s="425" t="n"/>
+      <c r="F31" s="417" t="n"/>
+      <c r="G31" s="417" t="n"/>
+      <c r="H31" s="426" t="n"/>
+      <c r="I31" s="417" t="n"/>
+      <c r="J31" s="439" t="n"/>
+      <c r="N31" s="193" t="n"/>
       <c r="O31" s="46" t="n"/>
       <c r="P31" s="99" t="n"/>
       <c r="Q31" s="99" t="n"/>
-      <c r="R31" s="213" t="n"/>
+      <c r="R31" s="211" t="n"/>
     </row>
     <row r="32" ht="54" customFormat="1" customHeight="1" s="98">
-      <c r="A32" s="392" t="n"/>
-      <c r="B32" s="454" t="n"/>
-      <c r="C32" s="446" t="n"/>
-      <c r="D32" s="446" t="n"/>
-      <c r="E32" s="455" t="n"/>
-      <c r="F32" s="445" t="n"/>
-      <c r="G32" s="445" t="n"/>
-      <c r="H32" s="456" t="n"/>
-      <c r="I32" s="445" t="n"/>
-      <c r="J32" s="470" t="n"/>
-      <c r="N32" s="195" t="n"/>
+      <c r="A32" s="372" t="n"/>
+      <c r="B32" s="510" t="n"/>
+      <c r="C32" s="418" t="n"/>
+      <c r="D32" s="418" t="n"/>
+      <c r="E32" s="425" t="n"/>
+      <c r="F32" s="417" t="n"/>
+      <c r="G32" s="417" t="n"/>
+      <c r="H32" s="426" t="n"/>
+      <c r="I32" s="417" t="n"/>
+      <c r="J32" s="439" t="n"/>
+      <c r="N32" s="193" t="n"/>
       <c r="O32" s="46" t="n"/>
       <c r="P32" s="99" t="n"/>
       <c r="Q32" s="99" t="n"/>
-      <c r="R32" s="213" t="n"/>
+      <c r="R32" s="211" t="n"/>
     </row>
     <row r="33" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A33" s="391" t="n"/>
-      <c r="B33" s="451" t="n"/>
-      <c r="C33" s="424" t="n"/>
-      <c r="D33" s="458" t="n"/>
-      <c r="E33" s="414" t="n"/>
-      <c r="F33" s="424" t="n"/>
-      <c r="G33" s="439" t="n"/>
-      <c r="H33" s="458" t="n"/>
-      <c r="I33" s="459" t="n"/>
-      <c r="J33" s="417" t="n"/>
-      <c r="N33" s="195" t="n"/>
+      <c r="A33" s="371" t="n"/>
+      <c r="B33" s="504" t="n"/>
+      <c r="C33" s="398" t="n"/>
+      <c r="D33" s="428" t="n"/>
+      <c r="E33" s="390" t="n"/>
+      <c r="F33" s="398" t="n"/>
+      <c r="G33" s="412" t="n"/>
+      <c r="H33" s="428" t="n"/>
+      <c r="I33" s="429" t="n"/>
+      <c r="J33" s="393" t="n"/>
+      <c r="N33" s="193" t="n"/>
       <c r="O33" s="46" t="n"/>
       <c r="P33" s="46" t="n"/>
       <c r="Q33" s="47" t="n"/>
-      <c r="R33" s="197" t="n"/>
+      <c r="R33" s="195" t="n"/>
     </row>
     <row r="34" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A34" s="391" t="n"/>
-      <c r="B34" s="451" t="n"/>
-      <c r="C34" s="424" t="n"/>
-      <c r="D34" s="458" t="n"/>
-      <c r="E34" s="414" t="n"/>
-      <c r="F34" s="424" t="n"/>
-      <c r="G34" s="439" t="n"/>
-      <c r="H34" s="458" t="n"/>
-      <c r="I34" s="459" t="n"/>
-      <c r="J34" s="417" t="n"/>
-      <c r="N34" s="195" t="n"/>
+      <c r="A34" s="371" t="n"/>
+      <c r="B34" s="504" t="n"/>
+      <c r="C34" s="398" t="n"/>
+      <c r="D34" s="428" t="n"/>
+      <c r="E34" s="390" t="n"/>
+      <c r="F34" s="398" t="n"/>
+      <c r="G34" s="412" t="n"/>
+      <c r="H34" s="428" t="n"/>
+      <c r="I34" s="429" t="n"/>
+      <c r="J34" s="393" t="n"/>
+      <c r="N34" s="193" t="n"/>
       <c r="O34" s="46" t="n"/>
       <c r="P34" s="46" t="n"/>
       <c r="Q34" s="47" t="n"/>
-      <c r="R34" s="197" t="n"/>
+      <c r="R34" s="195" t="n"/>
     </row>
     <row r="35" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A35" s="391" t="n"/>
-      <c r="B35" s="451" t="n"/>
-      <c r="C35" s="424" t="n"/>
-      <c r="D35" s="458" t="n"/>
-      <c r="E35" s="414" t="n"/>
-      <c r="F35" s="414" t="n"/>
-      <c r="G35" s="452" t="n"/>
-      <c r="H35" s="458" t="n"/>
-      <c r="I35" s="459" t="n"/>
-      <c r="J35" s="417" t="n"/>
-      <c r="N35" s="195" t="n"/>
+      <c r="A35" s="371" t="n"/>
+      <c r="B35" s="504" t="n"/>
+      <c r="C35" s="398" t="n"/>
+      <c r="D35" s="428" t="n"/>
+      <c r="E35" s="390" t="n"/>
+      <c r="F35" s="390" t="n"/>
+      <c r="G35" s="423" t="n"/>
+      <c r="H35" s="428" t="n"/>
+      <c r="I35" s="429" t="n"/>
+      <c r="J35" s="393" t="n"/>
+      <c r="N35" s="193" t="n"/>
       <c r="O35" s="46" t="n"/>
       <c r="P35" s="46" t="n"/>
       <c r="Q35" s="47" t="n"/>
-      <c r="R35" s="197" t="n"/>
+      <c r="R35" s="195" t="n"/>
     </row>
     <row r="36" ht="54" customFormat="1" customHeight="1" s="45">
-      <c r="A36" s="391" t="n"/>
-      <c r="B36" s="429" t="n"/>
-      <c r="C36" s="429" t="n"/>
-      <c r="D36" s="429" t="n"/>
-      <c r="E36" s="429" t="n"/>
-      <c r="F36" s="441" t="n"/>
-      <c r="G36" s="442" t="n"/>
-      <c r="H36" s="429" t="n"/>
-      <c r="I36" s="429" t="n"/>
-      <c r="J36" s="460" t="n"/>
-      <c r="N36" s="195" t="n"/>
+      <c r="A36" s="371" t="n"/>
+      <c r="B36" s="506" t="n"/>
+      <c r="C36" s="403" t="n"/>
+      <c r="D36" s="403" t="n"/>
+      <c r="E36" s="403" t="n"/>
+      <c r="F36" s="414" t="n"/>
+      <c r="G36" s="415" t="n"/>
+      <c r="H36" s="403" t="n"/>
+      <c r="I36" s="403" t="n"/>
+      <c r="J36" s="430" t="n"/>
+      <c r="N36" s="193" t="n"/>
       <c r="O36" s="46" t="n"/>
       <c r="P36" s="47" t="n"/>
       <c r="Q36" s="47" t="n"/>
-      <c r="R36" s="197" t="n"/>
+      <c r="R36" s="195" t="n"/>
     </row>
     <row r="37" ht="54" customFormat="1" customHeight="1" s="96" thickBot="1">
-      <c r="A37" s="397" t="n"/>
-      <c r="B37" s="461" t="n"/>
-      <c r="C37" s="462" t="n"/>
-      <c r="D37" s="463" t="n"/>
-      <c r="E37" s="464" t="n"/>
-      <c r="F37" s="465" t="n"/>
-      <c r="G37" s="466" t="n"/>
-      <c r="H37" s="467" t="n"/>
-      <c r="I37" s="468" t="n"/>
-      <c r="J37" s="469" t="n"/>
-      <c r="N37" s="214" t="n"/>
-      <c r="O37" s="215" t="n"/>
-      <c r="P37" s="216" t="n"/>
-      <c r="Q37" s="216" t="n"/>
-      <c r="R37" s="217" t="n"/>
+      <c r="A37" s="377" t="n"/>
+      <c r="B37" s="511" t="n"/>
+      <c r="C37" s="431" t="n"/>
+      <c r="D37" s="432" t="n"/>
+      <c r="E37" s="433" t="n"/>
+      <c r="F37" s="434" t="n"/>
+      <c r="G37" s="435" t="n"/>
+      <c r="H37" s="436" t="n"/>
+      <c r="I37" s="437" t="n"/>
+      <c r="J37" s="438" t="n"/>
+      <c r="N37" s="212" t="n"/>
+      <c r="O37" s="213" t="n"/>
+      <c r="P37" s="214" t="n"/>
+      <c r="Q37" s="214" t="n"/>
+      <c r="R37" s="215" t="n"/>
     </row>
     <row r="38" ht="17" customHeight="1" thickTop="1">
-      <c r="A38" s="186" t="n"/>
-      <c r="B38" s="187" t="n"/>
-      <c r="C38" s="188" t="n"/>
-      <c r="D38" s="188" t="n"/>
-      <c r="E38" s="188" t="n"/>
-      <c r="F38" s="183" t="n"/>
-      <c r="G38" s="188" t="n"/>
-      <c r="H38" s="188" t="n"/>
-      <c r="I38" s="188" t="n"/>
-      <c r="J38" s="188" t="n"/>
+      <c r="A38" s="184" t="n"/>
+      <c r="B38" s="185" t="n"/>
+      <c r="C38" s="186" t="n"/>
+      <c r="D38" s="186" t="n"/>
+      <c r="E38" s="186" t="n"/>
+      <c r="F38" s="182" t="n"/>
+      <c r="G38" s="186" t="n"/>
+      <c r="H38" s="186" t="n"/>
+      <c r="I38" s="186" t="n"/>
+      <c r="J38" s="186" t="n"/>
       <c r="N38" s="98" t="n"/>
       <c r="O38" s="45" t="n"/>
     </row>
     <row r="39" ht="17" customHeight="1" thickBot="1">
-      <c r="A39" s="193" t="inlineStr">
+      <c r="A39" s="191" t="inlineStr">
         <is>
           <t>Car Count:</t>
         </is>
       </c>
-      <c r="B39" s="192">
+      <c r="B39" s="190">
         <f>COUNTA(B7:B37)</f>
         <v/>
       </c>
-      <c r="C39" s="190" t="n"/>
-      <c r="D39" s="190" t="n"/>
-      <c r="E39" s="190" t="n"/>
-      <c r="F39" s="189" t="n"/>
-      <c r="G39" s="189" t="n"/>
-      <c r="H39" s="191" t="n"/>
-      <c r="I39" s="189" t="n"/>
-      <c r="J39" s="189" t="n"/>
+      <c r="C39" s="188" t="n"/>
+      <c r="D39" s="188" t="n"/>
+      <c r="E39" s="188" t="n"/>
+      <c r="F39" s="187" t="n"/>
+      <c r="G39" s="187" t="n"/>
+      <c r="H39" s="189" t="n"/>
+      <c r="I39" s="187" t="n"/>
+      <c r="J39" s="187" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="8" t="n"/>
@@ -8203,8 +8537,8 @@
   </sheetPr>
   <dimension ref="A2:BP36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A23" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -8223,72 +8557,72 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="472" t="n"/>
-      <c r="D2" s="473" t="inlineStr">
+      <c r="A2" s="525" t="n"/>
+      <c r="D2" s="527" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="G2" s="472" t="n"/>
+      <c r="G2" s="525" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="473" t="inlineStr">
+      <c r="D3" s="527" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="473" t="inlineStr">
+      <c r="D4" s="527" t="inlineStr">
         <is>
           <t>April 5 - 7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="L5" s="472" t="inlineStr">
+      <c r="L5" s="525" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
       </c>
     </row>
     <row r="6" ht="50" customFormat="1" customHeight="1" s="10" thickBot="1">
-      <c r="A6" s="388" t="inlineStr">
+      <c r="A6" s="368" t="inlineStr">
         <is>
           <t>Series</t>
         </is>
       </c>
-      <c r="B6" s="389" t="inlineStr">
+      <c r="B6" s="369" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C6" s="389" t="inlineStr">
+      <c r="C6" s="369" t="inlineStr">
         <is>
           <t xml:space="preserve">Team </t>
         </is>
       </c>
-      <c r="D6" s="389" t="inlineStr">
+      <c r="D6" s="369" t="inlineStr">
         <is>
           <t>Driver</t>
         </is>
       </c>
-      <c r="E6" s="389" t="inlineStr">
+      <c r="E6" s="369" t="inlineStr">
         <is>
           <t>NAT</t>
         </is>
       </c>
-      <c r="F6" s="389" t="inlineStr">
+      <c r="F6" s="369" t="inlineStr">
         <is>
           <t>Car Sponsors</t>
         </is>
       </c>
-      <c r="G6" s="389" t="inlineStr">
+      <c r="G6" s="369" t="inlineStr">
         <is>
           <t>Car Make/Model</t>
         </is>
       </c>
-      <c r="H6" s="390" t="inlineStr">
+      <c r="H6" s="370" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
@@ -8300,27 +8634,27 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="L6" s="339" t="inlineStr">
+      <c r="L6" s="323" t="inlineStr">
         <is>
           <t>Admin Chk</t>
         </is>
       </c>
-      <c r="M6" s="340" t="inlineStr">
+      <c r="M6" s="324" t="inlineStr">
         <is>
           <t>Driver Chk</t>
         </is>
       </c>
-      <c r="N6" s="340" t="inlineStr">
+      <c r="N6" s="324" t="inlineStr">
         <is>
           <t>Technical</t>
         </is>
       </c>
-      <c r="O6" s="340" t="inlineStr">
+      <c r="O6" s="324" t="inlineStr">
         <is>
           <t>Dr 1 Gear</t>
         </is>
       </c>
-      <c r="P6" s="341" t="inlineStr">
+      <c r="P6" s="325" t="inlineStr">
         <is>
           <t>Dr1 Weight</t>
         </is>
@@ -8379,87 +8713,87 @@
       <c r="BP6" s="26" t="n"/>
     </row>
     <row r="7" ht="46.75" customFormat="1" customHeight="1" s="25" thickTop="1">
-      <c r="A7" s="515" t="inlineStr">
+      <c r="A7" s="477" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B7" s="478" t="n">
+      <c r="B7" s="440" t="n">
         <v>80</v>
       </c>
-      <c r="C7" s="479" t="inlineStr">
+      <c r="C7" s="441" t="inlineStr">
         <is>
           <t>VG Racing</t>
         </is>
       </c>
-      <c r="D7" s="480" t="inlineStr">
+      <c r="D7" s="442" t="inlineStr">
         <is>
           <t>Vladamir Guerrero</t>
         </is>
       </c>
-      <c r="E7" s="479" t="inlineStr">
+      <c r="E7" s="441" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F7" s="479" t="inlineStr">
+      <c r="F7" s="441" t="inlineStr">
         <is>
           <t>Mary Browns Chicken</t>
         </is>
       </c>
-      <c r="G7" s="479" t="inlineStr">
+      <c r="G7" s="441" t="inlineStr">
         <is>
           <t>Acura Integra</t>
         </is>
       </c>
-      <c r="H7" s="481" t="inlineStr">
+      <c r="H7" s="443" t="inlineStr">
         <is>
           <t>TCX</t>
         </is>
       </c>
-      <c r="L7" s="342" t="n"/>
-      <c r="M7" s="343" t="n"/>
-      <c r="N7" s="344" t="n"/>
-      <c r="O7" s="344" t="n"/>
-      <c r="P7" s="345" t="n"/>
+      <c r="L7" s="326" t="n"/>
+      <c r="M7" s="327" t="n"/>
+      <c r="N7" s="328" t="n"/>
+      <c r="O7" s="328" t="n"/>
+      <c r="P7" s="329" t="n"/>
       <c r="Q7" s="85" t="n"/>
       <c r="R7" s="85" t="n"/>
     </row>
     <row r="8" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A8" s="516" t="inlineStr">
+      <c r="A8" s="478" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B8" s="482" t="n">
+      <c r="B8" s="444" t="n">
         <v>789</v>
       </c>
-      <c r="C8" s="482" t="inlineStr">
+      <c r="C8" s="444" t="inlineStr">
         <is>
           <t>DXDT Racing</t>
         </is>
       </c>
-      <c r="D8" s="482" t="inlineStr">
+      <c r="D8" s="444" t="inlineStr">
         <is>
           <t>Aaron Kaplan</t>
         </is>
       </c>
-      <c r="E8" s="482" t="inlineStr">
+      <c r="E8" s="444" t="inlineStr">
         <is>
           <t>ABW</t>
         </is>
       </c>
-      <c r="F8" s="482" t="inlineStr">
+      <c r="F8" s="444" t="inlineStr">
         <is>
           <t>TEST</t>
         </is>
       </c>
-      <c r="G8" s="482" t="inlineStr">
+      <c r="G8" s="444" t="inlineStr">
         <is>
           <t>acuraIntegraTypeS</t>
         </is>
       </c>
-      <c r="H8" s="483" t="inlineStr">
+      <c r="H8" s="445" t="inlineStr">
         <is>
           <t>TCX</t>
         </is>
@@ -8467,11 +8801,11 @@
       <c r="I8" s="25" t="n"/>
       <c r="J8" s="25" t="n"/>
       <c r="K8" s="25" t="n"/>
-      <c r="L8" s="346" t="n"/>
+      <c r="L8" s="330" t="n"/>
       <c r="M8" s="99" t="n"/>
       <c r="N8" s="55" t="n"/>
       <c r="O8" s="55" t="n"/>
-      <c r="P8" s="347" t="n"/>
+      <c r="P8" s="331" t="n"/>
       <c r="Q8" s="85" t="n"/>
       <c r="R8" s="85" t="n"/>
       <c r="S8" s="25" t="n"/>
@@ -8526,50 +8860,50 @@
       <c r="BP8" s="26" t="n"/>
     </row>
     <row r="9" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A9" s="517" t="inlineStr">
+      <c r="A9" s="479" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B9" s="484" t="n">
+      <c r="B9" s="446" t="n">
         <v>50</v>
       </c>
-      <c r="C9" s="485" t="inlineStr">
+      <c r="C9" s="447" t="inlineStr">
         <is>
           <t>Bo Racing</t>
         </is>
       </c>
-      <c r="D9" s="486" t="inlineStr">
+      <c r="D9" s="448" t="inlineStr">
         <is>
           <t>Bo Bichette</t>
         </is>
       </c>
-      <c r="E9" s="485" t="inlineStr">
+      <c r="E9" s="447" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F9" s="485" t="inlineStr"/>
-      <c r="G9" s="485" t="inlineStr">
+      <c r="F9" s="447" t="inlineStr"/>
+      <c r="G9" s="447" t="inlineStr">
         <is>
           <t>Mazda 3</t>
         </is>
       </c>
-      <c r="H9" s="487" t="inlineStr">
+      <c r="H9" s="449" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
       </c>
-      <c r="I9" s="349" t="n"/>
-      <c r="J9" s="350" t="n"/>
-      <c r="K9" s="349" t="n"/>
-      <c r="L9" s="351" t="n"/>
-      <c r="M9" s="348" t="n"/>
-      <c r="N9" s="348" t="n"/>
-      <c r="O9" s="348" t="n"/>
-      <c r="P9" s="352" t="n"/>
-      <c r="Q9" s="349" t="n"/>
-      <c r="R9" s="350" t="n"/>
+      <c r="I9" s="333" t="n"/>
+      <c r="J9" s="334" t="n"/>
+      <c r="K9" s="333" t="n"/>
+      <c r="L9" s="335" t="n"/>
+      <c r="M9" s="332" t="n"/>
+      <c r="N9" s="332" t="n"/>
+      <c r="O9" s="332" t="n"/>
+      <c r="P9" s="336" t="n"/>
+      <c r="Q9" s="333" t="n"/>
+      <c r="R9" s="334" t="n"/>
       <c r="S9" s="25" t="n"/>
       <c r="T9" s="25" t="n"/>
       <c r="U9" s="25" t="n"/>
@@ -8622,36 +8956,36 @@
       <c r="BP9" s="26" t="n"/>
     </row>
     <row r="10" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A10" s="517" t="inlineStr">
+      <c r="A10" s="479" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B10" s="484" t="n">
+      <c r="B10" s="446" t="n">
         <v>56</v>
       </c>
-      <c r="C10" s="485" t="inlineStr">
+      <c r="C10" s="447" t="inlineStr">
         <is>
           <t>Blue Jays Racing</t>
         </is>
       </c>
-      <c r="D10" s="486" t="inlineStr">
+      <c r="D10" s="448" t="inlineStr">
         <is>
           <t>Roy Halladay</t>
         </is>
       </c>
-      <c r="E10" s="486" t="inlineStr">
+      <c r="E10" s="448" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F10" s="488" t="inlineStr"/>
-      <c r="G10" s="488" t="inlineStr">
+      <c r="F10" s="450" t="inlineStr"/>
+      <c r="G10" s="450" t="inlineStr">
         <is>
           <t>Honda Civic Type-R TC</t>
         </is>
       </c>
-      <c r="H10" s="487" t="inlineStr">
+      <c r="H10" s="449" t="inlineStr">
         <is>
           <t>TC</t>
         </is>
@@ -8659,11 +8993,11 @@
       <c r="I10" s="25" t="n"/>
       <c r="J10" s="25" t="n"/>
       <c r="K10" s="25" t="n"/>
-      <c r="L10" s="346" t="n"/>
+      <c r="L10" s="330" t="n"/>
       <c r="M10" s="99" t="n"/>
       <c r="N10" s="55" t="n"/>
       <c r="O10" s="55" t="n"/>
-      <c r="P10" s="347" t="n"/>
+      <c r="P10" s="331" t="n"/>
       <c r="Q10" s="85" t="n"/>
       <c r="R10" s="85" t="n"/>
       <c r="S10" s="25" t="n"/>
@@ -8718,40 +9052,40 @@
       <c r="BP10" s="26" t="n"/>
     </row>
     <row r="11" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A11" s="517" t="inlineStr">
+      <c r="A11" s="479" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B11" s="489" t="n">
+      <c r="B11" s="451" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="485" t="inlineStr">
+      <c r="C11" s="447" t="inlineStr">
         <is>
           <t>Lone Star Racing</t>
         </is>
       </c>
-      <c r="D11" s="486" t="inlineStr">
+      <c r="D11" s="448" t="inlineStr">
         <is>
           <t>Juan Pablo Martinez</t>
         </is>
       </c>
-      <c r="E11" s="485" t="inlineStr">
+      <c r="E11" s="447" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F11" s="485" t="inlineStr">
+      <c r="F11" s="447" t="inlineStr">
         <is>
           <t>sponsor - test, Im still testing this janky backend</t>
         </is>
       </c>
-      <c r="G11" s="488" t="inlineStr">
+      <c r="G11" s="450" t="inlineStr">
         <is>
           <t>subaruBrz</t>
         </is>
       </c>
-      <c r="H11" s="487" t="inlineStr">
+      <c r="H11" s="449" t="inlineStr">
         <is>
           <t>TCA</t>
         </is>
@@ -8759,11 +9093,11 @@
       <c r="I11" s="25" t="n"/>
       <c r="J11" s="25" t="n"/>
       <c r="K11" s="25" t="n"/>
-      <c r="L11" s="346" t="n"/>
+      <c r="L11" s="330" t="n"/>
       <c r="M11" s="99" t="n"/>
       <c r="N11" s="55" t="n"/>
       <c r="O11" s="55" t="n"/>
-      <c r="P11" s="347" t="n"/>
+      <c r="P11" s="331" t="n"/>
       <c r="Q11" s="85" t="n"/>
       <c r="R11" s="85" t="n"/>
       <c r="S11" s="25" t="n"/>
@@ -8818,40 +9152,40 @@
       <c r="BP11" s="26" t="n"/>
     </row>
     <row r="12" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A12" s="516" t="inlineStr">
+      <c r="A12" s="478" t="inlineStr">
         <is>
           <t>TC America</t>
         </is>
       </c>
-      <c r="B12" s="490" t="n">
+      <c r="B12" s="452" t="n">
         <v>9</v>
       </c>
-      <c r="C12" s="490" t="inlineStr">
+      <c r="C12" s="452" t="inlineStr">
         <is>
           <t>Skip Barber Racing</t>
         </is>
       </c>
-      <c r="D12" s="490" t="inlineStr">
+      <c r="D12" s="452" t="inlineStr">
         <is>
           <t>Matt Chapman</t>
         </is>
       </c>
-      <c r="E12" s="490" t="inlineStr">
+      <c r="E12" s="452" t="inlineStr">
         <is>
           <t>USA</t>
         </is>
       </c>
-      <c r="F12" s="490" t="inlineStr">
+      <c r="F12" s="452" t="inlineStr">
         <is>
           <t>Mustaches, BioSteel</t>
         </is>
       </c>
-      <c r="G12" s="490" t="inlineStr">
+      <c r="G12" s="452" t="inlineStr">
         <is>
           <t>Honda Civic Si</t>
         </is>
       </c>
-      <c r="H12" s="491" t="inlineStr">
+      <c r="H12" s="453" t="inlineStr">
         <is>
           <t>TCA</t>
         </is>
@@ -8859,11 +9193,11 @@
       <c r="I12" s="25" t="n"/>
       <c r="J12" s="25" t="n"/>
       <c r="K12" s="25" t="n"/>
-      <c r="L12" s="346" t="n"/>
+      <c r="L12" s="330" t="n"/>
       <c r="M12" s="99" t="n"/>
       <c r="N12" s="55" t="n"/>
       <c r="O12" s="55" t="n"/>
-      <c r="P12" s="347" t="n"/>
+      <c r="P12" s="331" t="n"/>
       <c r="Q12" s="25" t="n"/>
       <c r="R12" s="25" t="n"/>
       <c r="S12" s="25" t="n"/>
@@ -8918,22 +9252,22 @@
       <c r="BP12" s="26" t="n"/>
     </row>
     <row r="13" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A13" s="518" t="n"/>
-      <c r="B13" s="492" t="n"/>
-      <c r="C13" s="493" t="n"/>
-      <c r="D13" s="493" t="n"/>
-      <c r="E13" s="493" t="n"/>
-      <c r="F13" s="493" t="n"/>
-      <c r="G13" s="493" t="n"/>
-      <c r="H13" s="494" t="n"/>
+      <c r="A13" s="480" t="n"/>
+      <c r="B13" s="454" t="n"/>
+      <c r="C13" s="455" t="n"/>
+      <c r="D13" s="455" t="n"/>
+      <c r="E13" s="455" t="n"/>
+      <c r="F13" s="455" t="n"/>
+      <c r="G13" s="455" t="n"/>
+      <c r="H13" s="456" t="n"/>
       <c r="I13" s="121" t="n"/>
       <c r="J13" s="121" t="n"/>
       <c r="K13" s="121" t="n"/>
-      <c r="L13" s="346" t="n"/>
+      <c r="L13" s="330" t="n"/>
       <c r="M13" s="99" t="n"/>
       <c r="N13" s="122" t="n"/>
       <c r="O13" s="122" t="n"/>
-      <c r="P13" s="353" t="n"/>
+      <c r="P13" s="337" t="n"/>
       <c r="Q13" s="121" t="n"/>
       <c r="R13" s="121" t="n"/>
       <c r="S13" s="121" t="n"/>
@@ -8988,22 +9322,22 @@
       <c r="BP13" s="123" t="n"/>
     </row>
     <row r="14" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A14" s="516" t="n"/>
-      <c r="B14" s="495" t="n"/>
-      <c r="C14" s="496" t="n"/>
-      <c r="D14" s="496" t="n"/>
-      <c r="E14" s="496" t="n"/>
-      <c r="F14" s="497" t="n"/>
-      <c r="G14" s="495" t="n"/>
-      <c r="H14" s="498" t="n"/>
+      <c r="A14" s="478" t="n"/>
+      <c r="B14" s="457" t="n"/>
+      <c r="C14" s="458" t="n"/>
+      <c r="D14" s="458" t="n"/>
+      <c r="E14" s="458" t="n"/>
+      <c r="F14" s="459" t="n"/>
+      <c r="G14" s="457" t="n"/>
+      <c r="H14" s="460" t="n"/>
       <c r="I14" s="25" t="n"/>
       <c r="J14" s="25" t="n"/>
       <c r="K14" s="25" t="n"/>
-      <c r="L14" s="346" t="n"/>
+      <c r="L14" s="330" t="n"/>
       <c r="M14" s="99" t="n"/>
       <c r="N14" s="55" t="n"/>
       <c r="O14" s="55" t="n"/>
-      <c r="P14" s="347" t="n"/>
+      <c r="P14" s="331" t="n"/>
       <c r="Q14" s="25" t="n"/>
       <c r="R14" s="25" t="n"/>
       <c r="S14" s="25" t="n"/>
@@ -9058,22 +9392,22 @@
       <c r="BP14" s="26" t="n"/>
     </row>
     <row r="15" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A15" s="518" t="n"/>
-      <c r="B15" s="499" t="n"/>
-      <c r="C15" s="500" t="n"/>
-      <c r="D15" s="500" t="n"/>
-      <c r="E15" s="500" t="n"/>
-      <c r="F15" s="501" t="n"/>
-      <c r="G15" s="499" t="n"/>
-      <c r="H15" s="502" t="n"/>
+      <c r="A15" s="480" t="n"/>
+      <c r="B15" s="461" t="n"/>
+      <c r="C15" s="462" t="n"/>
+      <c r="D15" s="462" t="n"/>
+      <c r="E15" s="462" t="n"/>
+      <c r="F15" s="463" t="n"/>
+      <c r="G15" s="461" t="n"/>
+      <c r="H15" s="464" t="n"/>
       <c r="I15" s="121" t="n"/>
       <c r="J15" s="121" t="n"/>
       <c r="K15" s="121" t="n"/>
-      <c r="L15" s="346" t="n"/>
+      <c r="L15" s="330" t="n"/>
       <c r="M15" s="99" t="n"/>
       <c r="N15" s="122" t="n"/>
       <c r="O15" s="122" t="n"/>
-      <c r="P15" s="353" t="n"/>
+      <c r="P15" s="337" t="n"/>
       <c r="Q15" s="121" t="n"/>
       <c r="R15" s="121" t="n"/>
       <c r="S15" s="121" t="n"/>
@@ -9128,19 +9462,19 @@
       <c r="BP15" s="123" t="n"/>
     </row>
     <row r="16" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A16" s="519" t="n"/>
-      <c r="B16" s="503" t="n"/>
-      <c r="C16" s="503" t="n"/>
-      <c r="D16" s="503" t="n"/>
-      <c r="E16" s="503" t="n"/>
-      <c r="F16" s="503" t="n"/>
-      <c r="G16" s="503" t="n"/>
-      <c r="H16" s="504" t="n"/>
+      <c r="A16" s="481" t="n"/>
+      <c r="B16" s="465" t="n"/>
+      <c r="C16" s="465" t="n"/>
+      <c r="D16" s="465" t="n"/>
+      <c r="E16" s="465" t="n"/>
+      <c r="F16" s="465" t="n"/>
+      <c r="G16" s="465" t="n"/>
+      <c r="H16" s="466" t="n"/>
       <c r="I16" s="121" t="n"/>
       <c r="J16" s="121" t="n"/>
       <c r="K16" s="121" t="n"/>
-      <c r="L16" s="354" t="n"/>
-      <c r="P16" s="355" t="n"/>
+      <c r="L16" s="338" t="n"/>
+      <c r="P16" s="339" t="n"/>
       <c r="Q16" s="121" t="n"/>
       <c r="R16" s="121" t="n"/>
       <c r="S16" s="121" t="n"/>
@@ -9195,19 +9529,19 @@
       <c r="BP16" s="123" t="n"/>
     </row>
     <row r="17" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A17" s="520" t="n"/>
-      <c r="B17" s="499" t="n"/>
-      <c r="C17" s="500" t="n"/>
-      <c r="D17" s="500" t="n"/>
-      <c r="E17" s="500" t="n"/>
-      <c r="F17" s="501" t="n"/>
-      <c r="G17" s="499" t="n"/>
-      <c r="H17" s="502" t="n"/>
+      <c r="A17" s="482" t="n"/>
+      <c r="B17" s="461" t="n"/>
+      <c r="C17" s="462" t="n"/>
+      <c r="D17" s="462" t="n"/>
+      <c r="E17" s="462" t="n"/>
+      <c r="F17" s="463" t="n"/>
+      <c r="G17" s="461" t="n"/>
+      <c r="H17" s="464" t="n"/>
       <c r="I17" s="121" t="n"/>
       <c r="J17" s="121" t="n"/>
       <c r="K17" s="121" t="n"/>
-      <c r="L17" s="354" t="n"/>
-      <c r="P17" s="355" t="n"/>
+      <c r="L17" s="338" t="n"/>
+      <c r="P17" s="339" t="n"/>
       <c r="Q17" s="121" t="n"/>
       <c r="R17" s="121" t="n"/>
       <c r="S17" s="121" t="n"/>
@@ -9262,19 +9596,19 @@
       <c r="BP17" s="123" t="n"/>
     </row>
     <row r="18" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A18" s="516" t="n"/>
-      <c r="B18" s="490" t="n"/>
-      <c r="C18" s="490" t="n"/>
-      <c r="D18" s="490" t="n"/>
-      <c r="E18" s="490" t="n"/>
-      <c r="F18" s="490" t="n"/>
-      <c r="G18" s="490" t="n"/>
-      <c r="H18" s="491" t="n"/>
+      <c r="A18" s="478" t="n"/>
+      <c r="B18" s="452" t="n"/>
+      <c r="C18" s="452" t="n"/>
+      <c r="D18" s="452" t="n"/>
+      <c r="E18" s="452" t="n"/>
+      <c r="F18" s="452" t="n"/>
+      <c r="G18" s="452" t="n"/>
+      <c r="H18" s="453" t="n"/>
       <c r="I18" s="25" t="n"/>
       <c r="J18" s="25" t="n"/>
       <c r="K18" s="25" t="n"/>
-      <c r="L18" s="356" t="n"/>
-      <c r="P18" s="357" t="n"/>
+      <c r="L18" s="340" t="n"/>
+      <c r="P18" s="341" t="n"/>
       <c r="Q18" s="25" t="n"/>
       <c r="R18" s="25" t="n"/>
       <c r="S18" s="25" t="n"/>
@@ -9329,19 +9663,19 @@
       <c r="BP18" s="26" t="n"/>
     </row>
     <row r="19" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A19" s="516" t="n"/>
-      <c r="B19" s="490" t="n"/>
-      <c r="C19" s="490" t="n"/>
-      <c r="D19" s="490" t="n"/>
-      <c r="E19" s="490" t="n"/>
-      <c r="F19" s="490" t="n"/>
-      <c r="G19" s="490" t="n"/>
-      <c r="H19" s="491" t="n"/>
+      <c r="A19" s="478" t="n"/>
+      <c r="B19" s="452" t="n"/>
+      <c r="C19" s="452" t="n"/>
+      <c r="D19" s="452" t="n"/>
+      <c r="E19" s="452" t="n"/>
+      <c r="F19" s="452" t="n"/>
+      <c r="G19" s="452" t="n"/>
+      <c r="H19" s="453" t="n"/>
       <c r="I19" s="25" t="n"/>
       <c r="J19" s="25" t="n"/>
       <c r="K19" s="25" t="n"/>
-      <c r="L19" s="356" t="n"/>
-      <c r="P19" s="357" t="n"/>
+      <c r="L19" s="340" t="n"/>
+      <c r="P19" s="341" t="n"/>
       <c r="Q19" s="25" t="n"/>
       <c r="R19" s="25" t="n"/>
       <c r="S19" s="25" t="n"/>
@@ -9396,19 +9730,19 @@
       <c r="BP19" s="26" t="n"/>
     </row>
     <row r="20" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A20" s="516" t="n"/>
-      <c r="B20" s="490" t="n"/>
-      <c r="C20" s="490" t="n"/>
-      <c r="D20" s="490" t="n"/>
-      <c r="E20" s="490" t="n"/>
-      <c r="F20" s="490" t="n"/>
-      <c r="G20" s="490" t="n"/>
-      <c r="H20" s="491" t="n"/>
+      <c r="A20" s="478" t="n"/>
+      <c r="B20" s="452" t="n"/>
+      <c r="C20" s="452" t="n"/>
+      <c r="D20" s="452" t="n"/>
+      <c r="E20" s="452" t="n"/>
+      <c r="F20" s="452" t="n"/>
+      <c r="G20" s="452" t="n"/>
+      <c r="H20" s="453" t="n"/>
       <c r="I20" s="25" t="n"/>
       <c r="J20" s="25" t="n"/>
       <c r="K20" s="25" t="n"/>
-      <c r="L20" s="356" t="n"/>
-      <c r="P20" s="357" t="n"/>
+      <c r="L20" s="340" t="n"/>
+      <c r="P20" s="341" t="n"/>
       <c r="Q20" s="25" t="n"/>
       <c r="R20" s="25" t="n"/>
       <c r="S20" s="25" t="n"/>
@@ -9463,19 +9797,19 @@
       <c r="BP20" s="26" t="n"/>
     </row>
     <row r="21" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A21" s="518" t="n"/>
-      <c r="B21" s="505" t="n"/>
-      <c r="C21" s="506" t="n"/>
-      <c r="D21" s="507" t="n"/>
-      <c r="E21" s="507" t="n"/>
-      <c r="F21" s="506" t="n"/>
-      <c r="G21" s="505" t="n"/>
-      <c r="H21" s="508" t="n"/>
+      <c r="A21" s="480" t="n"/>
+      <c r="B21" s="467" t="n"/>
+      <c r="C21" s="468" t="n"/>
+      <c r="D21" s="469" t="n"/>
+      <c r="E21" s="469" t="n"/>
+      <c r="F21" s="468" t="n"/>
+      <c r="G21" s="467" t="n"/>
+      <c r="H21" s="470" t="n"/>
       <c r="I21" s="25" t="n"/>
       <c r="J21" s="25" t="n"/>
       <c r="K21" s="25" t="n"/>
-      <c r="L21" s="356" t="n"/>
-      <c r="P21" s="357" t="n"/>
+      <c r="L21" s="340" t="n"/>
+      <c r="P21" s="341" t="n"/>
       <c r="Q21" s="25" t="n"/>
       <c r="R21" s="25" t="n"/>
       <c r="S21" s="25" t="n"/>
@@ -9530,19 +9864,19 @@
       <c r="BP21" s="26" t="n"/>
     </row>
     <row r="22" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A22" s="518" t="n"/>
-      <c r="B22" s="490" t="n"/>
-      <c r="C22" s="490" t="n"/>
-      <c r="D22" s="490" t="n"/>
-      <c r="E22" s="490" t="n"/>
-      <c r="F22" s="490" t="n"/>
-      <c r="G22" s="490" t="n"/>
-      <c r="H22" s="491" t="n"/>
+      <c r="A22" s="480" t="n"/>
+      <c r="B22" s="452" t="n"/>
+      <c r="C22" s="452" t="n"/>
+      <c r="D22" s="452" t="n"/>
+      <c r="E22" s="452" t="n"/>
+      <c r="F22" s="452" t="n"/>
+      <c r="G22" s="452" t="n"/>
+      <c r="H22" s="453" t="n"/>
       <c r="I22" s="25" t="n"/>
       <c r="J22" s="25" t="n"/>
       <c r="K22" s="25" t="n"/>
-      <c r="L22" s="356" t="n"/>
-      <c r="P22" s="357" t="n"/>
+      <c r="L22" s="340" t="n"/>
+      <c r="P22" s="341" t="n"/>
       <c r="Q22" s="25" t="n"/>
       <c r="R22" s="25" t="n"/>
       <c r="S22" s="25" t="n"/>
@@ -9597,19 +9931,19 @@
       <c r="BP22" s="26" t="n"/>
     </row>
     <row r="23" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A23" s="516" t="n"/>
-      <c r="B23" s="495" t="n"/>
-      <c r="C23" s="497" t="n"/>
-      <c r="D23" s="496" t="n"/>
-      <c r="E23" s="496" t="n"/>
-      <c r="F23" s="497" t="n"/>
-      <c r="G23" s="495" t="n"/>
-      <c r="H23" s="498" t="n"/>
+      <c r="A23" s="478" t="n"/>
+      <c r="B23" s="457" t="n"/>
+      <c r="C23" s="459" t="n"/>
+      <c r="D23" s="458" t="n"/>
+      <c r="E23" s="458" t="n"/>
+      <c r="F23" s="459" t="n"/>
+      <c r="G23" s="457" t="n"/>
+      <c r="H23" s="460" t="n"/>
       <c r="I23" s="25" t="n"/>
       <c r="J23" s="25" t="n"/>
       <c r="K23" s="25" t="n"/>
-      <c r="L23" s="356" t="n"/>
-      <c r="P23" s="357" t="n"/>
+      <c r="L23" s="340" t="n"/>
+      <c r="P23" s="341" t="n"/>
       <c r="Q23" s="25" t="n"/>
       <c r="R23" s="25" t="n"/>
       <c r="S23" s="25" t="n"/>
@@ -9664,19 +9998,19 @@
       <c r="BP23" s="26" t="n"/>
     </row>
     <row r="24" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A24" s="518" t="n"/>
-      <c r="B24" s="509" t="n"/>
-      <c r="C24" s="509" t="n"/>
-      <c r="D24" s="509" t="n"/>
-      <c r="E24" s="509" t="n"/>
-      <c r="F24" s="509" t="n"/>
-      <c r="G24" s="509" t="n"/>
-      <c r="H24" s="510" t="n"/>
+      <c r="A24" s="480" t="n"/>
+      <c r="B24" s="471" t="n"/>
+      <c r="C24" s="471" t="n"/>
+      <c r="D24" s="471" t="n"/>
+      <c r="E24" s="471" t="n"/>
+      <c r="F24" s="471" t="n"/>
+      <c r="G24" s="471" t="n"/>
+      <c r="H24" s="472" t="n"/>
       <c r="I24" s="121" t="n"/>
       <c r="J24" s="121" t="n"/>
       <c r="K24" s="121" t="n"/>
-      <c r="L24" s="354" t="n"/>
-      <c r="P24" s="355" t="n"/>
+      <c r="L24" s="338" t="n"/>
+      <c r="P24" s="339" t="n"/>
       <c r="Q24" s="121" t="n"/>
       <c r="R24" s="121" t="n"/>
       <c r="S24" s="121" t="n"/>
@@ -9731,19 +10065,19 @@
       <c r="BP24" s="123" t="n"/>
     </row>
     <row r="25" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A25" s="516" t="n"/>
-      <c r="B25" s="490" t="n"/>
-      <c r="C25" s="490" t="n"/>
-      <c r="D25" s="490" t="n"/>
-      <c r="E25" s="490" t="n"/>
-      <c r="F25" s="490" t="n"/>
-      <c r="G25" s="490" t="n"/>
-      <c r="H25" s="491" t="n"/>
+      <c r="A25" s="478" t="n"/>
+      <c r="B25" s="452" t="n"/>
+      <c r="C25" s="452" t="n"/>
+      <c r="D25" s="452" t="n"/>
+      <c r="E25" s="452" t="n"/>
+      <c r="F25" s="452" t="n"/>
+      <c r="G25" s="452" t="n"/>
+      <c r="H25" s="453" t="n"/>
       <c r="I25" s="25" t="n"/>
       <c r="J25" s="25" t="n"/>
       <c r="K25" s="25" t="n"/>
-      <c r="L25" s="356" t="n"/>
-      <c r="P25" s="357" t="n"/>
+      <c r="L25" s="340" t="n"/>
+      <c r="P25" s="341" t="n"/>
       <c r="Q25" s="25" t="n"/>
       <c r="R25" s="25" t="n"/>
       <c r="S25" s="25" t="n"/>
@@ -9797,422 +10131,422 @@
       <c r="BO25" s="25" t="n"/>
       <c r="BP25" s="26" t="n"/>
     </row>
-    <row r="26" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A26" s="516" t="n"/>
-      <c r="B26" s="490" t="n"/>
-      <c r="C26" s="490" t="n"/>
-      <c r="D26" s="490" t="n"/>
-      <c r="E26" s="490" t="n"/>
-      <c r="F26" s="490" t="n"/>
-      <c r="G26" s="490" t="n"/>
-      <c r="H26" s="491" t="n"/>
-      <c r="I26" s="358" t="n"/>
-      <c r="J26" s="358" t="n"/>
-      <c r="K26" s="358" t="n"/>
-      <c r="L26" s="359" t="n"/>
-      <c r="P26" s="361" t="n"/>
-      <c r="Q26" s="358" t="n"/>
-      <c r="R26" s="358" t="n"/>
-      <c r="S26" s="358" t="n"/>
-      <c r="T26" s="358" t="n"/>
-      <c r="U26" s="358" t="n"/>
-      <c r="V26" s="358" t="n"/>
-      <c r="W26" s="358" t="n"/>
-      <c r="X26" s="358" t="n"/>
-      <c r="Y26" s="358" t="n"/>
-      <c r="Z26" s="358" t="n"/>
-      <c r="AA26" s="358" t="n"/>
-      <c r="AB26" s="358" t="n"/>
-      <c r="AC26" s="358" t="n"/>
-      <c r="AD26" s="358" t="n"/>
-      <c r="AE26" s="358" t="n"/>
-      <c r="AF26" s="358" t="n"/>
-      <c r="AG26" s="358" t="n"/>
-      <c r="AH26" s="358" t="n"/>
-      <c r="AI26" s="358" t="n"/>
-      <c r="AJ26" s="358" t="n"/>
-      <c r="AK26" s="358" t="n"/>
-      <c r="AL26" s="358" t="n"/>
-      <c r="AM26" s="358" t="n"/>
-      <c r="AN26" s="358" t="n"/>
-      <c r="AO26" s="358" t="n"/>
-      <c r="AP26" s="358" t="n"/>
-      <c r="AQ26" s="358" t="n"/>
-      <c r="AR26" s="358" t="n"/>
-      <c r="AS26" s="358" t="n"/>
-      <c r="AT26" s="358" t="n"/>
-      <c r="AU26" s="358" t="n"/>
-      <c r="AV26" s="358" t="n"/>
-      <c r="AW26" s="358" t="n"/>
-      <c r="AX26" s="358" t="n"/>
-      <c r="AY26" s="358" t="n"/>
-      <c r="AZ26" s="358" t="n"/>
-      <c r="BA26" s="358" t="n"/>
-      <c r="BB26" s="358" t="n"/>
-      <c r="BC26" s="358" t="n"/>
-      <c r="BD26" s="358" t="n"/>
-      <c r="BE26" s="358" t="n"/>
-      <c r="BF26" s="358" t="n"/>
-      <c r="BG26" s="358" t="n"/>
-      <c r="BH26" s="358" t="n"/>
-      <c r="BI26" s="358" t="n"/>
-      <c r="BJ26" s="358" t="n"/>
-      <c r="BK26" s="358" t="n"/>
-      <c r="BL26" s="358" t="n"/>
-      <c r="BM26" s="358" t="n"/>
-      <c r="BN26" s="358" t="n"/>
-      <c r="BO26" s="358" t="n"/>
-      <c r="BP26" s="362" t="n"/>
-    </row>
-    <row r="27" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A27" s="521" t="n"/>
-      <c r="B27" s="495" t="n"/>
-      <c r="C27" s="496" t="n"/>
-      <c r="D27" s="496" t="n"/>
-      <c r="E27" s="496" t="n"/>
-      <c r="F27" s="497" t="n"/>
-      <c r="G27" s="495" t="n"/>
-      <c r="H27" s="498" t="n"/>
-      <c r="I27" s="358" t="n"/>
-      <c r="J27" s="358" t="n"/>
-      <c r="K27" s="358" t="n"/>
-      <c r="L27" s="359" t="n"/>
-      <c r="P27" s="361" t="n"/>
-      <c r="Q27" s="358" t="n"/>
-      <c r="R27" s="358" t="n"/>
-      <c r="S27" s="358" t="n"/>
-      <c r="T27" s="358" t="n"/>
-      <c r="U27" s="358" t="n"/>
-      <c r="V27" s="358" t="n"/>
-      <c r="W27" s="358" t="n"/>
-      <c r="X27" s="358" t="n"/>
-      <c r="Y27" s="358" t="n"/>
-      <c r="Z27" s="358" t="n"/>
-      <c r="AA27" s="358" t="n"/>
-      <c r="AB27" s="358" t="n"/>
-      <c r="AC27" s="358" t="n"/>
-      <c r="AD27" s="358" t="n"/>
-      <c r="AE27" s="358" t="n"/>
-      <c r="AF27" s="358" t="n"/>
-      <c r="AG27" s="358" t="n"/>
-      <c r="AH27" s="358" t="n"/>
-      <c r="AI27" s="358" t="n"/>
-      <c r="AJ27" s="358" t="n"/>
-      <c r="AK27" s="358" t="n"/>
-      <c r="AL27" s="358" t="n"/>
-      <c r="AM27" s="358" t="n"/>
-      <c r="AN27" s="358" t="n"/>
-      <c r="AO27" s="358" t="n"/>
-      <c r="AP27" s="358" t="n"/>
-      <c r="AQ27" s="358" t="n"/>
-      <c r="AR27" s="358" t="n"/>
-      <c r="AS27" s="358" t="n"/>
-      <c r="AT27" s="358" t="n"/>
-      <c r="AU27" s="358" t="n"/>
-      <c r="AV27" s="358" t="n"/>
-      <c r="AW27" s="358" t="n"/>
-      <c r="AX27" s="358" t="n"/>
-      <c r="AY27" s="358" t="n"/>
-      <c r="AZ27" s="358" t="n"/>
-      <c r="BA27" s="358" t="n"/>
-      <c r="BB27" s="358" t="n"/>
-      <c r="BC27" s="358" t="n"/>
-      <c r="BD27" s="358" t="n"/>
-      <c r="BE27" s="358" t="n"/>
-      <c r="BF27" s="358" t="n"/>
-      <c r="BG27" s="358" t="n"/>
-      <c r="BH27" s="358" t="n"/>
-      <c r="BI27" s="358" t="n"/>
-      <c r="BJ27" s="358" t="n"/>
-      <c r="BK27" s="358" t="n"/>
-      <c r="BL27" s="358" t="n"/>
-      <c r="BM27" s="358" t="n"/>
-      <c r="BN27" s="358" t="n"/>
-      <c r="BO27" s="358" t="n"/>
-      <c r="BP27" s="362" t="n"/>
-    </row>
-    <row r="28" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A28" s="522" t="n"/>
-      <c r="B28" s="495" t="n"/>
-      <c r="C28" s="496" t="n"/>
-      <c r="D28" s="496" t="n"/>
-      <c r="E28" s="496" t="n"/>
-      <c r="F28" s="497" t="n"/>
-      <c r="G28" s="495" t="n"/>
-      <c r="H28" s="498" t="n"/>
-      <c r="I28" s="358" t="n"/>
-      <c r="J28" s="358" t="n"/>
-      <c r="K28" s="358" t="n"/>
-      <c r="L28" s="359" t="n"/>
-      <c r="P28" s="361" t="n"/>
-      <c r="Q28" s="358" t="n"/>
-      <c r="R28" s="358" t="n"/>
-      <c r="S28" s="358" t="n"/>
-      <c r="T28" s="358" t="n"/>
-      <c r="U28" s="358" t="n"/>
-      <c r="V28" s="358" t="n"/>
-      <c r="W28" s="358" t="n"/>
-      <c r="X28" s="358" t="n"/>
-      <c r="Y28" s="358" t="n"/>
-      <c r="Z28" s="358" t="n"/>
-      <c r="AA28" s="358" t="n"/>
-      <c r="AB28" s="358" t="n"/>
-      <c r="AC28" s="358" t="n"/>
-      <c r="AD28" s="358" t="n"/>
-      <c r="AE28" s="358" t="n"/>
-      <c r="AF28" s="358" t="n"/>
-      <c r="AG28" s="358" t="n"/>
-      <c r="AH28" s="358" t="n"/>
-      <c r="AI28" s="358" t="n"/>
-      <c r="AJ28" s="358" t="n"/>
-      <c r="AK28" s="358" t="n"/>
-      <c r="AL28" s="358" t="n"/>
-      <c r="AM28" s="358" t="n"/>
-      <c r="AN28" s="358" t="n"/>
-      <c r="AO28" s="358" t="n"/>
-      <c r="AP28" s="358" t="n"/>
-      <c r="AQ28" s="358" t="n"/>
-      <c r="AR28" s="358" t="n"/>
-      <c r="AS28" s="358" t="n"/>
-      <c r="AT28" s="358" t="n"/>
-      <c r="AU28" s="358" t="n"/>
-      <c r="AV28" s="358" t="n"/>
-      <c r="AW28" s="358" t="n"/>
-      <c r="AX28" s="358" t="n"/>
-      <c r="AY28" s="358" t="n"/>
-      <c r="AZ28" s="358" t="n"/>
-      <c r="BA28" s="358" t="n"/>
-      <c r="BB28" s="358" t="n"/>
-      <c r="BC28" s="358" t="n"/>
-      <c r="BD28" s="358" t="n"/>
-      <c r="BE28" s="358" t="n"/>
-      <c r="BF28" s="358" t="n"/>
-      <c r="BG28" s="358" t="n"/>
-      <c r="BH28" s="358" t="n"/>
-      <c r="BI28" s="358" t="n"/>
-      <c r="BJ28" s="358" t="n"/>
-      <c r="BK28" s="358" t="n"/>
-      <c r="BL28" s="358" t="n"/>
-      <c r="BM28" s="358" t="n"/>
-      <c r="BN28" s="358" t="n"/>
-      <c r="BO28" s="358" t="n"/>
-      <c r="BP28" s="362" t="n"/>
-    </row>
-    <row r="29" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A29" s="522" t="n"/>
-      <c r="B29" s="495" t="n"/>
-      <c r="C29" s="496" t="n"/>
-      <c r="D29" s="496" t="n"/>
-      <c r="E29" s="496" t="n"/>
-      <c r="F29" s="497" t="n"/>
-      <c r="G29" s="495" t="n"/>
-      <c r="H29" s="498" t="n"/>
-      <c r="I29" s="358" t="n"/>
-      <c r="J29" s="358" t="n"/>
-      <c r="K29" s="358" t="n"/>
-      <c r="L29" s="359" t="n"/>
-      <c r="P29" s="361" t="n"/>
-      <c r="Q29" s="358" t="n"/>
-      <c r="R29" s="358" t="n"/>
-      <c r="S29" s="358" t="n"/>
-      <c r="T29" s="358" t="n"/>
-      <c r="U29" s="358" t="n"/>
-      <c r="V29" s="358" t="n"/>
-      <c r="W29" s="358" t="n"/>
-      <c r="X29" s="358" t="n"/>
-      <c r="Y29" s="358" t="n"/>
-      <c r="Z29" s="358" t="n"/>
-      <c r="AA29" s="358" t="n"/>
-      <c r="AB29" s="358" t="n"/>
-      <c r="AC29" s="358" t="n"/>
-      <c r="AD29" s="358" t="n"/>
-      <c r="AE29" s="358" t="n"/>
-      <c r="AF29" s="358" t="n"/>
-      <c r="AG29" s="358" t="n"/>
-      <c r="AH29" s="358" t="n"/>
-      <c r="AI29" s="358" t="n"/>
-      <c r="AJ29" s="358" t="n"/>
-      <c r="AK29" s="358" t="n"/>
-      <c r="AL29" s="358" t="n"/>
-      <c r="AM29" s="358" t="n"/>
-      <c r="AN29" s="358" t="n"/>
-      <c r="AO29" s="358" t="n"/>
-      <c r="AP29" s="358" t="n"/>
-      <c r="AQ29" s="358" t="n"/>
-      <c r="AR29" s="358" t="n"/>
-      <c r="AS29" s="358" t="n"/>
-      <c r="AT29" s="358" t="n"/>
-      <c r="AU29" s="358" t="n"/>
-      <c r="AV29" s="358" t="n"/>
-      <c r="AW29" s="358" t="n"/>
-      <c r="AX29" s="358" t="n"/>
-      <c r="AY29" s="358" t="n"/>
-      <c r="AZ29" s="358" t="n"/>
-      <c r="BA29" s="358" t="n"/>
-      <c r="BB29" s="358" t="n"/>
-      <c r="BC29" s="358" t="n"/>
-      <c r="BD29" s="358" t="n"/>
-      <c r="BE29" s="358" t="n"/>
-      <c r="BF29" s="358" t="n"/>
-      <c r="BG29" s="358" t="n"/>
-      <c r="BH29" s="358" t="n"/>
-      <c r="BI29" s="358" t="n"/>
-      <c r="BJ29" s="358" t="n"/>
-      <c r="BK29" s="358" t="n"/>
-      <c r="BL29" s="358" t="n"/>
-      <c r="BM29" s="358" t="n"/>
-      <c r="BN29" s="358" t="n"/>
-      <c r="BO29" s="358" t="n"/>
-      <c r="BP29" s="362" t="n"/>
-    </row>
-    <row r="30" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A30" s="522" t="n"/>
-      <c r="B30" s="495" t="n"/>
-      <c r="C30" s="496" t="n"/>
-      <c r="D30" s="496" t="n"/>
-      <c r="E30" s="496" t="n"/>
-      <c r="F30" s="497" t="n"/>
-      <c r="G30" s="495" t="n"/>
-      <c r="H30" s="498" t="n"/>
-      <c r="I30" s="358" t="n"/>
-      <c r="J30" s="358" t="n"/>
-      <c r="K30" s="358" t="n"/>
-      <c r="L30" s="359" t="n"/>
-      <c r="P30" s="361" t="n"/>
-      <c r="Q30" s="358" t="n"/>
-      <c r="R30" s="358" t="n"/>
-      <c r="S30" s="358" t="n"/>
-      <c r="T30" s="358" t="n"/>
-      <c r="U30" s="358" t="n"/>
-      <c r="V30" s="358" t="n"/>
-      <c r="W30" s="358" t="n"/>
-      <c r="X30" s="358" t="n"/>
-      <c r="Y30" s="358" t="n"/>
-      <c r="Z30" s="358" t="n"/>
-      <c r="AA30" s="358" t="n"/>
-      <c r="AB30" s="358" t="n"/>
-      <c r="AC30" s="358" t="n"/>
-      <c r="AD30" s="358" t="n"/>
-      <c r="AE30" s="358" t="n"/>
-      <c r="AF30" s="358" t="n"/>
-      <c r="AG30" s="358" t="n"/>
-      <c r="AH30" s="358" t="n"/>
-      <c r="AI30" s="358" t="n"/>
-      <c r="AJ30" s="358" t="n"/>
-      <c r="AK30" s="358" t="n"/>
-      <c r="AL30" s="358" t="n"/>
-      <c r="AM30" s="358" t="n"/>
-      <c r="AN30" s="358" t="n"/>
-      <c r="AO30" s="358" t="n"/>
-      <c r="AP30" s="358" t="n"/>
-      <c r="AQ30" s="358" t="n"/>
-      <c r="AR30" s="358" t="n"/>
-      <c r="AS30" s="358" t="n"/>
-      <c r="AT30" s="358" t="n"/>
-      <c r="AU30" s="358" t="n"/>
-      <c r="AV30" s="358" t="n"/>
-      <c r="AW30" s="358" t="n"/>
-      <c r="AX30" s="358" t="n"/>
-      <c r="AY30" s="358" t="n"/>
-      <c r="AZ30" s="358" t="n"/>
-      <c r="BA30" s="358" t="n"/>
-      <c r="BB30" s="358" t="n"/>
-      <c r="BC30" s="358" t="n"/>
-      <c r="BD30" s="358" t="n"/>
-      <c r="BE30" s="358" t="n"/>
-      <c r="BF30" s="358" t="n"/>
-      <c r="BG30" s="358" t="n"/>
-      <c r="BH30" s="358" t="n"/>
-      <c r="BI30" s="358" t="n"/>
-      <c r="BJ30" s="358" t="n"/>
-      <c r="BK30" s="358" t="n"/>
-      <c r="BL30" s="358" t="n"/>
-      <c r="BM30" s="358" t="n"/>
-      <c r="BN30" s="358" t="n"/>
-      <c r="BO30" s="358" t="n"/>
-      <c r="BP30" s="362" t="n"/>
-    </row>
-    <row r="31" ht="46.75" customFormat="1" customHeight="1" s="360">
-      <c r="A31" s="522" t="n"/>
-      <c r="B31" s="495" t="n"/>
-      <c r="C31" s="496" t="n"/>
-      <c r="D31" s="496" t="n"/>
-      <c r="E31" s="496" t="n"/>
-      <c r="F31" s="497" t="n"/>
-      <c r="G31" s="495" t="n"/>
-      <c r="H31" s="498" t="n"/>
-      <c r="I31" s="358" t="n"/>
-      <c r="J31" s="358" t="n"/>
-      <c r="K31" s="358" t="n"/>
-      <c r="L31" s="359" t="n"/>
-      <c r="P31" s="361" t="n"/>
-      <c r="Q31" s="358" t="n"/>
-      <c r="R31" s="358" t="n"/>
-      <c r="S31" s="358" t="n"/>
-      <c r="T31" s="358" t="n"/>
-      <c r="U31" s="358" t="n"/>
-      <c r="V31" s="358" t="n"/>
-      <c r="W31" s="358" t="n"/>
-      <c r="X31" s="358" t="n"/>
-      <c r="Y31" s="358" t="n"/>
-      <c r="Z31" s="358" t="n"/>
-      <c r="AA31" s="358" t="n"/>
-      <c r="AB31" s="358" t="n"/>
-      <c r="AC31" s="358" t="n"/>
-      <c r="AD31" s="358" t="n"/>
-      <c r="AE31" s="358" t="n"/>
-      <c r="AF31" s="358" t="n"/>
-      <c r="AG31" s="358" t="n"/>
-      <c r="AH31" s="358" t="n"/>
-      <c r="AI31" s="358" t="n"/>
-      <c r="AJ31" s="358" t="n"/>
-      <c r="AK31" s="358" t="n"/>
-      <c r="AL31" s="358" t="n"/>
-      <c r="AM31" s="358" t="n"/>
-      <c r="AN31" s="358" t="n"/>
-      <c r="AO31" s="358" t="n"/>
-      <c r="AP31" s="358" t="n"/>
-      <c r="AQ31" s="358" t="n"/>
-      <c r="AR31" s="358" t="n"/>
-      <c r="AS31" s="358" t="n"/>
-      <c r="AT31" s="358" t="n"/>
-      <c r="AU31" s="358" t="n"/>
-      <c r="AV31" s="358" t="n"/>
-      <c r="AW31" s="358" t="n"/>
-      <c r="AX31" s="358" t="n"/>
-      <c r="AY31" s="358" t="n"/>
-      <c r="AZ31" s="358" t="n"/>
-      <c r="BA31" s="358" t="n"/>
-      <c r="BB31" s="358" t="n"/>
-      <c r="BC31" s="358" t="n"/>
-      <c r="BD31" s="358" t="n"/>
-      <c r="BE31" s="358" t="n"/>
-      <c r="BF31" s="358" t="n"/>
-      <c r="BG31" s="358" t="n"/>
-      <c r="BH31" s="358" t="n"/>
-      <c r="BI31" s="358" t="n"/>
-      <c r="BJ31" s="358" t="n"/>
-      <c r="BK31" s="358" t="n"/>
-      <c r="BL31" s="358" t="n"/>
-      <c r="BM31" s="358" t="n"/>
-      <c r="BN31" s="358" t="n"/>
-      <c r="BO31" s="358" t="n"/>
-      <c r="BP31" s="362" t="n"/>
+    <row r="26" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A26" s="478" t="n"/>
+      <c r="B26" s="452" t="n"/>
+      <c r="C26" s="452" t="n"/>
+      <c r="D26" s="452" t="n"/>
+      <c r="E26" s="452" t="n"/>
+      <c r="F26" s="452" t="n"/>
+      <c r="G26" s="452" t="n"/>
+      <c r="H26" s="453" t="n"/>
+      <c r="I26" s="342" t="n"/>
+      <c r="J26" s="342" t="n"/>
+      <c r="K26" s="342" t="n"/>
+      <c r="L26" s="343" t="n"/>
+      <c r="P26" s="345" t="n"/>
+      <c r="Q26" s="342" t="n"/>
+      <c r="R26" s="342" t="n"/>
+      <c r="S26" s="342" t="n"/>
+      <c r="T26" s="342" t="n"/>
+      <c r="U26" s="342" t="n"/>
+      <c r="V26" s="342" t="n"/>
+      <c r="W26" s="342" t="n"/>
+      <c r="X26" s="342" t="n"/>
+      <c r="Y26" s="342" t="n"/>
+      <c r="Z26" s="342" t="n"/>
+      <c r="AA26" s="342" t="n"/>
+      <c r="AB26" s="342" t="n"/>
+      <c r="AC26" s="342" t="n"/>
+      <c r="AD26" s="342" t="n"/>
+      <c r="AE26" s="342" t="n"/>
+      <c r="AF26" s="342" t="n"/>
+      <c r="AG26" s="342" t="n"/>
+      <c r="AH26" s="342" t="n"/>
+      <c r="AI26" s="342" t="n"/>
+      <c r="AJ26" s="342" t="n"/>
+      <c r="AK26" s="342" t="n"/>
+      <c r="AL26" s="342" t="n"/>
+      <c r="AM26" s="342" t="n"/>
+      <c r="AN26" s="342" t="n"/>
+      <c r="AO26" s="342" t="n"/>
+      <c r="AP26" s="342" t="n"/>
+      <c r="AQ26" s="342" t="n"/>
+      <c r="AR26" s="342" t="n"/>
+      <c r="AS26" s="342" t="n"/>
+      <c r="AT26" s="342" t="n"/>
+      <c r="AU26" s="342" t="n"/>
+      <c r="AV26" s="342" t="n"/>
+      <c r="AW26" s="342" t="n"/>
+      <c r="AX26" s="342" t="n"/>
+      <c r="AY26" s="342" t="n"/>
+      <c r="AZ26" s="342" t="n"/>
+      <c r="BA26" s="342" t="n"/>
+      <c r="BB26" s="342" t="n"/>
+      <c r="BC26" s="342" t="n"/>
+      <c r="BD26" s="342" t="n"/>
+      <c r="BE26" s="342" t="n"/>
+      <c r="BF26" s="342" t="n"/>
+      <c r="BG26" s="342" t="n"/>
+      <c r="BH26" s="342" t="n"/>
+      <c r="BI26" s="342" t="n"/>
+      <c r="BJ26" s="342" t="n"/>
+      <c r="BK26" s="342" t="n"/>
+      <c r="BL26" s="342" t="n"/>
+      <c r="BM26" s="342" t="n"/>
+      <c r="BN26" s="342" t="n"/>
+      <c r="BO26" s="342" t="n"/>
+      <c r="BP26" s="346" t="n"/>
+    </row>
+    <row r="27" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A27" s="483" t="n"/>
+      <c r="B27" s="457" t="n"/>
+      <c r="C27" s="458" t="n"/>
+      <c r="D27" s="458" t="n"/>
+      <c r="E27" s="458" t="n"/>
+      <c r="F27" s="459" t="n"/>
+      <c r="G27" s="457" t="n"/>
+      <c r="H27" s="460" t="n"/>
+      <c r="I27" s="342" t="n"/>
+      <c r="J27" s="342" t="n"/>
+      <c r="K27" s="342" t="n"/>
+      <c r="L27" s="343" t="n"/>
+      <c r="P27" s="345" t="n"/>
+      <c r="Q27" s="342" t="n"/>
+      <c r="R27" s="342" t="n"/>
+      <c r="S27" s="342" t="n"/>
+      <c r="T27" s="342" t="n"/>
+      <c r="U27" s="342" t="n"/>
+      <c r="V27" s="342" t="n"/>
+      <c r="W27" s="342" t="n"/>
+      <c r="X27" s="342" t="n"/>
+      <c r="Y27" s="342" t="n"/>
+      <c r="Z27" s="342" t="n"/>
+      <c r="AA27" s="342" t="n"/>
+      <c r="AB27" s="342" t="n"/>
+      <c r="AC27" s="342" t="n"/>
+      <c r="AD27" s="342" t="n"/>
+      <c r="AE27" s="342" t="n"/>
+      <c r="AF27" s="342" t="n"/>
+      <c r="AG27" s="342" t="n"/>
+      <c r="AH27" s="342" t="n"/>
+      <c r="AI27" s="342" t="n"/>
+      <c r="AJ27" s="342" t="n"/>
+      <c r="AK27" s="342" t="n"/>
+      <c r="AL27" s="342" t="n"/>
+      <c r="AM27" s="342" t="n"/>
+      <c r="AN27" s="342" t="n"/>
+      <c r="AO27" s="342" t="n"/>
+      <c r="AP27" s="342" t="n"/>
+      <c r="AQ27" s="342" t="n"/>
+      <c r="AR27" s="342" t="n"/>
+      <c r="AS27" s="342" t="n"/>
+      <c r="AT27" s="342" t="n"/>
+      <c r="AU27" s="342" t="n"/>
+      <c r="AV27" s="342" t="n"/>
+      <c r="AW27" s="342" t="n"/>
+      <c r="AX27" s="342" t="n"/>
+      <c r="AY27" s="342" t="n"/>
+      <c r="AZ27" s="342" t="n"/>
+      <c r="BA27" s="342" t="n"/>
+      <c r="BB27" s="342" t="n"/>
+      <c r="BC27" s="342" t="n"/>
+      <c r="BD27" s="342" t="n"/>
+      <c r="BE27" s="342" t="n"/>
+      <c r="BF27" s="342" t="n"/>
+      <c r="BG27" s="342" t="n"/>
+      <c r="BH27" s="342" t="n"/>
+      <c r="BI27" s="342" t="n"/>
+      <c r="BJ27" s="342" t="n"/>
+      <c r="BK27" s="342" t="n"/>
+      <c r="BL27" s="342" t="n"/>
+      <c r="BM27" s="342" t="n"/>
+      <c r="BN27" s="342" t="n"/>
+      <c r="BO27" s="342" t="n"/>
+      <c r="BP27" s="346" t="n"/>
+    </row>
+    <row r="28" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A28" s="484" t="n"/>
+      <c r="B28" s="457" t="n"/>
+      <c r="C28" s="458" t="n"/>
+      <c r="D28" s="458" t="n"/>
+      <c r="E28" s="458" t="n"/>
+      <c r="F28" s="459" t="n"/>
+      <c r="G28" s="457" t="n"/>
+      <c r="H28" s="460" t="n"/>
+      <c r="I28" s="342" t="n"/>
+      <c r="J28" s="342" t="n"/>
+      <c r="K28" s="342" t="n"/>
+      <c r="L28" s="343" t="n"/>
+      <c r="P28" s="345" t="n"/>
+      <c r="Q28" s="342" t="n"/>
+      <c r="R28" s="342" t="n"/>
+      <c r="S28" s="342" t="n"/>
+      <c r="T28" s="342" t="n"/>
+      <c r="U28" s="342" t="n"/>
+      <c r="V28" s="342" t="n"/>
+      <c r="W28" s="342" t="n"/>
+      <c r="X28" s="342" t="n"/>
+      <c r="Y28" s="342" t="n"/>
+      <c r="Z28" s="342" t="n"/>
+      <c r="AA28" s="342" t="n"/>
+      <c r="AB28" s="342" t="n"/>
+      <c r="AC28" s="342" t="n"/>
+      <c r="AD28" s="342" t="n"/>
+      <c r="AE28" s="342" t="n"/>
+      <c r="AF28" s="342" t="n"/>
+      <c r="AG28" s="342" t="n"/>
+      <c r="AH28" s="342" t="n"/>
+      <c r="AI28" s="342" t="n"/>
+      <c r="AJ28" s="342" t="n"/>
+      <c r="AK28" s="342" t="n"/>
+      <c r="AL28" s="342" t="n"/>
+      <c r="AM28" s="342" t="n"/>
+      <c r="AN28" s="342" t="n"/>
+      <c r="AO28" s="342" t="n"/>
+      <c r="AP28" s="342" t="n"/>
+      <c r="AQ28" s="342" t="n"/>
+      <c r="AR28" s="342" t="n"/>
+      <c r="AS28" s="342" t="n"/>
+      <c r="AT28" s="342" t="n"/>
+      <c r="AU28" s="342" t="n"/>
+      <c r="AV28" s="342" t="n"/>
+      <c r="AW28" s="342" t="n"/>
+      <c r="AX28" s="342" t="n"/>
+      <c r="AY28" s="342" t="n"/>
+      <c r="AZ28" s="342" t="n"/>
+      <c r="BA28" s="342" t="n"/>
+      <c r="BB28" s="342" t="n"/>
+      <c r="BC28" s="342" t="n"/>
+      <c r="BD28" s="342" t="n"/>
+      <c r="BE28" s="342" t="n"/>
+      <c r="BF28" s="342" t="n"/>
+      <c r="BG28" s="342" t="n"/>
+      <c r="BH28" s="342" t="n"/>
+      <c r="BI28" s="342" t="n"/>
+      <c r="BJ28" s="342" t="n"/>
+      <c r="BK28" s="342" t="n"/>
+      <c r="BL28" s="342" t="n"/>
+      <c r="BM28" s="342" t="n"/>
+      <c r="BN28" s="342" t="n"/>
+      <c r="BO28" s="342" t="n"/>
+      <c r="BP28" s="346" t="n"/>
+    </row>
+    <row r="29" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A29" s="484" t="n"/>
+      <c r="B29" s="457" t="n"/>
+      <c r="C29" s="458" t="n"/>
+      <c r="D29" s="458" t="n"/>
+      <c r="E29" s="458" t="n"/>
+      <c r="F29" s="459" t="n"/>
+      <c r="G29" s="457" t="n"/>
+      <c r="H29" s="460" t="n"/>
+      <c r="I29" s="342" t="n"/>
+      <c r="J29" s="342" t="n"/>
+      <c r="K29" s="342" t="n"/>
+      <c r="L29" s="343" t="n"/>
+      <c r="P29" s="345" t="n"/>
+      <c r="Q29" s="342" t="n"/>
+      <c r="R29" s="342" t="n"/>
+      <c r="S29" s="342" t="n"/>
+      <c r="T29" s="342" t="n"/>
+      <c r="U29" s="342" t="n"/>
+      <c r="V29" s="342" t="n"/>
+      <c r="W29" s="342" t="n"/>
+      <c r="X29" s="342" t="n"/>
+      <c r="Y29" s="342" t="n"/>
+      <c r="Z29" s="342" t="n"/>
+      <c r="AA29" s="342" t="n"/>
+      <c r="AB29" s="342" t="n"/>
+      <c r="AC29" s="342" t="n"/>
+      <c r="AD29" s="342" t="n"/>
+      <c r="AE29" s="342" t="n"/>
+      <c r="AF29" s="342" t="n"/>
+      <c r="AG29" s="342" t="n"/>
+      <c r="AH29" s="342" t="n"/>
+      <c r="AI29" s="342" t="n"/>
+      <c r="AJ29" s="342" t="n"/>
+      <c r="AK29" s="342" t="n"/>
+      <c r="AL29" s="342" t="n"/>
+      <c r="AM29" s="342" t="n"/>
+      <c r="AN29" s="342" t="n"/>
+      <c r="AO29" s="342" t="n"/>
+      <c r="AP29" s="342" t="n"/>
+      <c r="AQ29" s="342" t="n"/>
+      <c r="AR29" s="342" t="n"/>
+      <c r="AS29" s="342" t="n"/>
+      <c r="AT29" s="342" t="n"/>
+      <c r="AU29" s="342" t="n"/>
+      <c r="AV29" s="342" t="n"/>
+      <c r="AW29" s="342" t="n"/>
+      <c r="AX29" s="342" t="n"/>
+      <c r="AY29" s="342" t="n"/>
+      <c r="AZ29" s="342" t="n"/>
+      <c r="BA29" s="342" t="n"/>
+      <c r="BB29" s="342" t="n"/>
+      <c r="BC29" s="342" t="n"/>
+      <c r="BD29" s="342" t="n"/>
+      <c r="BE29" s="342" t="n"/>
+      <c r="BF29" s="342" t="n"/>
+      <c r="BG29" s="342" t="n"/>
+      <c r="BH29" s="342" t="n"/>
+      <c r="BI29" s="342" t="n"/>
+      <c r="BJ29" s="342" t="n"/>
+      <c r="BK29" s="342" t="n"/>
+      <c r="BL29" s="342" t="n"/>
+      <c r="BM29" s="342" t="n"/>
+      <c r="BN29" s="342" t="n"/>
+      <c r="BO29" s="342" t="n"/>
+      <c r="BP29" s="346" t="n"/>
+    </row>
+    <row r="30" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A30" s="484" t="n"/>
+      <c r="B30" s="457" t="n"/>
+      <c r="C30" s="458" t="n"/>
+      <c r="D30" s="458" t="n"/>
+      <c r="E30" s="458" t="n"/>
+      <c r="F30" s="459" t="n"/>
+      <c r="G30" s="457" t="n"/>
+      <c r="H30" s="460" t="n"/>
+      <c r="I30" s="342" t="n"/>
+      <c r="J30" s="342" t="n"/>
+      <c r="K30" s="342" t="n"/>
+      <c r="L30" s="343" t="n"/>
+      <c r="P30" s="345" t="n"/>
+      <c r="Q30" s="342" t="n"/>
+      <c r="R30" s="342" t="n"/>
+      <c r="S30" s="342" t="n"/>
+      <c r="T30" s="342" t="n"/>
+      <c r="U30" s="342" t="n"/>
+      <c r="V30" s="342" t="n"/>
+      <c r="W30" s="342" t="n"/>
+      <c r="X30" s="342" t="n"/>
+      <c r="Y30" s="342" t="n"/>
+      <c r="Z30" s="342" t="n"/>
+      <c r="AA30" s="342" t="n"/>
+      <c r="AB30" s="342" t="n"/>
+      <c r="AC30" s="342" t="n"/>
+      <c r="AD30" s="342" t="n"/>
+      <c r="AE30" s="342" t="n"/>
+      <c r="AF30" s="342" t="n"/>
+      <c r="AG30" s="342" t="n"/>
+      <c r="AH30" s="342" t="n"/>
+      <c r="AI30" s="342" t="n"/>
+      <c r="AJ30" s="342" t="n"/>
+      <c r="AK30" s="342" t="n"/>
+      <c r="AL30" s="342" t="n"/>
+      <c r="AM30" s="342" t="n"/>
+      <c r="AN30" s="342" t="n"/>
+      <c r="AO30" s="342" t="n"/>
+      <c r="AP30" s="342" t="n"/>
+      <c r="AQ30" s="342" t="n"/>
+      <c r="AR30" s="342" t="n"/>
+      <c r="AS30" s="342" t="n"/>
+      <c r="AT30" s="342" t="n"/>
+      <c r="AU30" s="342" t="n"/>
+      <c r="AV30" s="342" t="n"/>
+      <c r="AW30" s="342" t="n"/>
+      <c r="AX30" s="342" t="n"/>
+      <c r="AY30" s="342" t="n"/>
+      <c r="AZ30" s="342" t="n"/>
+      <c r="BA30" s="342" t="n"/>
+      <c r="BB30" s="342" t="n"/>
+      <c r="BC30" s="342" t="n"/>
+      <c r="BD30" s="342" t="n"/>
+      <c r="BE30" s="342" t="n"/>
+      <c r="BF30" s="342" t="n"/>
+      <c r="BG30" s="342" t="n"/>
+      <c r="BH30" s="342" t="n"/>
+      <c r="BI30" s="342" t="n"/>
+      <c r="BJ30" s="342" t="n"/>
+      <c r="BK30" s="342" t="n"/>
+      <c r="BL30" s="342" t="n"/>
+      <c r="BM30" s="342" t="n"/>
+      <c r="BN30" s="342" t="n"/>
+      <c r="BO30" s="342" t="n"/>
+      <c r="BP30" s="346" t="n"/>
+    </row>
+    <row r="31" ht="46.75" customFormat="1" customHeight="1" s="344">
+      <c r="A31" s="484" t="n"/>
+      <c r="B31" s="457" t="n"/>
+      <c r="C31" s="458" t="n"/>
+      <c r="D31" s="458" t="n"/>
+      <c r="E31" s="458" t="n"/>
+      <c r="F31" s="459" t="n"/>
+      <c r="G31" s="457" t="n"/>
+      <c r="H31" s="460" t="n"/>
+      <c r="I31" s="342" t="n"/>
+      <c r="J31" s="342" t="n"/>
+      <c r="K31" s="342" t="n"/>
+      <c r="L31" s="343" t="n"/>
+      <c r="P31" s="345" t="n"/>
+      <c r="Q31" s="342" t="n"/>
+      <c r="R31" s="342" t="n"/>
+      <c r="S31" s="342" t="n"/>
+      <c r="T31" s="342" t="n"/>
+      <c r="U31" s="342" t="n"/>
+      <c r="V31" s="342" t="n"/>
+      <c r="W31" s="342" t="n"/>
+      <c r="X31" s="342" t="n"/>
+      <c r="Y31" s="342" t="n"/>
+      <c r="Z31" s="342" t="n"/>
+      <c r="AA31" s="342" t="n"/>
+      <c r="AB31" s="342" t="n"/>
+      <c r="AC31" s="342" t="n"/>
+      <c r="AD31" s="342" t="n"/>
+      <c r="AE31" s="342" t="n"/>
+      <c r="AF31" s="342" t="n"/>
+      <c r="AG31" s="342" t="n"/>
+      <c r="AH31" s="342" t="n"/>
+      <c r="AI31" s="342" t="n"/>
+      <c r="AJ31" s="342" t="n"/>
+      <c r="AK31" s="342" t="n"/>
+      <c r="AL31" s="342" t="n"/>
+      <c r="AM31" s="342" t="n"/>
+      <c r="AN31" s="342" t="n"/>
+      <c r="AO31" s="342" t="n"/>
+      <c r="AP31" s="342" t="n"/>
+      <c r="AQ31" s="342" t="n"/>
+      <c r="AR31" s="342" t="n"/>
+      <c r="AS31" s="342" t="n"/>
+      <c r="AT31" s="342" t="n"/>
+      <c r="AU31" s="342" t="n"/>
+      <c r="AV31" s="342" t="n"/>
+      <c r="AW31" s="342" t="n"/>
+      <c r="AX31" s="342" t="n"/>
+      <c r="AY31" s="342" t="n"/>
+      <c r="AZ31" s="342" t="n"/>
+      <c r="BA31" s="342" t="n"/>
+      <c r="BB31" s="342" t="n"/>
+      <c r="BC31" s="342" t="n"/>
+      <c r="BD31" s="342" t="n"/>
+      <c r="BE31" s="342" t="n"/>
+      <c r="BF31" s="342" t="n"/>
+      <c r="BG31" s="342" t="n"/>
+      <c r="BH31" s="342" t="n"/>
+      <c r="BI31" s="342" t="n"/>
+      <c r="BJ31" s="342" t="n"/>
+      <c r="BK31" s="342" t="n"/>
+      <c r="BL31" s="342" t="n"/>
+      <c r="BM31" s="342" t="n"/>
+      <c r="BN31" s="342" t="n"/>
+      <c r="BO31" s="342" t="n"/>
+      <c r="BP31" s="346" t="n"/>
     </row>
     <row r="32" ht="46.75" customFormat="1" customHeight="1" s="10">
-      <c r="A32" s="516" t="n"/>
-      <c r="B32" s="490" t="n"/>
-      <c r="C32" s="490" t="n"/>
-      <c r="D32" s="490" t="n"/>
-      <c r="E32" s="490" t="n"/>
-      <c r="F32" s="490" t="n"/>
-      <c r="G32" s="490" t="n"/>
-      <c r="H32" s="491" t="n"/>
+      <c r="A32" s="478" t="n"/>
+      <c r="B32" s="452" t="n"/>
+      <c r="C32" s="452" t="n"/>
+      <c r="D32" s="452" t="n"/>
+      <c r="E32" s="452" t="n"/>
+      <c r="F32" s="452" t="n"/>
+      <c r="G32" s="452" t="n"/>
+      <c r="H32" s="453" t="n"/>
       <c r="I32" s="25" t="n"/>
       <c r="J32" s="25" t="n"/>
       <c r="K32" s="25" t="n"/>
-      <c r="L32" s="356" t="n"/>
-      <c r="P32" s="357" t="n"/>
+      <c r="L32" s="340" t="n"/>
+      <c r="P32" s="341" t="n"/>
       <c r="Q32" s="25" t="n"/>
       <c r="R32" s="25" t="n"/>
       <c r="S32" s="25" t="n"/>
@@ -10267,19 +10601,19 @@
       <c r="BP32" s="26" t="n"/>
     </row>
     <row r="33" ht="46.75" customFormat="1" customHeight="1" s="124">
-      <c r="A33" s="523" t="n"/>
-      <c r="B33" s="509" t="n"/>
-      <c r="C33" s="509" t="n"/>
-      <c r="D33" s="506" t="n"/>
-      <c r="E33" s="506" t="n"/>
-      <c r="F33" s="511" t="n"/>
-      <c r="G33" s="511" t="n"/>
-      <c r="H33" s="510" t="n"/>
+      <c r="A33" s="485" t="n"/>
+      <c r="B33" s="471" t="n"/>
+      <c r="C33" s="471" t="n"/>
+      <c r="D33" s="468" t="n"/>
+      <c r="E33" s="468" t="n"/>
+      <c r="F33" s="473" t="n"/>
+      <c r="G33" s="473" t="n"/>
+      <c r="H33" s="472" t="n"/>
       <c r="I33" s="121" t="n"/>
       <c r="J33" s="121" t="n"/>
       <c r="K33" s="121" t="n"/>
-      <c r="L33" s="354" t="n"/>
-      <c r="P33" s="355" t="n"/>
+      <c r="L33" s="338" t="n"/>
+      <c r="P33" s="339" t="n"/>
       <c r="Q33" s="121" t="n"/>
       <c r="R33" s="121" t="n"/>
       <c r="S33" s="121" t="n"/>
@@ -10334,22 +10668,22 @@
       <c r="BP33" s="123" t="n"/>
     </row>
     <row r="34" ht="46.75" customFormat="1" customHeight="1" s="10" thickBot="1">
-      <c r="A34" s="524" t="n"/>
-      <c r="B34" s="512" t="n"/>
-      <c r="C34" s="513" t="n"/>
-      <c r="D34" s="513" t="n"/>
-      <c r="E34" s="513" t="n"/>
-      <c r="F34" s="513" t="n"/>
-      <c r="G34" s="512" t="n"/>
-      <c r="H34" s="514" t="n"/>
+      <c r="A34" s="486" t="n"/>
+      <c r="B34" s="474" t="n"/>
+      <c r="C34" s="475" t="n"/>
+      <c r="D34" s="475" t="n"/>
+      <c r="E34" s="475" t="n"/>
+      <c r="F34" s="475" t="n"/>
+      <c r="G34" s="474" t="n"/>
+      <c r="H34" s="476" t="n"/>
       <c r="I34" s="25" t="n"/>
       <c r="J34" s="25" t="n"/>
       <c r="K34" s="25" t="n"/>
-      <c r="L34" s="363" t="n"/>
-      <c r="M34" s="364" t="n"/>
-      <c r="N34" s="364" t="n"/>
-      <c r="O34" s="364" t="n"/>
-      <c r="P34" s="365" t="n"/>
+      <c r="L34" s="347" t="n"/>
+      <c r="M34" s="348" t="n"/>
+      <c r="N34" s="348" t="n"/>
+      <c r="O34" s="348" t="n"/>
+      <c r="P34" s="349" t="n"/>
       <c r="Q34" s="25" t="n"/>
       <c r="R34" s="25" t="n"/>
       <c r="S34" s="25" t="n"/>
@@ -10404,22 +10738,22 @@
       <c r="BP34" s="26" t="n"/>
     </row>
     <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="190" t="n"/>
-      <c r="B35" s="386" t="n"/>
-      <c r="C35" s="190" t="n"/>
-      <c r="D35" s="190" t="n"/>
-      <c r="E35" s="190" t="n"/>
-      <c r="F35" s="191" t="n"/>
-      <c r="G35" s="387" t="n"/>
-      <c r="H35" s="387" t="n"/>
+      <c r="A35" s="188" t="n"/>
+      <c r="B35" s="366" t="n"/>
+      <c r="C35" s="188" t="n"/>
+      <c r="D35" s="188" t="n"/>
+      <c r="E35" s="188" t="n"/>
+      <c r="F35" s="189" t="n"/>
+      <c r="G35" s="367" t="n"/>
+      <c r="H35" s="367" t="n"/>
     </row>
     <row r="36" ht="20" customHeight="1" thickBot="1">
-      <c r="A36" s="525" t="inlineStr">
+      <c r="A36" s="487" t="inlineStr">
         <is>
           <t>Car Count:</t>
         </is>
       </c>
-      <c r="B36" s="366">
+      <c r="B36" s="350">
         <f>COUNTA(B7:B34)</f>
         <v/>
       </c>
@@ -10459,8 +10793,8 @@
   </sheetPr>
   <dimension ref="A1:T42"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:F4"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -10483,131 +10817,139 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="476" t="n"/>
+      <c r="A1" s="528" t="n"/>
       <c r="B1" s="16" t="n"/>
       <c r="C1" s="16" t="n"/>
       <c r="D1" s="16" t="n"/>
       <c r="E1" s="16" t="n"/>
       <c r="F1" s="16" t="n"/>
-      <c r="G1" s="476" t="n"/>
-      <c r="H1" s="476" t="n"/>
-      <c r="I1" s="476" t="n"/>
-      <c r="J1" s="476" t="n"/>
-      <c r="K1" s="476" t="n"/>
-      <c r="L1" s="476" t="n"/>
-      <c r="M1" s="476" t="n"/>
-      <c r="N1" s="476" t="n"/>
+      <c r="G1" s="528" t="n"/>
+      <c r="H1" s="528" t="n"/>
+      <c r="I1" s="528" t="n"/>
+      <c r="J1" s="528" t="n"/>
+      <c r="K1" s="528" t="n"/>
+      <c r="L1" s="528" t="n"/>
+      <c r="M1" s="528" t="n"/>
+      <c r="N1" s="528" t="n"/>
     </row>
     <row r="2" ht="73.5" customHeight="1">
-      <c r="A2" s="476" t="n"/>
-      <c r="D2" s="477" t="n"/>
-      <c r="G2" s="476" t="n"/>
-      <c r="I2" s="476" t="n"/>
-      <c r="J2" s="476" t="n"/>
-      <c r="K2" s="476" t="n"/>
-      <c r="L2" s="476" t="n"/>
-      <c r="M2" s="476" t="n"/>
-      <c r="N2" s="476" t="n"/>
-      <c r="O2" s="476" t="n"/>
-      <c r="P2" s="476" t="n"/>
-      <c r="Q2" s="476" t="n"/>
-      <c r="R2" s="476" t="n"/>
-      <c r="S2" s="476" t="n"/>
-      <c r="T2" s="476" t="n"/>
+      <c r="A2" s="528" t="n"/>
+      <c r="D2" s="529" t="inlineStr">
+        <is>
+          <t>Sonoma Raceway</t>
+        </is>
+      </c>
+      <c r="G2" s="528" t="n"/>
+      <c r="I2" s="528" t="n"/>
+      <c r="J2" s="528" t="n"/>
+      <c r="K2" s="528" t="n"/>
+      <c r="L2" s="528" t="n"/>
+      <c r="M2" s="528" t="n"/>
+      <c r="N2" s="528" t="n"/>
+      <c r="O2" s="528" t="n"/>
+      <c r="P2" s="528" t="n"/>
+      <c r="Q2" s="528" t="n"/>
+      <c r="R2" s="528" t="n"/>
+      <c r="S2" s="528" t="n"/>
+      <c r="T2" s="528" t="n"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
-      <c r="D3" s="477" t="inlineStr">
+      <c r="D3" s="529" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
-      <c r="I3" s="476" t="n"/>
-      <c r="J3" s="476" t="n"/>
-      <c r="K3" s="476" t="n"/>
-      <c r="L3" s="476" t="n"/>
-      <c r="M3" s="476" t="n"/>
-      <c r="N3" s="476" t="n"/>
-      <c r="O3" s="476" t="n"/>
-      <c r="P3" s="476" t="n"/>
-      <c r="Q3" s="476" t="n"/>
-      <c r="R3" s="476" t="n"/>
-      <c r="S3" s="476" t="n"/>
-      <c r="T3" s="476" t="n"/>
+      <c r="I3" s="528" t="n"/>
+      <c r="J3" s="528" t="n"/>
+      <c r="K3" s="528" t="n"/>
+      <c r="L3" s="528" t="n"/>
+      <c r="M3" s="528" t="n"/>
+      <c r="N3" s="528" t="n"/>
+      <c r="O3" s="528" t="n"/>
+      <c r="P3" s="528" t="n"/>
+      <c r="Q3" s="528" t="n"/>
+      <c r="R3" s="528" t="n"/>
+      <c r="S3" s="528" t="n"/>
+      <c r="T3" s="528" t="n"/>
     </row>
     <row r="4" ht="63" customHeight="1">
-      <c r="D4" s="477" t="n"/>
-      <c r="I4" s="476" t="n"/>
-      <c r="J4" s="476" t="n"/>
-      <c r="K4" s="476" t="n"/>
-      <c r="L4" s="476" t="n"/>
-      <c r="M4" s="476" t="n"/>
-      <c r="N4" s="476" t="n"/>
-      <c r="O4" s="476" t="n"/>
-      <c r="P4" s="476" t="n"/>
-      <c r="Q4" s="476" t="n"/>
-      <c r="R4" s="476" t="n"/>
-      <c r="S4" s="476" t="n"/>
-      <c r="T4" s="476" t="n"/>
+      <c r="D4" s="529" t="inlineStr">
+        <is>
+          <t>April 5 - 7</t>
+        </is>
+      </c>
+      <c r="I4" s="528" t="n"/>
+      <c r="J4" s="528" t="n"/>
+      <c r="K4" s="528" t="n"/>
+      <c r="L4" s="528" t="n"/>
+      <c r="M4" s="528" t="n"/>
+      <c r="N4" s="528" t="n"/>
+      <c r="O4" s="528" t="n"/>
+      <c r="P4" s="528" t="n"/>
+      <c r="Q4" s="528" t="n"/>
+      <c r="R4" s="528" t="n"/>
+      <c r="S4" s="528" t="n"/>
+      <c r="T4" s="528" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="476" t="n"/>
-      <c r="B5" s="476" t="n"/>
+      <c r="A5" s="528" t="n"/>
+      <c r="B5" s="528" t="n"/>
       <c r="C5" s="18" t="n"/>
-      <c r="D5" s="476" t="n"/>
-      <c r="E5" s="476" t="n"/>
-      <c r="F5" s="476" t="n"/>
-      <c r="G5" s="476" t="n"/>
-      <c r="H5" s="476" t="n"/>
-      <c r="I5" s="476" t="n"/>
-      <c r="J5" s="476" t="n"/>
-      <c r="K5" s="476" t="n"/>
-      <c r="L5" s="476" t="n"/>
-      <c r="M5" s="476" t="n"/>
-      <c r="N5" s="476" t="n"/>
-      <c r="O5" s="476" t="n"/>
-      <c r="P5" s="476" t="n"/>
-      <c r="Q5" s="476" t="n"/>
-      <c r="R5" s="476" t="n"/>
-      <c r="S5" s="476" t="n"/>
-      <c r="T5" s="476" t="n"/>
+      <c r="D5" s="528" t="n"/>
+      <c r="E5" s="528" t="n"/>
+      <c r="F5" s="528" t="n"/>
+      <c r="G5" s="528" t="n"/>
+      <c r="H5" s="528" t="n"/>
+      <c r="I5" s="528" t="n"/>
+      <c r="J5" s="528" t="n"/>
+      <c r="K5" s="528" t="n"/>
+      <c r="L5" s="528" t="n"/>
+      <c r="M5" s="528" t="n"/>
+      <c r="N5" s="528" t="n"/>
+      <c r="O5" s="528" t="n"/>
+      <c r="P5" s="528" t="n"/>
+      <c r="Q5" s="528" t="n"/>
+      <c r="R5" s="528" t="n"/>
+      <c r="S5" s="528" t="n"/>
+      <c r="T5" s="528" t="n"/>
     </row>
     <row r="6" ht="33" customHeight="1" thickBot="1">
-      <c r="A6" s="380" t="inlineStr">
+      <c r="A6" s="360" t="inlineStr">
         <is>
           <t>Series</t>
         </is>
       </c>
-      <c r="B6" s="381" t="inlineStr">
+      <c r="B6" s="361" t="inlineStr">
         <is>
           <t>Car #</t>
         </is>
       </c>
-      <c r="C6" s="382" t="inlineStr">
+      <c r="C6" s="362" t="inlineStr">
         <is>
           <t>Team</t>
         </is>
       </c>
-      <c r="D6" s="381" t="inlineStr">
+      <c r="D6" s="361" t="inlineStr">
         <is>
           <t>Driver 1</t>
         </is>
       </c>
-      <c r="E6" s="381" t="inlineStr">
+      <c r="E6" s="361" t="inlineStr">
         <is>
           <t>NAT</t>
         </is>
       </c>
-      <c r="F6" s="383" t="inlineStr">
+      <c r="F6" s="363" t="inlineStr">
         <is>
           <t>Car Sponsors</t>
         </is>
       </c>
-      <c r="G6" s="384" t="inlineStr">
+      <c r="G6" s="364" t="inlineStr">
         <is>
           <t>Car Make/Model</t>
         </is>
       </c>
-      <c r="H6" s="385" t="inlineStr">
+      <c r="H6" s="365" t="inlineStr">
         <is>
           <t>Championship</t>
         </is>
@@ -10638,44 +10980,104 @@
           <t>Drv Weight</t>
         </is>
       </c>
-      <c r="O6" s="476" t="n"/>
-      <c r="P6" s="476" t="n"/>
-      <c r="Q6" s="476" t="n"/>
-      <c r="R6" s="476" t="n"/>
-      <c r="S6" s="476" t="n"/>
-      <c r="T6" s="476" t="n"/>
+      <c r="O6" s="528" t="n"/>
+      <c r="P6" s="528" t="n"/>
+      <c r="Q6" s="528" t="n"/>
+      <c r="R6" s="528" t="n"/>
+      <c r="S6" s="528" t="n"/>
+      <c r="T6" s="528" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1" thickTop="1">
-      <c r="A7" s="375" t="n"/>
-      <c r="B7" s="109" t="n"/>
-      <c r="C7" s="28" t="n"/>
-      <c r="D7" s="28" t="n"/>
-      <c r="E7" s="28" t="n"/>
-      <c r="F7" s="28" t="n"/>
-      <c r="G7" s="28" t="n"/>
-      <c r="H7" s="369" t="n"/>
+      <c r="A7" s="519" t="inlineStr">
+        <is>
+          <t>Toyota GR Cup</t>
+        </is>
+      </c>
+      <c r="B7" s="109" t="n">
+        <v>17</v>
+      </c>
+      <c r="C7" s="28" t="inlineStr">
+        <is>
+          <t>Team Toyota Gazoo Racing</t>
+        </is>
+      </c>
+      <c r="D7" s="28" t="inlineStr">
+        <is>
+          <t>Shoehi Ohtani</t>
+        </is>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
+        <is>
+          <t>JAP</t>
+        </is>
+      </c>
+      <c r="F7" s="28" t="inlineStr">
+        <is>
+          <t>Mustaches, BioSteel</t>
+        </is>
+      </c>
+      <c r="G7" s="28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toyota GR86 </t>
+        </is>
+      </c>
+      <c r="H7" s="352" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
       <c r="I7" s="20" t="n"/>
       <c r="J7" s="21" t="n"/>
       <c r="K7" s="13" t="n"/>
       <c r="L7" s="13" t="n"/>
       <c r="M7" s="13" t="n"/>
       <c r="N7" s="13" t="n"/>
-      <c r="O7" s="476" t="n"/>
-      <c r="P7" s="476" t="n"/>
-      <c r="Q7" s="476" t="n"/>
-      <c r="R7" s="476" t="n"/>
-      <c r="S7" s="476" t="n"/>
-      <c r="T7" s="476" t="n"/>
+      <c r="O7" s="528" t="n"/>
+      <c r="P7" s="528" t="n"/>
+      <c r="Q7" s="528" t="n"/>
+      <c r="R7" s="528" t="n"/>
+      <c r="S7" s="528" t="n"/>
+      <c r="T7" s="528" t="n"/>
     </row>
     <row r="8" ht="27" customHeight="1">
-      <c r="A8" s="367" t="n"/>
-      <c r="B8" s="125" t="n"/>
-      <c r="C8" s="49" t="n"/>
-      <c r="D8" s="126" t="n"/>
-      <c r="E8" s="126" t="n"/>
-      <c r="F8" s="126" t="n"/>
-      <c r="G8" s="126" t="n"/>
-      <c r="H8" s="368" t="n"/>
+      <c r="A8" s="520" t="inlineStr">
+        <is>
+          <t>Toyota GR Cup</t>
+        </is>
+      </c>
+      <c r="B8" s="125" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" s="49" t="inlineStr">
+        <is>
+          <t>Bringer of Rain Racing</t>
+        </is>
+      </c>
+      <c r="D8" s="126" t="inlineStr">
+        <is>
+          <t>Josh Donaldson</t>
+        </is>
+      </c>
+      <c r="E8" s="126" t="inlineStr">
+        <is>
+          <t>USA</t>
+        </is>
+      </c>
+      <c r="F8" s="126" t="inlineStr">
+        <is>
+          <t>Umbrellas</t>
+        </is>
+      </c>
+      <c r="G8" s="126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Toyota GR86 </t>
+        </is>
+      </c>
+      <c r="H8" s="351" t="inlineStr">
+        <is>
+          <t>Am</t>
+        </is>
+      </c>
       <c r="I8" s="20" t="n"/>
       <c r="J8" s="21" t="n"/>
       <c r="K8" s="13" t="n"/>
@@ -10694,44 +11096,44 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="O8" s="476" t="n"/>
-      <c r="P8" s="476" t="n"/>
-      <c r="Q8" s="476" t="n"/>
-      <c r="R8" s="476" t="n"/>
-      <c r="S8" s="476" t="n"/>
-      <c r="T8" s="476" t="n"/>
+      <c r="O8" s="528" t="n"/>
+      <c r="P8" s="528" t="n"/>
+      <c r="Q8" s="528" t="n"/>
+      <c r="R8" s="528" t="n"/>
+      <c r="S8" s="528" t="n"/>
+      <c r="T8" s="528" t="n"/>
     </row>
     <row r="9" ht="27" customHeight="1">
-      <c r="A9" s="367" t="n"/>
+      <c r="A9" s="520" t="n"/>
       <c r="B9" s="27" t="n"/>
       <c r="C9" s="28" t="n"/>
       <c r="D9" s="28" t="n"/>
       <c r="E9" s="28" t="n"/>
       <c r="F9" s="28" t="n"/>
       <c r="G9" s="28" t="n"/>
-      <c r="H9" s="369" t="n"/>
+      <c r="H9" s="352" t="n"/>
       <c r="I9" s="20" t="n"/>
       <c r="J9" s="21" t="n"/>
       <c r="K9" s="13" t="n"/>
       <c r="L9" s="13" t="n"/>
       <c r="M9" s="13" t="n"/>
       <c r="N9" s="13" t="n"/>
-      <c r="O9" s="476" t="n"/>
-      <c r="P9" s="476" t="n"/>
-      <c r="Q9" s="476" t="n"/>
-      <c r="R9" s="476" t="n"/>
-      <c r="S9" s="476" t="n"/>
-      <c r="T9" s="476" t="n"/>
+      <c r="O9" s="528" t="n"/>
+      <c r="P9" s="528" t="n"/>
+      <c r="Q9" s="528" t="n"/>
+      <c r="R9" s="528" t="n"/>
+      <c r="S9" s="528" t="n"/>
+      <c r="T9" s="528" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="367" t="n"/>
+      <c r="A10" s="520" t="n"/>
       <c r="B10" s="27" t="n"/>
       <c r="C10" s="28" t="n"/>
       <c r="D10" s="28" t="n"/>
       <c r="E10" s="28" t="n"/>
       <c r="F10" s="28" t="n"/>
       <c r="G10" s="28" t="n"/>
-      <c r="H10" s="369" t="n"/>
+      <c r="H10" s="352" t="n"/>
       <c r="I10" s="20" t="n"/>
       <c r="J10" s="132" t="n"/>
       <c r="K10" s="11" t="n"/>
@@ -10752,124 +11154,124 @@
       </c>
     </row>
     <row r="11" ht="27" customHeight="1">
-      <c r="A11" s="367" t="n"/>
+      <c r="A11" s="520" t="n"/>
       <c r="B11" s="27" t="n"/>
       <c r="C11" s="28" t="n"/>
       <c r="D11" s="28" t="n"/>
       <c r="E11" s="28" t="n"/>
       <c r="F11" s="28" t="n"/>
       <c r="G11" s="28" t="n"/>
-      <c r="H11" s="369" t="n"/>
+      <c r="H11" s="352" t="n"/>
       <c r="I11" s="20" t="n"/>
       <c r="J11" s="21" t="n"/>
       <c r="K11" s="13" t="n"/>
       <c r="L11" s="13" t="n"/>
       <c r="M11" s="13" t="n"/>
       <c r="N11" s="13" t="n"/>
-      <c r="O11" s="476" t="n"/>
-      <c r="P11" s="476" t="n"/>
-      <c r="Q11" s="476" t="n"/>
-      <c r="R11" s="476" t="n"/>
-      <c r="S11" s="476" t="n"/>
-      <c r="T11" s="476" t="n"/>
+      <c r="O11" s="528" t="n"/>
+      <c r="P11" s="528" t="n"/>
+      <c r="Q11" s="528" t="n"/>
+      <c r="R11" s="528" t="n"/>
+      <c r="S11" s="528" t="n"/>
+      <c r="T11" s="528" t="n"/>
     </row>
     <row r="12" ht="27" customHeight="1">
-      <c r="A12" s="367" t="n"/>
+      <c r="A12" s="520" t="n"/>
       <c r="B12" s="27" t="n"/>
       <c r="C12" s="28" t="n"/>
       <c r="D12" s="28" t="n"/>
       <c r="E12" s="111" t="n"/>
       <c r="F12" s="111" t="n"/>
       <c r="G12" s="28" t="n"/>
-      <c r="H12" s="369" t="n"/>
+      <c r="H12" s="352" t="n"/>
       <c r="I12" s="20" t="n"/>
       <c r="J12" s="21" t="n"/>
       <c r="K12" s="13" t="n"/>
       <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="n"/>
       <c r="N12" s="13" t="n"/>
-      <c r="O12" s="476" t="n"/>
-      <c r="P12" s="476" t="n"/>
-      <c r="Q12" s="476" t="n"/>
-      <c r="R12" s="476" t="n"/>
-      <c r="S12" s="476" t="n"/>
-      <c r="T12" s="476" t="n"/>
+      <c r="O12" s="528" t="n"/>
+      <c r="P12" s="528" t="n"/>
+      <c r="Q12" s="528" t="n"/>
+      <c r="R12" s="528" t="n"/>
+      <c r="S12" s="528" t="n"/>
+      <c r="T12" s="528" t="n"/>
     </row>
     <row r="13" ht="27" customHeight="1">
-      <c r="A13" s="367" t="n"/>
+      <c r="A13" s="520" t="n"/>
       <c r="B13" s="27" t="n"/>
       <c r="C13" s="28" t="n"/>
       <c r="D13" s="107" t="n"/>
       <c r="E13" s="9" t="n"/>
       <c r="F13" s="162" t="n"/>
       <c r="G13" s="125" t="n"/>
-      <c r="H13" s="369" t="n"/>
+      <c r="H13" s="352" t="n"/>
       <c r="I13" s="20" t="n"/>
       <c r="J13" s="21" t="n"/>
       <c r="K13" s="13" t="n"/>
       <c r="L13" s="13" t="n"/>
       <c r="M13" s="13" t="n"/>
       <c r="N13" s="13" t="n"/>
-      <c r="O13" s="476" t="n"/>
-      <c r="P13" s="476" t="n"/>
-      <c r="Q13" s="476" t="n"/>
-      <c r="R13" s="476" t="n"/>
-      <c r="S13" s="476" t="n"/>
-      <c r="T13" s="476" t="n"/>
+      <c r="O13" s="528" t="n"/>
+      <c r="P13" s="528" t="n"/>
+      <c r="Q13" s="528" t="n"/>
+      <c r="R13" s="528" t="n"/>
+      <c r="S13" s="528" t="n"/>
+      <c r="T13" s="528" t="n"/>
     </row>
     <row r="14" ht="27" customHeight="1">
-      <c r="A14" s="367" t="n"/>
+      <c r="A14" s="520" t="n"/>
       <c r="B14" s="27" t="n"/>
       <c r="C14" s="28" t="n"/>
       <c r="D14" s="28" t="n"/>
       <c r="E14" s="107" t="n"/>
       <c r="F14" s="108" t="n"/>
       <c r="G14" s="28" t="n"/>
-      <c r="H14" s="369" t="n"/>
+      <c r="H14" s="352" t="n"/>
       <c r="I14" s="20" t="n"/>
       <c r="J14" s="21" t="n"/>
       <c r="K14" s="13" t="n"/>
       <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="n"/>
       <c r="N14" s="13" t="n"/>
-      <c r="O14" s="476" t="n"/>
-      <c r="P14" s="476" t="n"/>
-      <c r="Q14" s="476" t="n"/>
-      <c r="R14" s="476" t="n"/>
-      <c r="S14" s="476" t="n"/>
-      <c r="T14" s="476" t="n"/>
+      <c r="O14" s="528" t="n"/>
+      <c r="P14" s="528" t="n"/>
+      <c r="Q14" s="528" t="n"/>
+      <c r="R14" s="528" t="n"/>
+      <c r="S14" s="528" t="n"/>
+      <c r="T14" s="528" t="n"/>
     </row>
     <row r="15" ht="27" customHeight="1">
-      <c r="A15" s="367" t="n"/>
+      <c r="A15" s="520" t="n"/>
       <c r="B15" s="27" t="n"/>
       <c r="C15" s="28" t="n"/>
       <c r="D15" s="28" t="n"/>
       <c r="E15" s="28" t="n"/>
       <c r="F15" s="28" t="n"/>
       <c r="G15" s="28" t="n"/>
-      <c r="H15" s="369" t="n"/>
+      <c r="H15" s="352" t="n"/>
       <c r="I15" s="20" t="n"/>
       <c r="J15" s="21" t="n"/>
       <c r="K15" s="13" t="n"/>
       <c r="L15" s="13" t="n"/>
       <c r="M15" s="13" t="n"/>
       <c r="N15" s="13" t="n"/>
-      <c r="O15" s="476" t="n"/>
-      <c r="P15" s="476" t="n"/>
-      <c r="Q15" s="476" t="n"/>
-      <c r="R15" s="476" t="n"/>
-      <c r="S15" s="476" t="n"/>
-      <c r="T15" s="476" t="n"/>
+      <c r="O15" s="528" t="n"/>
+      <c r="P15" s="528" t="n"/>
+      <c r="Q15" s="528" t="n"/>
+      <c r="R15" s="528" t="n"/>
+      <c r="S15" s="528" t="n"/>
+      <c r="T15" s="528" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="367" t="n"/>
+      <c r="A16" s="520" t="n"/>
       <c r="B16" s="27" t="n"/>
       <c r="C16" s="28" t="n"/>
       <c r="D16" s="28" t="n"/>
       <c r="E16" s="28" t="n"/>
       <c r="F16" s="28" t="n"/>
       <c r="G16" s="28" t="n"/>
-      <c r="H16" s="369" t="n"/>
+      <c r="H16" s="352" t="n"/>
       <c r="J16" s="110" t="n"/>
       <c r="K16" s="110" t="n"/>
       <c r="L16" s="110" t="n"/>
@@ -10877,36 +11279,36 @@
       <c r="N16" s="110" t="n"/>
     </row>
     <row r="17" ht="27" customHeight="1">
-      <c r="A17" s="367" t="n"/>
+      <c r="A17" s="520" t="n"/>
       <c r="B17" s="27" t="n"/>
       <c r="C17" s="28" t="n"/>
       <c r="D17" s="28" t="n"/>
       <c r="E17" s="28" t="n"/>
       <c r="F17" s="28" t="n"/>
       <c r="G17" s="28" t="n"/>
-      <c r="H17" s="369" t="n"/>
+      <c r="H17" s="352" t="n"/>
       <c r="I17" s="20" t="n"/>
       <c r="J17" s="21" t="n"/>
       <c r="K17" s="13" t="n"/>
       <c r="L17" s="13" t="n"/>
       <c r="M17" s="13" t="n"/>
       <c r="N17" s="13" t="n"/>
-      <c r="O17" s="476" t="n"/>
-      <c r="P17" s="476" t="n"/>
-      <c r="Q17" s="476" t="n"/>
-      <c r="R17" s="476" t="n"/>
-      <c r="S17" s="476" t="n"/>
-      <c r="T17" s="476" t="n"/>
+      <c r="O17" s="528" t="n"/>
+      <c r="P17" s="528" t="n"/>
+      <c r="Q17" s="528" t="n"/>
+      <c r="R17" s="528" t="n"/>
+      <c r="S17" s="528" t="n"/>
+      <c r="T17" s="528" t="n"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="367" t="n"/>
+      <c r="A18" s="520" t="n"/>
       <c r="B18" s="27" t="n"/>
       <c r="C18" s="28" t="n"/>
       <c r="D18" s="28" t="n"/>
       <c r="E18" s="28" t="n"/>
       <c r="F18" s="28" t="n"/>
       <c r="G18" s="28" t="n"/>
-      <c r="H18" s="369" t="n"/>
+      <c r="H18" s="352" t="n"/>
       <c r="J18" s="110" t="n"/>
       <c r="K18" s="110" t="n"/>
       <c r="L18" s="110" t="n"/>
@@ -10914,146 +11316,146 @@
       <c r="N18" s="110" t="n"/>
     </row>
     <row r="19" ht="27" customHeight="1">
-      <c r="A19" s="367" t="n"/>
+      <c r="A19" s="520" t="n"/>
       <c r="B19" s="27" t="n"/>
       <c r="C19" s="28" t="n"/>
       <c r="D19" s="111" t="n"/>
       <c r="E19" s="28" t="n"/>
       <c r="F19" s="28" t="n"/>
       <c r="G19" s="28" t="n"/>
-      <c r="H19" s="369" t="n"/>
+      <c r="H19" s="352" t="n"/>
       <c r="I19" s="20" t="n"/>
       <c r="J19" s="21" t="n"/>
       <c r="K19" s="13" t="n"/>
       <c r="L19" s="13" t="n"/>
       <c r="M19" s="13" t="n"/>
       <c r="N19" s="13" t="n"/>
-      <c r="O19" s="476" t="n"/>
-      <c r="P19" s="476" t="n"/>
-      <c r="Q19" s="476" t="n"/>
-      <c r="R19" s="476" t="n"/>
-      <c r="S19" s="476" t="n"/>
-      <c r="T19" s="476" t="n"/>
+      <c r="O19" s="528" t="n"/>
+      <c r="P19" s="528" t="n"/>
+      <c r="Q19" s="528" t="n"/>
+      <c r="R19" s="528" t="n"/>
+      <c r="S19" s="528" t="n"/>
+      <c r="T19" s="528" t="n"/>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="367" t="n"/>
+      <c r="A20" s="520" t="n"/>
       <c r="B20" s="154" t="n"/>
       <c r="C20" s="155" t="n"/>
       <c r="D20" s="156" t="n"/>
       <c r="E20" s="132" t="n"/>
       <c r="F20" s="157" t="n"/>
       <c r="G20" s="158" t="n"/>
-      <c r="H20" s="371" t="n"/>
+      <c r="H20" s="354" t="n"/>
       <c r="I20" s="20" t="n"/>
       <c r="J20" s="21" t="n"/>
       <c r="K20" s="13" t="n"/>
       <c r="L20" s="13" t="n"/>
       <c r="M20" s="13" t="n"/>
       <c r="N20" s="13" t="n"/>
-      <c r="O20" s="476" t="n"/>
-      <c r="P20" s="476" t="n"/>
-      <c r="Q20" s="476" t="n"/>
-      <c r="R20" s="476" t="n"/>
-      <c r="S20" s="476" t="n"/>
-      <c r="T20" s="476" t="n"/>
+      <c r="O20" s="528" t="n"/>
+      <c r="P20" s="528" t="n"/>
+      <c r="Q20" s="528" t="n"/>
+      <c r="R20" s="528" t="n"/>
+      <c r="S20" s="528" t="n"/>
+      <c r="T20" s="528" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="367" t="n"/>
+      <c r="A21" s="520" t="n"/>
       <c r="B21" s="27" t="n"/>
       <c r="C21" s="28" t="n"/>
       <c r="D21" s="28" t="n"/>
       <c r="E21" s="28" t="n"/>
       <c r="F21" s="28" t="n"/>
       <c r="G21" s="28" t="n"/>
-      <c r="H21" s="369" t="n"/>
+      <c r="H21" s="352" t="n"/>
       <c r="I21" s="20" t="n"/>
       <c r="J21" s="21" t="n"/>
       <c r="K21" s="13" t="n"/>
       <c r="L21" s="13" t="n"/>
       <c r="M21" s="13" t="n"/>
       <c r="N21" s="13" t="n"/>
-      <c r="O21" s="476" t="n"/>
-      <c r="P21" s="476" t="n"/>
-      <c r="Q21" s="476" t="n"/>
-      <c r="R21" s="476" t="n"/>
-      <c r="S21" s="476" t="n"/>
-      <c r="T21" s="476" t="n"/>
+      <c r="O21" s="528" t="n"/>
+      <c r="P21" s="528" t="n"/>
+      <c r="Q21" s="528" t="n"/>
+      <c r="R21" s="528" t="n"/>
+      <c r="S21" s="528" t="n"/>
+      <c r="T21" s="528" t="n"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="367" t="n"/>
+      <c r="A22" s="520" t="n"/>
       <c r="B22" s="27" t="n"/>
       <c r="C22" s="28" t="n"/>
       <c r="D22" s="28" t="n"/>
       <c r="E22" s="28" t="n"/>
       <c r="F22" s="28" t="n"/>
       <c r="G22" s="28" t="n"/>
-      <c r="H22" s="369" t="n"/>
+      <c r="H22" s="352" t="n"/>
       <c r="I22" s="20" t="n"/>
       <c r="J22" s="21" t="n"/>
       <c r="K22" s="13" t="n"/>
       <c r="L22" s="13" t="n"/>
       <c r="M22" s="13" t="n"/>
       <c r="N22" s="13" t="n"/>
-      <c r="O22" s="476" t="n"/>
-      <c r="P22" s="476" t="n"/>
-      <c r="Q22" s="476" t="n"/>
-      <c r="R22" s="476" t="n"/>
-      <c r="S22" s="476" t="n"/>
-      <c r="T22" s="476" t="n"/>
+      <c r="O22" s="528" t="n"/>
+      <c r="P22" s="528" t="n"/>
+      <c r="Q22" s="528" t="n"/>
+      <c r="R22" s="528" t="n"/>
+      <c r="S22" s="528" t="n"/>
+      <c r="T22" s="528" t="n"/>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="367" t="n"/>
+      <c r="A23" s="520" t="n"/>
       <c r="B23" s="27" t="n"/>
       <c r="C23" s="28" t="n"/>
       <c r="D23" s="28" t="n"/>
       <c r="E23" s="28" t="n"/>
       <c r="F23" s="28" t="n"/>
       <c r="G23" s="28" t="n"/>
-      <c r="H23" s="369" t="n"/>
+      <c r="H23" s="352" t="n"/>
       <c r="I23" s="20" t="n"/>
       <c r="J23" s="21" t="n"/>
       <c r="K23" s="13" t="n"/>
       <c r="L23" s="13" t="n"/>
       <c r="M23" s="13" t="n"/>
       <c r="N23" s="13" t="n"/>
-      <c r="O23" s="476" t="n"/>
-      <c r="P23" s="476" t="n"/>
-      <c r="Q23" s="476" t="n"/>
-      <c r="R23" s="476" t="n"/>
-      <c r="S23" s="476" t="n"/>
-      <c r="T23" s="476" t="n"/>
+      <c r="O23" s="528" t="n"/>
+      <c r="P23" s="528" t="n"/>
+      <c r="Q23" s="528" t="n"/>
+      <c r="R23" s="528" t="n"/>
+      <c r="S23" s="528" t="n"/>
+      <c r="T23" s="528" t="n"/>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="367" t="n"/>
+      <c r="A24" s="520" t="n"/>
       <c r="B24" s="27" t="n"/>
       <c r="C24" s="28" t="n"/>
       <c r="D24" s="28" t="n"/>
       <c r="E24" s="28" t="n"/>
       <c r="F24" s="28" t="n"/>
       <c r="G24" s="28" t="n"/>
-      <c r="H24" s="369" t="n"/>
+      <c r="H24" s="352" t="n"/>
       <c r="I24" s="20" t="n"/>
       <c r="J24" s="21" t="n"/>
       <c r="K24" s="13" t="n"/>
       <c r="L24" s="13" t="n"/>
       <c r="M24" s="13" t="n"/>
       <c r="N24" s="13" t="n"/>
-      <c r="O24" s="476" t="n"/>
-      <c r="P24" s="476" t="n"/>
-      <c r="Q24" s="476" t="n"/>
-      <c r="R24" s="476" t="n"/>
-      <c r="S24" s="476" t="n"/>
-      <c r="T24" s="476" t="n"/>
+      <c r="O24" s="528" t="n"/>
+      <c r="P24" s="528" t="n"/>
+      <c r="Q24" s="528" t="n"/>
+      <c r="R24" s="528" t="n"/>
+      <c r="S24" s="528" t="n"/>
+      <c r="T24" s="528" t="n"/>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="367" t="n"/>
+      <c r="A25" s="520" t="n"/>
       <c r="B25" s="11" t="n"/>
       <c r="C25" s="14" t="n"/>
       <c r="D25" s="159" t="n"/>
       <c r="E25" s="11" t="n"/>
       <c r="F25" s="15" t="n"/>
       <c r="G25" s="24" t="n"/>
-      <c r="H25" s="372" t="n"/>
+      <c r="H25" s="355" t="n"/>
       <c r="I25" s="20" t="n"/>
       <c r="J25" s="21" t="n"/>
       <c r="K25" s="13" t="n"/>
@@ -11062,257 +11464,257 @@
       <c r="N25" s="13" t="n"/>
     </row>
     <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="367" t="n"/>
+      <c r="A26" s="520" t="n"/>
       <c r="B26" s="27" t="n"/>
       <c r="C26" s="28" t="n"/>
       <c r="D26" s="28" t="n"/>
       <c r="E26" s="28" t="n"/>
       <c r="F26" s="28" t="n"/>
       <c r="G26" s="28" t="n"/>
-      <c r="H26" s="369" t="n"/>
+      <c r="H26" s="352" t="n"/>
       <c r="I26" s="20" t="n"/>
       <c r="J26" s="21" t="n"/>
       <c r="K26" s="13" t="n"/>
       <c r="L26" s="13" t="n"/>
       <c r="M26" s="13" t="n"/>
       <c r="N26" s="13" t="n"/>
-      <c r="O26" s="476" t="n"/>
-      <c r="P26" s="476" t="n"/>
-      <c r="Q26" s="476" t="n"/>
-      <c r="R26" s="476" t="n"/>
-      <c r="S26" s="476" t="n"/>
-      <c r="T26" s="476" t="n"/>
+      <c r="O26" s="528" t="n"/>
+      <c r="P26" s="528" t="n"/>
+      <c r="Q26" s="528" t="n"/>
+      <c r="R26" s="528" t="n"/>
+      <c r="S26" s="528" t="n"/>
+      <c r="T26" s="528" t="n"/>
     </row>
     <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="367" t="n"/>
+      <c r="A27" s="520" t="n"/>
       <c r="B27" s="27" t="n"/>
       <c r="C27" s="28" t="n"/>
       <c r="D27" s="28" t="n"/>
       <c r="E27" s="28" t="n"/>
       <c r="F27" s="28" t="n"/>
       <c r="G27" s="28" t="n"/>
-      <c r="H27" s="369" t="n"/>
+      <c r="H27" s="352" t="n"/>
       <c r="I27" s="20" t="n"/>
       <c r="J27" s="21" t="n"/>
       <c r="K27" s="13" t="n"/>
       <c r="L27" s="13" t="n"/>
       <c r="M27" s="13" t="n"/>
       <c r="N27" s="13" t="n"/>
-      <c r="O27" s="476" t="n"/>
-      <c r="P27" s="476" t="n"/>
-      <c r="Q27" s="476" t="n"/>
-      <c r="R27" s="476" t="n"/>
-      <c r="S27" s="476" t="n"/>
-      <c r="T27" s="476" t="n"/>
+      <c r="O27" s="528" t="n"/>
+      <c r="P27" s="528" t="n"/>
+      <c r="Q27" s="528" t="n"/>
+      <c r="R27" s="528" t="n"/>
+      <c r="S27" s="528" t="n"/>
+      <c r="T27" s="528" t="n"/>
     </row>
     <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="367" t="n"/>
+      <c r="A28" s="520" t="n"/>
       <c r="B28" s="27" t="n"/>
       <c r="C28" s="28" t="n"/>
       <c r="D28" s="28" t="n"/>
       <c r="E28" s="28" t="n"/>
       <c r="F28" s="28" t="n"/>
       <c r="G28" s="28" t="n"/>
-      <c r="H28" s="369" t="n"/>
+      <c r="H28" s="352" t="n"/>
       <c r="I28" s="20" t="n"/>
       <c r="J28" s="21" t="n"/>
       <c r="K28" s="13" t="n"/>
       <c r="L28" s="13" t="n"/>
       <c r="M28" s="13" t="n"/>
       <c r="N28" s="13" t="n"/>
-      <c r="O28" s="476" t="n"/>
-      <c r="P28" s="476" t="n"/>
-      <c r="Q28" s="476" t="n"/>
-      <c r="R28" s="476" t="n"/>
-      <c r="S28" s="476" t="n"/>
-      <c r="T28" s="476" t="n"/>
+      <c r="O28" s="528" t="n"/>
+      <c r="P28" s="528" t="n"/>
+      <c r="Q28" s="528" t="n"/>
+      <c r="R28" s="528" t="n"/>
+      <c r="S28" s="528" t="n"/>
+      <c r="T28" s="528" t="n"/>
     </row>
     <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="367" t="n"/>
+      <c r="A29" s="520" t="n"/>
       <c r="B29" s="27" t="n"/>
       <c r="C29" s="28" t="n"/>
       <c r="D29" s="28" t="n"/>
       <c r="E29" s="28" t="n"/>
       <c r="F29" s="28" t="n"/>
       <c r="G29" s="28" t="n"/>
-      <c r="H29" s="369" t="n"/>
+      <c r="H29" s="352" t="n"/>
       <c r="I29" s="20" t="n"/>
       <c r="J29" s="21" t="n"/>
       <c r="K29" s="13" t="n"/>
       <c r="L29" s="13" t="n"/>
       <c r="M29" s="13" t="n"/>
       <c r="N29" s="13" t="n"/>
-      <c r="O29" s="476" t="n"/>
-      <c r="P29" s="476" t="n"/>
-      <c r="Q29" s="476" t="n"/>
-      <c r="R29" s="476" t="n"/>
-      <c r="S29" s="476" t="n"/>
-      <c r="T29" s="476" t="n"/>
+      <c r="O29" s="528" t="n"/>
+      <c r="P29" s="528" t="n"/>
+      <c r="Q29" s="528" t="n"/>
+      <c r="R29" s="528" t="n"/>
+      <c r="S29" s="528" t="n"/>
+      <c r="T29" s="528" t="n"/>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="367" t="n"/>
+      <c r="A30" s="520" t="n"/>
       <c r="B30" s="27" t="n"/>
       <c r="C30" s="28" t="n"/>
       <c r="D30" s="28" t="n"/>
       <c r="E30" s="28" t="n"/>
       <c r="F30" s="28" t="n"/>
       <c r="G30" s="28" t="n"/>
-      <c r="H30" s="369" t="n"/>
+      <c r="H30" s="352" t="n"/>
       <c r="I30" s="20" t="n"/>
       <c r="J30" s="21" t="n"/>
       <c r="K30" s="13" t="n"/>
       <c r="L30" s="13" t="n"/>
       <c r="M30" s="13" t="n"/>
       <c r="N30" s="13" t="n"/>
-      <c r="O30" s="476" t="n"/>
-      <c r="P30" s="476" t="n"/>
-      <c r="Q30" s="476" t="n"/>
-      <c r="R30" s="476" t="n"/>
-      <c r="S30" s="476" t="n"/>
-      <c r="T30" s="476" t="n"/>
+      <c r="O30" s="528" t="n"/>
+      <c r="P30" s="528" t="n"/>
+      <c r="Q30" s="528" t="n"/>
+      <c r="R30" s="528" t="n"/>
+      <c r="S30" s="528" t="n"/>
+      <c r="T30" s="528" t="n"/>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="367" t="n"/>
+      <c r="A31" s="520" t="n"/>
       <c r="B31" s="27" t="n"/>
       <c r="C31" s="28" t="n"/>
       <c r="D31" s="28" t="n"/>
       <c r="E31" s="28" t="n"/>
       <c r="F31" s="28" t="n"/>
       <c r="G31" s="28" t="n"/>
-      <c r="H31" s="369" t="n"/>
+      <c r="H31" s="352" t="n"/>
       <c r="I31" s="20" t="n"/>
       <c r="J31" s="21" t="n"/>
       <c r="K31" s="13" t="n"/>
       <c r="L31" s="13" t="n"/>
       <c r="M31" s="13" t="n"/>
       <c r="N31" s="13" t="n"/>
-      <c r="O31" s="476" t="n"/>
-      <c r="P31" s="476" t="n"/>
-      <c r="Q31" s="476" t="n"/>
-      <c r="R31" s="476" t="n"/>
-      <c r="S31" s="476" t="n"/>
-      <c r="T31" s="476" t="n"/>
+      <c r="O31" s="528" t="n"/>
+      <c r="P31" s="528" t="n"/>
+      <c r="Q31" s="528" t="n"/>
+      <c r="R31" s="528" t="n"/>
+      <c r="S31" s="528" t="n"/>
+      <c r="T31" s="528" t="n"/>
     </row>
     <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="367" t="n"/>
+      <c r="A32" s="520" t="n"/>
       <c r="B32" s="27" t="n"/>
       <c r="C32" s="28" t="n"/>
       <c r="D32" s="28" t="n"/>
       <c r="E32" s="28" t="n"/>
       <c r="F32" s="9" t="n"/>
       <c r="G32" s="28" t="n"/>
-      <c r="H32" s="369" t="n"/>
+      <c r="H32" s="352" t="n"/>
       <c r="I32" s="20" t="n"/>
       <c r="J32" s="21" t="n"/>
       <c r="K32" s="13" t="n"/>
       <c r="L32" s="13" t="n"/>
       <c r="M32" s="13" t="n"/>
       <c r="N32" s="13" t="n"/>
-      <c r="O32" s="476" t="n"/>
-      <c r="P32" s="476" t="n"/>
-      <c r="Q32" s="476" t="n"/>
-      <c r="R32" s="476" t="n"/>
-      <c r="S32" s="476" t="n"/>
-      <c r="T32" s="476" t="n"/>
+      <c r="O32" s="528" t="n"/>
+      <c r="P32" s="528" t="n"/>
+      <c r="Q32" s="528" t="n"/>
+      <c r="R32" s="528" t="n"/>
+      <c r="S32" s="528" t="n"/>
+      <c r="T32" s="528" t="n"/>
     </row>
     <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="373" t="n"/>
+      <c r="A33" s="521" t="n"/>
       <c r="B33" s="130" t="n"/>
       <c r="C33" s="111" t="n"/>
       <c r="D33" s="111" t="n"/>
       <c r="E33" s="111" t="n"/>
       <c r="F33" s="111" t="n"/>
       <c r="G33" s="111" t="n"/>
-      <c r="H33" s="374" t="n"/>
+      <c r="H33" s="356" t="n"/>
       <c r="I33" s="20" t="n"/>
       <c r="J33" s="21" t="n"/>
       <c r="K33" s="13" t="n"/>
       <c r="L33" s="13" t="n"/>
       <c r="M33" s="13" t="n"/>
       <c r="N33" s="13" t="n"/>
-      <c r="O33" s="476" t="n"/>
-      <c r="P33" s="476" t="n"/>
-      <c r="Q33" s="476" t="n"/>
-      <c r="R33" s="476" t="n"/>
-      <c r="S33" s="476" t="n"/>
-      <c r="T33" s="476" t="n"/>
+      <c r="O33" s="528" t="n"/>
+      <c r="P33" s="528" t="n"/>
+      <c r="Q33" s="528" t="n"/>
+      <c r="R33" s="528" t="n"/>
+      <c r="S33" s="528" t="n"/>
+      <c r="T33" s="528" t="n"/>
     </row>
     <row r="34" ht="27" customHeight="1">
-      <c r="A34" s="367" t="n"/>
+      <c r="A34" s="520" t="n"/>
       <c r="B34" s="9" t="n"/>
       <c r="C34" s="9" t="n"/>
       <c r="D34" s="9" t="n"/>
       <c r="E34" s="9" t="n"/>
       <c r="F34" s="9" t="n"/>
       <c r="G34" s="9" t="n"/>
-      <c r="H34" s="370" t="n"/>
+      <c r="H34" s="353" t="n"/>
       <c r="I34" s="20" t="n"/>
       <c r="J34" s="21" t="n"/>
       <c r="K34" s="13" t="n"/>
       <c r="L34" s="13" t="n"/>
       <c r="M34" s="13" t="n"/>
       <c r="N34" s="13" t="n"/>
-      <c r="O34" s="476" t="n"/>
-      <c r="P34" s="476" t="n"/>
-      <c r="Q34" s="476" t="n"/>
-      <c r="R34" s="476" t="n"/>
-      <c r="S34" s="476" t="n"/>
-      <c r="T34" s="476" t="n"/>
+      <c r="O34" s="528" t="n"/>
+      <c r="P34" s="528" t="n"/>
+      <c r="Q34" s="528" t="n"/>
+      <c r="R34" s="528" t="n"/>
+      <c r="S34" s="528" t="n"/>
+      <c r="T34" s="528" t="n"/>
     </row>
     <row r="35" ht="27" customHeight="1">
-      <c r="A35" s="375" t="n"/>
+      <c r="A35" s="519" t="n"/>
       <c r="B35" s="131" t="n"/>
       <c r="C35" s="131" t="n"/>
       <c r="D35" s="131" t="n"/>
       <c r="E35" s="131" t="n"/>
       <c r="F35" s="131" t="n"/>
       <c r="G35" s="131" t="n"/>
-      <c r="H35" s="376" t="n"/>
+      <c r="H35" s="357" t="n"/>
       <c r="I35" s="20" t="n"/>
       <c r="J35" s="21" t="n"/>
       <c r="K35" s="13" t="n"/>
       <c r="L35" s="13" t="n"/>
       <c r="M35" s="13" t="n"/>
       <c r="N35" s="13" t="n"/>
-      <c r="O35" s="476" t="n"/>
-      <c r="P35" s="476" t="n"/>
-      <c r="Q35" s="476" t="n"/>
-      <c r="R35" s="476" t="n"/>
-      <c r="S35" s="476" t="n"/>
-      <c r="T35" s="476" t="n"/>
+      <c r="O35" s="528" t="n"/>
+      <c r="P35" s="528" t="n"/>
+      <c r="Q35" s="528" t="n"/>
+      <c r="R35" s="528" t="n"/>
+      <c r="S35" s="528" t="n"/>
+      <c r="T35" s="528" t="n"/>
     </row>
     <row r="36" ht="27" customHeight="1" thickBot="1">
-      <c r="A36" s="377" t="n"/>
-      <c r="B36" s="378" t="n"/>
-      <c r="C36" s="378" t="n"/>
-      <c r="D36" s="378" t="n"/>
-      <c r="E36" s="378" t="n"/>
-      <c r="F36" s="378" t="n"/>
-      <c r="G36" s="378" t="n"/>
-      <c r="H36" s="379" t="n"/>
+      <c r="A36" s="522" t="n"/>
+      <c r="B36" s="358" t="n"/>
+      <c r="C36" s="358" t="n"/>
+      <c r="D36" s="358" t="n"/>
+      <c r="E36" s="358" t="n"/>
+      <c r="F36" s="358" t="n"/>
+      <c r="G36" s="358" t="n"/>
+      <c r="H36" s="359" t="n"/>
       <c r="I36" s="20" t="n"/>
       <c r="J36" s="21" t="n"/>
       <c r="K36" s="13" t="n"/>
       <c r="L36" s="13" t="n"/>
       <c r="M36" s="13" t="n"/>
       <c r="N36" s="13" t="n"/>
-      <c r="O36" s="476" t="n"/>
-      <c r="P36" s="476" t="n"/>
-      <c r="Q36" s="476" t="n"/>
-      <c r="R36" s="476" t="n"/>
-      <c r="S36" s="476" t="n"/>
-      <c r="T36" s="476" t="n"/>
+      <c r="O36" s="528" t="n"/>
+      <c r="P36" s="528" t="n"/>
+      <c r="Q36" s="528" t="n"/>
+      <c r="R36" s="528" t="n"/>
+      <c r="S36" s="528" t="n"/>
+      <c r="T36" s="528" t="n"/>
     </row>
     <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="476" t="n"/>
-      <c r="B37" s="476" t="n"/>
+      <c r="A37" s="528" t="n"/>
+      <c r="B37" s="528" t="n"/>
       <c r="C37" s="18" t="n"/>
-      <c r="D37" s="476" t="n"/>
-      <c r="E37" s="476" t="n"/>
-      <c r="F37" s="476" t="n"/>
+      <c r="D37" s="528" t="n"/>
+      <c r="E37" s="528" t="n"/>
+      <c r="F37" s="528" t="n"/>
       <c r="G37" s="22" t="n"/>
-      <c r="H37" s="476" t="n"/>
-      <c r="I37" s="476" t="n"/>
+      <c r="H37" s="528" t="n"/>
+      <c r="I37" s="528" t="n"/>
       <c r="J37" s="119" t="n"/>
       <c r="K37" s="119" t="n"/>
       <c r="L37" s="119" t="n"/>
@@ -11320,7 +11722,7 @@
       <c r="N37" s="119" t="n"/>
     </row>
     <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="476" t="inlineStr">
+      <c r="A38" s="528" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -11330,33 +11732,33 @@
         <v/>
       </c>
       <c r="C38" s="18" t="n"/>
-      <c r="D38" s="476" t="n"/>
-      <c r="E38" s="476" t="n"/>
-      <c r="F38" s="476" t="n"/>
+      <c r="D38" s="528" t="n"/>
+      <c r="E38" s="528" t="n"/>
+      <c r="F38" s="528" t="n"/>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="476" t="n"/>
-      <c r="I38" s="476" t="n"/>
-      <c r="J38" s="476" t="n"/>
-      <c r="K38" s="476" t="n"/>
-      <c r="L38" s="476" t="n"/>
-      <c r="M38" s="476" t="n"/>
-      <c r="N38" s="476" t="n"/>
+      <c r="H38" s="528" t="n"/>
+      <c r="I38" s="528" t="n"/>
+      <c r="J38" s="528" t="n"/>
+      <c r="K38" s="528" t="n"/>
+      <c r="L38" s="528" t="n"/>
+      <c r="M38" s="528" t="n"/>
+      <c r="N38" s="528" t="n"/>
     </row>
     <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="476" t="n"/>
-      <c r="B39" s="476" t="n"/>
+      <c r="A39" s="528" t="n"/>
+      <c r="B39" s="528" t="n"/>
       <c r="C39" s="18" t="n"/>
-      <c r="D39" s="476" t="n"/>
-      <c r="E39" s="476" t="n"/>
-      <c r="F39" s="476" t="n"/>
+      <c r="D39" s="528" t="n"/>
+      <c r="E39" s="528" t="n"/>
+      <c r="F39" s="528" t="n"/>
       <c r="G39" s="22" t="n"/>
-      <c r="H39" s="476" t="n"/>
-      <c r="I39" s="476" t="n"/>
-      <c r="J39" s="476" t="n"/>
-      <c r="K39" s="476" t="n"/>
-      <c r="L39" s="476" t="n"/>
-      <c r="M39" s="476" t="n"/>
-      <c r="N39" s="476" t="n"/>
+      <c r="H39" s="528" t="n"/>
+      <c r="I39" s="528" t="n"/>
+      <c r="J39" s="528" t="n"/>
+      <c r="K39" s="528" t="n"/>
+      <c r="L39" s="528" t="n"/>
+      <c r="M39" s="528" t="n"/>
+      <c r="N39" s="528" t="n"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="G40" s="22" t="n"/>

--- a/entry_lists/Sonoma Provisional Entry List.xlsx
+++ b/entry_lists/Sonoma Provisional Entry List.xlsx
@@ -5709,7 +5709,7 @@
     <row r="4" ht="45" customHeight="1">
       <c r="D4" s="530" t="inlineStr">
         <is>
-          <t>April 5 - 7</t>
+          <t>Apr 5-7</t>
         </is>
       </c>
     </row>
@@ -6587,7 +6587,7 @@
     <row r="4" ht="45" customHeight="1">
       <c r="D4" s="530" t="inlineStr">
         <is>
-          <t>April 5 - 7</t>
+          <t>Apr 5-7</t>
         </is>
       </c>
     </row>
@@ -7739,7 +7739,7 @@
     <row r="4" ht="45" customHeight="1">
       <c r="D4" s="527" t="inlineStr">
         <is>
-          <t>April 5 - 7</t>
+          <t>Apr 5-7</t>
         </is>
       </c>
     </row>
@@ -8575,7 +8575,7 @@
     <row r="4" ht="45" customHeight="1">
       <c r="D4" s="527" t="inlineStr">
         <is>
-          <t>April 5 - 7</t>
+          <t>Apr 5-7</t>
         </is>
       </c>
     </row>
@@ -10875,7 +10875,7 @@
     <row r="4" ht="63" customHeight="1">
       <c r="D4" s="529" t="inlineStr">
         <is>
-          <t>April 5 - 7</t>
+          <t>Apr 5-7</t>
         </is>
       </c>
       <c r="I4" s="528" t="n"/>

--- a/entry_lists/Sonoma Provisional Entry List.xlsx
+++ b/entry_lists/Sonoma Provisional Entry List.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="600" firstSheet="0" activeTab="4" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GTWCA" sheetId="1" state="visible" r:id="rId1"/>
@@ -3169,6 +3169,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3186,9 +3189,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -5087,6 +5087,47 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>12</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>142875</rowOff>
+    </from>
+    <to>
+      <col>13</col>
+      <colOff>866775</colOff>
+      <row>3</row>
+      <rowOff>492125</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Picture 4"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="15033625" y="333375"/>
+          <a:ext cx="3581400" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -5122,6 +5163,47 @@
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="143565" y="552173"/>
           <a:ext cx="3990817" cy="940077"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>12</col>
+      <colOff>95250</colOff>
+      <row>1</row>
+      <rowOff>142875</rowOff>
+    </from>
+    <to>
+      <col>13</col>
+      <colOff>660400</colOff>
+      <row>3</row>
+      <rowOff>492125</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Picture 1"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="15478125" y="333375"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -5179,6 +5261,47 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>8</col>
+      <colOff>0</colOff>
+      <row>1</row>
+      <rowOff>79375</rowOff>
+    </from>
+    <to>
+      <col>10</col>
+      <colOff>41275</colOff>
+      <row>3</row>
+      <rowOff>428625</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Picture 2"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="13081000" y="269875"/>
+          <a:ext cx="3581400" cy="1492250"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -5225,6 +5348,47 @@
     </pic>
     <clientData/>
   </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>6</col>
+      <colOff>285751</colOff>
+      <row>1</row>
+      <rowOff>206375</rowOff>
+    </from>
+    <to>
+      <col>7</col>
+      <colOff>783134</colOff>
+      <row>3</row>
+      <rowOff>553847</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Picture 3"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="12446001" y="396875"/>
+          <a:ext cx="3577133" cy="1490472"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
 </wsDr>
 </file>
 
@@ -5260,6 +5424,47 @@
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="222250" y="1092200"/>
           <a:ext cx="3251200" cy="1168400"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </spPr>
+    </pic>
+    <clientData/>
+  </twoCellAnchor>
+  <twoCellAnchor editAs="oneCell">
+    <from>
+      <col>5</col>
+      <colOff>1651000</colOff>
+      <row>1</row>
+      <rowOff>746125</rowOff>
+    </from>
+    <to>
+      <col>8</col>
+      <colOff>200025</colOff>
+      <row>3</row>
+      <rowOff>396875</rowOff>
+    </to>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Picture 3"/>
+        <cNvPicPr>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1"/>
+        </cNvPicPr>
+      </nvPicPr>
+      <blipFill>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="8096250" y="936625"/>
+          <a:ext cx="3581400" cy="1492250"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
@@ -5668,8 +5873,8 @@
   </sheetPr>
   <dimension ref="A2:X34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -5692,7 +5897,7 @@
   <sheetData>
     <row r="2" ht="45" customHeight="1">
       <c r="A2" s="523" t="n"/>
-      <c r="D2" s="530" t="inlineStr">
+      <c r="D2" s="524" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
@@ -5700,14 +5905,14 @@
       <c r="M2" s="523" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="524" t="inlineStr">
+      <c r="D3" s="525" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="530" t="inlineStr">
+      <c r="D4" s="524" t="inlineStr">
         <is>
           <t>Apr 5-7</t>
         </is>
@@ -5881,7 +6086,7 @@
       <c r="L7" s="230" t="inlineStr"/>
       <c r="M7" s="230" t="inlineStr">
         <is>
-          <t>acuraNsxGt3Evo22</t>
+          <t>Acura NSX GT3 EVO22</t>
         </is>
       </c>
       <c r="N7" s="231" t="inlineStr">
@@ -6163,7 +6368,7 @@
       <c r="I15" s="259" t="n"/>
       <c r="J15" s="259" t="n"/>
       <c r="K15" s="259" t="n"/>
-      <c r="L15" s="528" t="n"/>
+      <c r="L15" s="529" t="n"/>
       <c r="M15" s="116" t="n"/>
       <c r="N15" s="272" t="n"/>
       <c r="R15" s="273" t="n"/>
@@ -6548,7 +6753,7 @@
   <dimension ref="A2:Y40"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="115" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -6569,30 +6774,30 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="525" t="n"/>
-      <c r="D2" s="530" t="inlineStr">
+      <c r="A2" s="526" t="n"/>
+      <c r="D2" s="524" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="M2" s="525" t="n"/>
+      <c r="M2" s="526" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="524" t="inlineStr">
+      <c r="D3" s="525" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="530" t="inlineStr">
+      <c r="D4" s="524" t="inlineStr">
         <is>
           <t>Apr 5-7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="R5" s="526" t="inlineStr">
+      <c r="R5" s="527" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
@@ -6765,7 +6970,7 @@
       <c r="L7" s="216" t="inlineStr"/>
       <c r="M7" s="217" t="inlineStr">
         <is>
-          <t>nissanZGt4</t>
+          <t>Nissan Z GT4</t>
         </is>
       </c>
       <c r="N7" s="217" t="inlineStr">
@@ -7701,7 +7906,7 @@
   <dimension ref="A2:R41"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="90" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:H4"/>
+      <selection activeCell="I2" sqref="I2:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -7721,30 +7926,30 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="525" t="n"/>
-      <c r="D2" s="527" t="inlineStr">
+      <c r="A2" s="526" t="n"/>
+      <c r="D2" s="528" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="I2" s="525" t="n"/>
+      <c r="I2" s="526" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="527" t="inlineStr">
+      <c r="D3" s="528" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="527" t="inlineStr">
+      <c r="D4" s="528" t="inlineStr">
         <is>
           <t>Apr 5-7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="N5" s="525" t="inlineStr">
+      <c r="N5" s="526" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
@@ -8538,7 +8743,7 @@
   <dimension ref="A2:BP36"/>
   <sheetViews>
     <sheetView view="pageLayout" zoomScale="80" zoomScaleNormal="70" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:F3"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="15"/>
@@ -8557,30 +8762,30 @@
   </cols>
   <sheetData>
     <row r="2" ht="45" customHeight="1">
-      <c r="A2" s="525" t="n"/>
-      <c r="D2" s="527" t="inlineStr">
+      <c r="A2" s="526" t="n"/>
+      <c r="D2" s="528" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="G2" s="525" t="n"/>
+      <c r="G2" s="526" t="n"/>
     </row>
     <row r="3" ht="45" customHeight="1">
-      <c r="D3" s="527" t="inlineStr">
+      <c r="D3" s="528" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
     </row>
     <row r="4" ht="45" customHeight="1">
-      <c r="D4" s="527" t="inlineStr">
+      <c r="D4" s="528" t="inlineStr">
         <is>
           <t>Apr 5-7</t>
         </is>
       </c>
     </row>
     <row r="5" ht="16" customHeight="1" thickBot="1">
-      <c r="L5" s="525" t="inlineStr">
+      <c r="L5" s="526" t="inlineStr">
         <is>
           <t>Admin Checks</t>
         </is>
@@ -8790,7 +8995,7 @@
       </c>
       <c r="G8" s="444" t="inlineStr">
         <is>
-          <t>acuraIntegraTypeS</t>
+          <t>Acura Integra Type S</t>
         </is>
       </c>
       <c r="H8" s="445" t="inlineStr">
@@ -9082,7 +9287,7 @@
       </c>
       <c r="G11" s="450" t="inlineStr">
         <is>
-          <t>subaruBrz</t>
+          <t>Subaru BRZ</t>
         </is>
       </c>
       <c r="H11" s="449" t="inlineStr">
@@ -10794,7 +10999,7 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:F2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" customHeight="1"/>
@@ -10817,101 +11022,101 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="528" t="n"/>
+      <c r="A1" s="529" t="n"/>
       <c r="B1" s="16" t="n"/>
       <c r="C1" s="16" t="n"/>
       <c r="D1" s="16" t="n"/>
       <c r="E1" s="16" t="n"/>
       <c r="F1" s="16" t="n"/>
-      <c r="G1" s="528" t="n"/>
-      <c r="H1" s="528" t="n"/>
-      <c r="I1" s="528" t="n"/>
-      <c r="J1" s="528" t="n"/>
-      <c r="K1" s="528" t="n"/>
-      <c r="L1" s="528" t="n"/>
-      <c r="M1" s="528" t="n"/>
-      <c r="N1" s="528" t="n"/>
+      <c r="G1" s="529" t="n"/>
+      <c r="H1" s="529" t="n"/>
+      <c r="I1" s="529" t="n"/>
+      <c r="J1" s="529" t="n"/>
+      <c r="K1" s="529" t="n"/>
+      <c r="L1" s="529" t="n"/>
+      <c r="M1" s="529" t="n"/>
+      <c r="N1" s="529" t="n"/>
     </row>
     <row r="2" ht="73.5" customHeight="1">
-      <c r="A2" s="528" t="n"/>
-      <c r="D2" s="529" t="inlineStr">
+      <c r="A2" s="529" t="n"/>
+      <c r="D2" s="530" t="inlineStr">
         <is>
           <t>Sonoma Raceway</t>
         </is>
       </c>
-      <c r="G2" s="528" t="n"/>
-      <c r="I2" s="528" t="n"/>
-      <c r="J2" s="528" t="n"/>
-      <c r="K2" s="528" t="n"/>
-      <c r="L2" s="528" t="n"/>
-      <c r="M2" s="528" t="n"/>
-      <c r="N2" s="528" t="n"/>
-      <c r="O2" s="528" t="n"/>
-      <c r="P2" s="528" t="n"/>
-      <c r="Q2" s="528" t="n"/>
-      <c r="R2" s="528" t="n"/>
-      <c r="S2" s="528" t="n"/>
-      <c r="T2" s="528" t="n"/>
+      <c r="G2" s="529" t="n"/>
+      <c r="I2" s="529" t="n"/>
+      <c r="J2" s="529" t="n"/>
+      <c r="K2" s="529" t="n"/>
+      <c r="L2" s="529" t="n"/>
+      <c r="M2" s="529" t="n"/>
+      <c r="N2" s="529" t="n"/>
+      <c r="O2" s="529" t="n"/>
+      <c r="P2" s="529" t="n"/>
+      <c r="Q2" s="529" t="n"/>
+      <c r="R2" s="529" t="n"/>
+      <c r="S2" s="529" t="n"/>
+      <c r="T2" s="529" t="n"/>
     </row>
     <row r="3" ht="73.5" customHeight="1">
-      <c r="D3" s="529" t="inlineStr">
+      <c r="D3" s="530" t="inlineStr">
         <is>
           <t>Provisional Entry List</t>
         </is>
       </c>
-      <c r="I3" s="528" t="n"/>
-      <c r="J3" s="528" t="n"/>
-      <c r="K3" s="528" t="n"/>
-      <c r="L3" s="528" t="n"/>
-      <c r="M3" s="528" t="n"/>
-      <c r="N3" s="528" t="n"/>
-      <c r="O3" s="528" t="n"/>
-      <c r="P3" s="528" t="n"/>
-      <c r="Q3" s="528" t="n"/>
-      <c r="R3" s="528" t="n"/>
-      <c r="S3" s="528" t="n"/>
-      <c r="T3" s="528" t="n"/>
+      <c r="I3" s="529" t="n"/>
+      <c r="J3" s="529" t="n"/>
+      <c r="K3" s="529" t="n"/>
+      <c r="L3" s="529" t="n"/>
+      <c r="M3" s="529" t="n"/>
+      <c r="N3" s="529" t="n"/>
+      <c r="O3" s="529" t="n"/>
+      <c r="P3" s="529" t="n"/>
+      <c r="Q3" s="529" t="n"/>
+      <c r="R3" s="529" t="n"/>
+      <c r="S3" s="529" t="n"/>
+      <c r="T3" s="529" t="n"/>
     </row>
     <row r="4" ht="63" customHeight="1">
-      <c r="D4" s="529" t="inlineStr">
+      <c r="D4" s="530" t="inlineStr">
         <is>
           <t>Apr 5-7</t>
         </is>
       </c>
-      <c r="I4" s="528" t="n"/>
-      <c r="J4" s="528" t="n"/>
-      <c r="K4" s="528" t="n"/>
-      <c r="L4" s="528" t="n"/>
-      <c r="M4" s="528" t="n"/>
-      <c r="N4" s="528" t="n"/>
-      <c r="O4" s="528" t="n"/>
-      <c r="P4" s="528" t="n"/>
-      <c r="Q4" s="528" t="n"/>
-      <c r="R4" s="528" t="n"/>
-      <c r="S4" s="528" t="n"/>
-      <c r="T4" s="528" t="n"/>
+      <c r="I4" s="529" t="n"/>
+      <c r="J4" s="529" t="n"/>
+      <c r="K4" s="529" t="n"/>
+      <c r="L4" s="529" t="n"/>
+      <c r="M4" s="529" t="n"/>
+      <c r="N4" s="529" t="n"/>
+      <c r="O4" s="529" t="n"/>
+      <c r="P4" s="529" t="n"/>
+      <c r="Q4" s="529" t="n"/>
+      <c r="R4" s="529" t="n"/>
+      <c r="S4" s="529" t="n"/>
+      <c r="T4" s="529" t="n"/>
     </row>
     <row r="5" ht="15" customHeight="1" thickBot="1">
-      <c r="A5" s="528" t="n"/>
-      <c r="B5" s="528" t="n"/>
+      <c r="A5" s="529" t="n"/>
+      <c r="B5" s="529" t="n"/>
       <c r="C5" s="18" t="n"/>
-      <c r="D5" s="528" t="n"/>
-      <c r="E5" s="528" t="n"/>
-      <c r="F5" s="528" t="n"/>
-      <c r="G5" s="528" t="n"/>
-      <c r="H5" s="528" t="n"/>
-      <c r="I5" s="528" t="n"/>
-      <c r="J5" s="528" t="n"/>
-      <c r="K5" s="528" t="n"/>
-      <c r="L5" s="528" t="n"/>
-      <c r="M5" s="528" t="n"/>
-      <c r="N5" s="528" t="n"/>
-      <c r="O5" s="528" t="n"/>
-      <c r="P5" s="528" t="n"/>
-      <c r="Q5" s="528" t="n"/>
-      <c r="R5" s="528" t="n"/>
-      <c r="S5" s="528" t="n"/>
-      <c r="T5" s="528" t="n"/>
+      <c r="D5" s="529" t="n"/>
+      <c r="E5" s="529" t="n"/>
+      <c r="F5" s="529" t="n"/>
+      <c r="G5" s="529" t="n"/>
+      <c r="H5" s="529" t="n"/>
+      <c r="I5" s="529" t="n"/>
+      <c r="J5" s="529" t="n"/>
+      <c r="K5" s="529" t="n"/>
+      <c r="L5" s="529" t="n"/>
+      <c r="M5" s="529" t="n"/>
+      <c r="N5" s="529" t="n"/>
+      <c r="O5" s="529" t="n"/>
+      <c r="P5" s="529" t="n"/>
+      <c r="Q5" s="529" t="n"/>
+      <c r="R5" s="529" t="n"/>
+      <c r="S5" s="529" t="n"/>
+      <c r="T5" s="529" t="n"/>
     </row>
     <row r="6" ht="33" customHeight="1" thickBot="1">
       <c r="A6" s="360" t="inlineStr">
@@ -10980,12 +11185,12 @@
           <t>Drv Weight</t>
         </is>
       </c>
-      <c r="O6" s="528" t="n"/>
-      <c r="P6" s="528" t="n"/>
-      <c r="Q6" s="528" t="n"/>
-      <c r="R6" s="528" t="n"/>
-      <c r="S6" s="528" t="n"/>
-      <c r="T6" s="528" t="n"/>
+      <c r="O6" s="529" t="n"/>
+      <c r="P6" s="529" t="n"/>
+      <c r="Q6" s="529" t="n"/>
+      <c r="R6" s="529" t="n"/>
+      <c r="S6" s="529" t="n"/>
+      <c r="T6" s="529" t="n"/>
     </row>
     <row r="7" ht="30" customHeight="1" thickTop="1">
       <c r="A7" s="519" t="inlineStr">
@@ -11032,12 +11237,12 @@
       <c r="L7" s="13" t="n"/>
       <c r="M7" s="13" t="n"/>
       <c r="N7" s="13" t="n"/>
-      <c r="O7" s="528" t="n"/>
-      <c r="P7" s="528" t="n"/>
-      <c r="Q7" s="528" t="n"/>
-      <c r="R7" s="528" t="n"/>
-      <c r="S7" s="528" t="n"/>
-      <c r="T7" s="528" t="n"/>
+      <c r="O7" s="529" t="n"/>
+      <c r="P7" s="529" t="n"/>
+      <c r="Q7" s="529" t="n"/>
+      <c r="R7" s="529" t="n"/>
+      <c r="S7" s="529" t="n"/>
+      <c r="T7" s="529" t="n"/>
     </row>
     <row r="8" ht="27" customHeight="1">
       <c r="A8" s="520" t="inlineStr">
@@ -11096,12 +11301,12 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="O8" s="528" t="n"/>
-      <c r="P8" s="528" t="n"/>
-      <c r="Q8" s="528" t="n"/>
-      <c r="R8" s="528" t="n"/>
-      <c r="S8" s="528" t="n"/>
-      <c r="T8" s="528" t="n"/>
+      <c r="O8" s="529" t="n"/>
+      <c r="P8" s="529" t="n"/>
+      <c r="Q8" s="529" t="n"/>
+      <c r="R8" s="529" t="n"/>
+      <c r="S8" s="529" t="n"/>
+      <c r="T8" s="529" t="n"/>
     </row>
     <row r="9" ht="27" customHeight="1">
       <c r="A9" s="520" t="n"/>
@@ -11118,12 +11323,12 @@
       <c r="L9" s="13" t="n"/>
       <c r="M9" s="13" t="n"/>
       <c r="N9" s="13" t="n"/>
-      <c r="O9" s="528" t="n"/>
-      <c r="P9" s="528" t="n"/>
-      <c r="Q9" s="528" t="n"/>
-      <c r="R9" s="528" t="n"/>
-      <c r="S9" s="528" t="n"/>
-      <c r="T9" s="528" t="n"/>
+      <c r="O9" s="529" t="n"/>
+      <c r="P9" s="529" t="n"/>
+      <c r="Q9" s="529" t="n"/>
+      <c r="R9" s="529" t="n"/>
+      <c r="S9" s="529" t="n"/>
+      <c r="T9" s="529" t="n"/>
     </row>
     <row r="10" ht="30" customHeight="1">
       <c r="A10" s="520" t="n"/>
@@ -11168,12 +11373,12 @@
       <c r="L11" s="13" t="n"/>
       <c r="M11" s="13" t="n"/>
       <c r="N11" s="13" t="n"/>
-      <c r="O11" s="528" t="n"/>
-      <c r="P11" s="528" t="n"/>
-      <c r="Q11" s="528" t="n"/>
-      <c r="R11" s="528" t="n"/>
-      <c r="S11" s="528" t="n"/>
-      <c r="T11" s="528" t="n"/>
+      <c r="O11" s="529" t="n"/>
+      <c r="P11" s="529" t="n"/>
+      <c r="Q11" s="529" t="n"/>
+      <c r="R11" s="529" t="n"/>
+      <c r="S11" s="529" t="n"/>
+      <c r="T11" s="529" t="n"/>
     </row>
     <row r="12" ht="27" customHeight="1">
       <c r="A12" s="520" t="n"/>
@@ -11182,7 +11387,11 @@
       <c r="D12" s="28" t="n"/>
       <c r="E12" s="111" t="n"/>
       <c r="F12" s="111" t="n"/>
-      <c r="G12" s="28" t="n"/>
+      <c r="G12" s="28" t="inlineStr">
+        <is>
+          <t>`</t>
+        </is>
+      </c>
       <c r="H12" s="352" t="n"/>
       <c r="I12" s="20" t="n"/>
       <c r="J12" s="21" t="n"/>
@@ -11190,12 +11399,12 @@
       <c r="L12" s="13" t="n"/>
       <c r="M12" s="13" t="n"/>
       <c r="N12" s="13" t="n"/>
-      <c r="O12" s="528" t="n"/>
-      <c r="P12" s="528" t="n"/>
-      <c r="Q12" s="528" t="n"/>
-      <c r="R12" s="528" t="n"/>
-      <c r="S12" s="528" t="n"/>
-      <c r="T12" s="528" t="n"/>
+      <c r="O12" s="529" t="n"/>
+      <c r="P12" s="529" t="n"/>
+      <c r="Q12" s="529" t="n"/>
+      <c r="R12" s="529" t="n"/>
+      <c r="S12" s="529" t="n"/>
+      <c r="T12" s="529" t="n"/>
     </row>
     <row r="13" ht="27" customHeight="1">
       <c r="A13" s="520" t="n"/>
@@ -11212,12 +11421,12 @@
       <c r="L13" s="13" t="n"/>
       <c r="M13" s="13" t="n"/>
       <c r="N13" s="13" t="n"/>
-      <c r="O13" s="528" t="n"/>
-      <c r="P13" s="528" t="n"/>
-      <c r="Q13" s="528" t="n"/>
-      <c r="R13" s="528" t="n"/>
-      <c r="S13" s="528" t="n"/>
-      <c r="T13" s="528" t="n"/>
+      <c r="O13" s="529" t="n"/>
+      <c r="P13" s="529" t="n"/>
+      <c r="Q13" s="529" t="n"/>
+      <c r="R13" s="529" t="n"/>
+      <c r="S13" s="529" t="n"/>
+      <c r="T13" s="529" t="n"/>
     </row>
     <row r="14" ht="27" customHeight="1">
       <c r="A14" s="520" t="n"/>
@@ -11234,12 +11443,12 @@
       <c r="L14" s="13" t="n"/>
       <c r="M14" s="13" t="n"/>
       <c r="N14" s="13" t="n"/>
-      <c r="O14" s="528" t="n"/>
-      <c r="P14" s="528" t="n"/>
-      <c r="Q14" s="528" t="n"/>
-      <c r="R14" s="528" t="n"/>
-      <c r="S14" s="528" t="n"/>
-      <c r="T14" s="528" t="n"/>
+      <c r="O14" s="529" t="n"/>
+      <c r="P14" s="529" t="n"/>
+      <c r="Q14" s="529" t="n"/>
+      <c r="R14" s="529" t="n"/>
+      <c r="S14" s="529" t="n"/>
+      <c r="T14" s="529" t="n"/>
     </row>
     <row r="15" ht="27" customHeight="1">
       <c r="A15" s="520" t="n"/>
@@ -11256,12 +11465,12 @@
       <c r="L15" s="13" t="n"/>
       <c r="M15" s="13" t="n"/>
       <c r="N15" s="13" t="n"/>
-      <c r="O15" s="528" t="n"/>
-      <c r="P15" s="528" t="n"/>
-      <c r="Q15" s="528" t="n"/>
-      <c r="R15" s="528" t="n"/>
-      <c r="S15" s="528" t="n"/>
-      <c r="T15" s="528" t="n"/>
+      <c r="O15" s="529" t="n"/>
+      <c r="P15" s="529" t="n"/>
+      <c r="Q15" s="529" t="n"/>
+      <c r="R15" s="529" t="n"/>
+      <c r="S15" s="529" t="n"/>
+      <c r="T15" s="529" t="n"/>
     </row>
     <row r="16" ht="30" customHeight="1">
       <c r="A16" s="520" t="n"/>
@@ -11293,12 +11502,12 @@
       <c r="L17" s="13" t="n"/>
       <c r="M17" s="13" t="n"/>
       <c r="N17" s="13" t="n"/>
-      <c r="O17" s="528" t="n"/>
-      <c r="P17" s="528" t="n"/>
-      <c r="Q17" s="528" t="n"/>
-      <c r="R17" s="528" t="n"/>
-      <c r="S17" s="528" t="n"/>
-      <c r="T17" s="528" t="n"/>
+      <c r="O17" s="529" t="n"/>
+      <c r="P17" s="529" t="n"/>
+      <c r="Q17" s="529" t="n"/>
+      <c r="R17" s="529" t="n"/>
+      <c r="S17" s="529" t="n"/>
+      <c r="T17" s="529" t="n"/>
     </row>
     <row r="18" ht="30" customHeight="1">
       <c r="A18" s="520" t="n"/>
@@ -11330,12 +11539,12 @@
       <c r="L19" s="13" t="n"/>
       <c r="M19" s="13" t="n"/>
       <c r="N19" s="13" t="n"/>
-      <c r="O19" s="528" t="n"/>
-      <c r="P19" s="528" t="n"/>
-      <c r="Q19" s="528" t="n"/>
-      <c r="R19" s="528" t="n"/>
-      <c r="S19" s="528" t="n"/>
-      <c r="T19" s="528" t="n"/>
+      <c r="O19" s="529" t="n"/>
+      <c r="P19" s="529" t="n"/>
+      <c r="Q19" s="529" t="n"/>
+      <c r="R19" s="529" t="n"/>
+      <c r="S19" s="529" t="n"/>
+      <c r="T19" s="529" t="n"/>
     </row>
     <row r="20" ht="27" customHeight="1">
       <c r="A20" s="520" t="n"/>
@@ -11352,12 +11561,12 @@
       <c r="L20" s="13" t="n"/>
       <c r="M20" s="13" t="n"/>
       <c r="N20" s="13" t="n"/>
-      <c r="O20" s="528" t="n"/>
-      <c r="P20" s="528" t="n"/>
-      <c r="Q20" s="528" t="n"/>
-      <c r="R20" s="528" t="n"/>
-      <c r="S20" s="528" t="n"/>
-      <c r="T20" s="528" t="n"/>
+      <c r="O20" s="529" t="n"/>
+      <c r="P20" s="529" t="n"/>
+      <c r="Q20" s="529" t="n"/>
+      <c r="R20" s="529" t="n"/>
+      <c r="S20" s="529" t="n"/>
+      <c r="T20" s="529" t="n"/>
     </row>
     <row r="21" ht="27" customHeight="1">
       <c r="A21" s="520" t="n"/>
@@ -11374,12 +11583,12 @@
       <c r="L21" s="13" t="n"/>
       <c r="M21" s="13" t="n"/>
       <c r="N21" s="13" t="n"/>
-      <c r="O21" s="528" t="n"/>
-      <c r="P21" s="528" t="n"/>
-      <c r="Q21" s="528" t="n"/>
-      <c r="R21" s="528" t="n"/>
-      <c r="S21" s="528" t="n"/>
-      <c r="T21" s="528" t="n"/>
+      <c r="O21" s="529" t="n"/>
+      <c r="P21" s="529" t="n"/>
+      <c r="Q21" s="529" t="n"/>
+      <c r="R21" s="529" t="n"/>
+      <c r="S21" s="529" t="n"/>
+      <c r="T21" s="529" t="n"/>
     </row>
     <row r="22" ht="27" customHeight="1">
       <c r="A22" s="520" t="n"/>
@@ -11396,12 +11605,12 @@
       <c r="L22" s="13" t="n"/>
       <c r="M22" s="13" t="n"/>
       <c r="N22" s="13" t="n"/>
-      <c r="O22" s="528" t="n"/>
-      <c r="P22" s="528" t="n"/>
-      <c r="Q22" s="528" t="n"/>
-      <c r="R22" s="528" t="n"/>
-      <c r="S22" s="528" t="n"/>
-      <c r="T22" s="528" t="n"/>
+      <c r="O22" s="529" t="n"/>
+      <c r="P22" s="529" t="n"/>
+      <c r="Q22" s="529" t="n"/>
+      <c r="R22" s="529" t="n"/>
+      <c r="S22" s="529" t="n"/>
+      <c r="T22" s="529" t="n"/>
     </row>
     <row r="23" ht="27" customHeight="1">
       <c r="A23" s="520" t="n"/>
@@ -11418,12 +11627,12 @@
       <c r="L23" s="13" t="n"/>
       <c r="M23" s="13" t="n"/>
       <c r="N23" s="13" t="n"/>
-      <c r="O23" s="528" t="n"/>
-      <c r="P23" s="528" t="n"/>
-      <c r="Q23" s="528" t="n"/>
-      <c r="R23" s="528" t="n"/>
-      <c r="S23" s="528" t="n"/>
-      <c r="T23" s="528" t="n"/>
+      <c r="O23" s="529" t="n"/>
+      <c r="P23" s="529" t="n"/>
+      <c r="Q23" s="529" t="n"/>
+      <c r="R23" s="529" t="n"/>
+      <c r="S23" s="529" t="n"/>
+      <c r="T23" s="529" t="n"/>
     </row>
     <row r="24" ht="27" customHeight="1">
       <c r="A24" s="520" t="n"/>
@@ -11440,12 +11649,12 @@
       <c r="L24" s="13" t="n"/>
       <c r="M24" s="13" t="n"/>
       <c r="N24" s="13" t="n"/>
-      <c r="O24" s="528" t="n"/>
-      <c r="P24" s="528" t="n"/>
-      <c r="Q24" s="528" t="n"/>
-      <c r="R24" s="528" t="n"/>
-      <c r="S24" s="528" t="n"/>
-      <c r="T24" s="528" t="n"/>
+      <c r="O24" s="529" t="n"/>
+      <c r="P24" s="529" t="n"/>
+      <c r="Q24" s="529" t="n"/>
+      <c r="R24" s="529" t="n"/>
+      <c r="S24" s="529" t="n"/>
+      <c r="T24" s="529" t="n"/>
     </row>
     <row r="25" ht="27" customHeight="1">
       <c r="A25" s="520" t="n"/>
@@ -11478,12 +11687,12 @@
       <c r="L26" s="13" t="n"/>
       <c r="M26" s="13" t="n"/>
       <c r="N26" s="13" t="n"/>
-      <c r="O26" s="528" t="n"/>
-      <c r="P26" s="528" t="n"/>
-      <c r="Q26" s="528" t="n"/>
-      <c r="R26" s="528" t="n"/>
-      <c r="S26" s="528" t="n"/>
-      <c r="T26" s="528" t="n"/>
+      <c r="O26" s="529" t="n"/>
+      <c r="P26" s="529" t="n"/>
+      <c r="Q26" s="529" t="n"/>
+      <c r="R26" s="529" t="n"/>
+      <c r="S26" s="529" t="n"/>
+      <c r="T26" s="529" t="n"/>
     </row>
     <row r="27" ht="27" customHeight="1">
       <c r="A27" s="520" t="n"/>
@@ -11500,12 +11709,12 @@
       <c r="L27" s="13" t="n"/>
       <c r="M27" s="13" t="n"/>
       <c r="N27" s="13" t="n"/>
-      <c r="O27" s="528" t="n"/>
-      <c r="P27" s="528" t="n"/>
-      <c r="Q27" s="528" t="n"/>
-      <c r="R27" s="528" t="n"/>
-      <c r="S27" s="528" t="n"/>
-      <c r="T27" s="528" t="n"/>
+      <c r="O27" s="529" t="n"/>
+      <c r="P27" s="529" t="n"/>
+      <c r="Q27" s="529" t="n"/>
+      <c r="R27" s="529" t="n"/>
+      <c r="S27" s="529" t="n"/>
+      <c r="T27" s="529" t="n"/>
     </row>
     <row r="28" ht="27" customHeight="1">
       <c r="A28" s="520" t="n"/>
@@ -11522,12 +11731,12 @@
       <c r="L28" s="13" t="n"/>
       <c r="M28" s="13" t="n"/>
       <c r="N28" s="13" t="n"/>
-      <c r="O28" s="528" t="n"/>
-      <c r="P28" s="528" t="n"/>
-      <c r="Q28" s="528" t="n"/>
-      <c r="R28" s="528" t="n"/>
-      <c r="S28" s="528" t="n"/>
-      <c r="T28" s="528" t="n"/>
+      <c r="O28" s="529" t="n"/>
+      <c r="P28" s="529" t="n"/>
+      <c r="Q28" s="529" t="n"/>
+      <c r="R28" s="529" t="n"/>
+      <c r="S28" s="529" t="n"/>
+      <c r="T28" s="529" t="n"/>
     </row>
     <row r="29" ht="27" customHeight="1">
       <c r="A29" s="520" t="n"/>
@@ -11544,12 +11753,12 @@
       <c r="L29" s="13" t="n"/>
       <c r="M29" s="13" t="n"/>
       <c r="N29" s="13" t="n"/>
-      <c r="O29" s="528" t="n"/>
-      <c r="P29" s="528" t="n"/>
-      <c r="Q29" s="528" t="n"/>
-      <c r="R29" s="528" t="n"/>
-      <c r="S29" s="528" t="n"/>
-      <c r="T29" s="528" t="n"/>
+      <c r="O29" s="529" t="n"/>
+      <c r="P29" s="529" t="n"/>
+      <c r="Q29" s="529" t="n"/>
+      <c r="R29" s="529" t="n"/>
+      <c r="S29" s="529" t="n"/>
+      <c r="T29" s="529" t="n"/>
     </row>
     <row r="30" ht="27" customHeight="1">
       <c r="A30" s="520" t="n"/>
@@ -11566,12 +11775,12 @@
       <c r="L30" s="13" t="n"/>
       <c r="M30" s="13" t="n"/>
       <c r="N30" s="13" t="n"/>
-      <c r="O30" s="528" t="n"/>
-      <c r="P30" s="528" t="n"/>
-      <c r="Q30" s="528" t="n"/>
-      <c r="R30" s="528" t="n"/>
-      <c r="S30" s="528" t="n"/>
-      <c r="T30" s="528" t="n"/>
+      <c r="O30" s="529" t="n"/>
+      <c r="P30" s="529" t="n"/>
+      <c r="Q30" s="529" t="n"/>
+      <c r="R30" s="529" t="n"/>
+      <c r="S30" s="529" t="n"/>
+      <c r="T30" s="529" t="n"/>
     </row>
     <row r="31" ht="27" customHeight="1">
       <c r="A31" s="520" t="n"/>
@@ -11588,12 +11797,12 @@
       <c r="L31" s="13" t="n"/>
       <c r="M31" s="13" t="n"/>
       <c r="N31" s="13" t="n"/>
-      <c r="O31" s="528" t="n"/>
-      <c r="P31" s="528" t="n"/>
-      <c r="Q31" s="528" t="n"/>
-      <c r="R31" s="528" t="n"/>
-      <c r="S31" s="528" t="n"/>
-      <c r="T31" s="528" t="n"/>
+      <c r="O31" s="529" t="n"/>
+      <c r="P31" s="529" t="n"/>
+      <c r="Q31" s="529" t="n"/>
+      <c r="R31" s="529" t="n"/>
+      <c r="S31" s="529" t="n"/>
+      <c r="T31" s="529" t="n"/>
     </row>
     <row r="32" ht="27" customHeight="1">
       <c r="A32" s="520" t="n"/>
@@ -11610,12 +11819,12 @@
       <c r="L32" s="13" t="n"/>
       <c r="M32" s="13" t="n"/>
       <c r="N32" s="13" t="n"/>
-      <c r="O32" s="528" t="n"/>
-      <c r="P32" s="528" t="n"/>
-      <c r="Q32" s="528" t="n"/>
-      <c r="R32" s="528" t="n"/>
-      <c r="S32" s="528" t="n"/>
-      <c r="T32" s="528" t="n"/>
+      <c r="O32" s="529" t="n"/>
+      <c r="P32" s="529" t="n"/>
+      <c r="Q32" s="529" t="n"/>
+      <c r="R32" s="529" t="n"/>
+      <c r="S32" s="529" t="n"/>
+      <c r="T32" s="529" t="n"/>
     </row>
     <row r="33" ht="27" customHeight="1">
       <c r="A33" s="521" t="n"/>
@@ -11632,12 +11841,12 @@
       <c r="L33" s="13" t="n"/>
       <c r="M33" s="13" t="n"/>
       <c r="N33" s="13" t="n"/>
-      <c r="O33" s="528" t="n"/>
-      <c r="P33" s="528" t="n"/>
-      <c r="Q33" s="528" t="n"/>
-      <c r="R33" s="528" t="n"/>
-      <c r="S33" s="528" t="n"/>
-      <c r="T33" s="528" t="n"/>
+      <c r="O33" s="529" t="n"/>
+      <c r="P33" s="529" t="n"/>
+      <c r="Q33" s="529" t="n"/>
+      <c r="R33" s="529" t="n"/>
+      <c r="S33" s="529" t="n"/>
+      <c r="T33" s="529" t="n"/>
     </row>
     <row r="34" ht="27" customHeight="1">
       <c r="A34" s="520" t="n"/>
@@ -11654,12 +11863,12 @@
       <c r="L34" s="13" t="n"/>
       <c r="M34" s="13" t="n"/>
       <c r="N34" s="13" t="n"/>
-      <c r="O34" s="528" t="n"/>
-      <c r="P34" s="528" t="n"/>
-      <c r="Q34" s="528" t="n"/>
-      <c r="R34" s="528" t="n"/>
-      <c r="S34" s="528" t="n"/>
-      <c r="T34" s="528" t="n"/>
+      <c r="O34" s="529" t="n"/>
+      <c r="P34" s="529" t="n"/>
+      <c r="Q34" s="529" t="n"/>
+      <c r="R34" s="529" t="n"/>
+      <c r="S34" s="529" t="n"/>
+      <c r="T34" s="529" t="n"/>
     </row>
     <row r="35" ht="27" customHeight="1">
       <c r="A35" s="519" t="n"/>
@@ -11676,12 +11885,12 @@
       <c r="L35" s="13" t="n"/>
       <c r="M35" s="13" t="n"/>
       <c r="N35" s="13" t="n"/>
-      <c r="O35" s="528" t="n"/>
-      <c r="P35" s="528" t="n"/>
-      <c r="Q35" s="528" t="n"/>
-      <c r="R35" s="528" t="n"/>
-      <c r="S35" s="528" t="n"/>
-      <c r="T35" s="528" t="n"/>
+      <c r="O35" s="529" t="n"/>
+      <c r="P35" s="529" t="n"/>
+      <c r="Q35" s="529" t="n"/>
+      <c r="R35" s="529" t="n"/>
+      <c r="S35" s="529" t="n"/>
+      <c r="T35" s="529" t="n"/>
     </row>
     <row r="36" ht="27" customHeight="1" thickBot="1">
       <c r="A36" s="522" t="n"/>
@@ -11698,23 +11907,23 @@
       <c r="L36" s="13" t="n"/>
       <c r="M36" s="13" t="n"/>
       <c r="N36" s="13" t="n"/>
-      <c r="O36" s="528" t="n"/>
-      <c r="P36" s="528" t="n"/>
-      <c r="Q36" s="528" t="n"/>
-      <c r="R36" s="528" t="n"/>
-      <c r="S36" s="528" t="n"/>
-      <c r="T36" s="528" t="n"/>
+      <c r="O36" s="529" t="n"/>
+      <c r="P36" s="529" t="n"/>
+      <c r="Q36" s="529" t="n"/>
+      <c r="R36" s="529" t="n"/>
+      <c r="S36" s="529" t="n"/>
+      <c r="T36" s="529" t="n"/>
     </row>
     <row r="37" ht="27" customHeight="1">
-      <c r="A37" s="528" t="n"/>
-      <c r="B37" s="528" t="n"/>
+      <c r="A37" s="529" t="n"/>
+      <c r="B37" s="529" t="n"/>
       <c r="C37" s="18" t="n"/>
-      <c r="D37" s="528" t="n"/>
-      <c r="E37" s="528" t="n"/>
-      <c r="F37" s="528" t="n"/>
+      <c r="D37" s="529" t="n"/>
+      <c r="E37" s="529" t="n"/>
+      <c r="F37" s="529" t="n"/>
       <c r="G37" s="22" t="n"/>
-      <c r="H37" s="528" t="n"/>
-      <c r="I37" s="528" t="n"/>
+      <c r="H37" s="529" t="n"/>
+      <c r="I37" s="529" t="n"/>
       <c r="J37" s="119" t="n"/>
       <c r="K37" s="119" t="n"/>
       <c r="L37" s="119" t="n"/>
@@ -11722,7 +11931,7 @@
       <c r="N37" s="119" t="n"/>
     </row>
     <row r="38" ht="27" customHeight="1">
-      <c r="A38" s="528" t="inlineStr">
+      <c r="A38" s="529" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
@@ -11732,33 +11941,33 @@
         <v/>
       </c>
       <c r="C38" s="18" t="n"/>
-      <c r="D38" s="528" t="n"/>
-      <c r="E38" s="528" t="n"/>
-      <c r="F38" s="528" t="n"/>
+      <c r="D38" s="529" t="n"/>
+      <c r="E38" s="529" t="n"/>
+      <c r="F38" s="529" t="n"/>
       <c r="G38" s="22" t="n"/>
-      <c r="H38" s="528" t="n"/>
-      <c r="I38" s="528" t="n"/>
-      <c r="J38" s="528" t="n"/>
-      <c r="K38" s="528" t="n"/>
-      <c r="L38" s="528" t="n"/>
-      <c r="M38" s="528" t="n"/>
-      <c r="N38" s="528" t="n"/>
+      <c r="H38" s="529" t="n"/>
+      <c r="I38" s="529" t="n"/>
+      <c r="J38" s="529" t="n"/>
+      <c r="K38" s="529" t="n"/>
+      <c r="L38" s="529" t="n"/>
+      <c r="M38" s="529" t="n"/>
+      <c r="N38" s="529" t="n"/>
     </row>
     <row r="39" ht="27" customHeight="1">
-      <c r="A39" s="528" t="n"/>
-      <c r="B39" s="528" t="n"/>
+      <c r="A39" s="529" t="n"/>
+      <c r="B39" s="529" t="n"/>
       <c r="C39" s="18" t="n"/>
-      <c r="D39" s="528" t="n"/>
-      <c r="E39" s="528" t="n"/>
-      <c r="F39" s="528" t="n"/>
+      <c r="D39" s="529" t="n"/>
+      <c r="E39" s="529" t="n"/>
+      <c r="F39" s="529" t="n"/>
       <c r="G39" s="22" t="n"/>
-      <c r="H39" s="528" t="n"/>
-      <c r="I39" s="528" t="n"/>
-      <c r="J39" s="528" t="n"/>
-      <c r="K39" s="528" t="n"/>
-      <c r="L39" s="528" t="n"/>
-      <c r="M39" s="528" t="n"/>
-      <c r="N39" s="528" t="n"/>
+      <c r="H39" s="529" t="n"/>
+      <c r="I39" s="529" t="n"/>
+      <c r="J39" s="529" t="n"/>
+      <c r="K39" s="529" t="n"/>
+      <c r="L39" s="529" t="n"/>
+      <c r="M39" s="529" t="n"/>
+      <c r="N39" s="529" t="n"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="G40" s="22" t="n"/>

--- a/entry_lists/Sonoma Provisional Entry List.xlsx
+++ b/entry_lists/Sonoma Provisional Entry List.xlsx
@@ -11990,4 +11990,270 @@
   <pageSetup orientation="portrait" scale="35" horizontalDpi="0" verticalDpi="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101004E036A3F1E15E94A92324F6304EC7433" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fc0835945ef966e9db09458230e2a2f9">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c298f69c-7e32-4d69-8a4f-44b776bc75e5" xmlns:ns3="27d18e64-52d1-4030-b5cf-9c691bb829da" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6d705bd76fb4197055f25945441ea0bc" ns2:_="" ns3:_="">
+    <xsd:import namespace="c298f69c-7e32-4d69-8a4f-44b776bc75e5"/>
+    <xsd:import namespace="27d18e64-52d1-4030-b5cf-9c691bb829da"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="c298f69c-7e32-4d69-8a4f-44b776bc75e5" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="13" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="a9f39fb5-284b-401f-a6b6-219cbcbef94a" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="15" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="16" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="17" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="20" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="21" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="22" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="27d18e64-52d1-4030-b5cf-9c691bb829da" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="14" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{064c1bc0-6f8f-4e4e-b190-c39f93b5bc70}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="27d18e64-52d1-4030-b5cf-9c691bb829da">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FC16353-C794-4EA1-B31C-87BB155310C4}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DF202E9-DE9A-4C39-85D2-7FAAE6E2EEA6}"/>
 </file>